--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="793">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -638,9 +638,6 @@
     <t>LM3914 Dot/Bar Display Driver</t>
   </si>
   <si>
-    <t>ATMEGA32A-PU</t>
-  </si>
-  <si>
     <t>A05-03</t>
   </si>
   <si>
@@ -1031,9 +1028,6 @@
     <t>KS74AHCT164N</t>
   </si>
   <si>
-    <t>A07-18</t>
-  </si>
-  <si>
     <t>Shift Register, 8-Bit, Right Direction, CMOS, PDIP14</t>
   </si>
   <si>
@@ -2134,6 +2128,539 @@
   </si>
   <si>
     <t>BCD to Seven Segment Decoder/Driver</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERIAL CONNECTOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOLEX CONNECTOR 3P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12-18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT89C51-24PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 1W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300mA 3.2-3.4v 100-120LM 300milchip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 10W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZY12PDN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB-C PD2.0/3.0 to DC Converter Power Supply Module Decoy Fast Charge Trigger Poll Polling Detector Tester(ZY12PDN)</t>
+  </si>
+  <si>
+    <t>DOM LED 4PIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED ARRAY 5 LEDS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARDUINO NANO 168P 5V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATMEGA8535-16PU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC0809CCN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOCKET HEADER 40P WIDE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATMEGA32/32A-PU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD4035BE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM74HC688N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2206CP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2N2102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC0800LCN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL084CN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM331N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KA331</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL061CP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIP SWITCH 3P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINI BREADBOARD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XT60 CONNECTOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC STEPDOWN USB OUT 3A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL4015 STEPDOWN 5A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEPUP FROM MICROUSB 2A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC STEPUP 2A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B04-14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDUCTORS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM2596 STEPDOWN 3A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V TO 3.3V STEPDOWN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MH-MINI-360 STEPDOWN 1.8A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANANA SOCKET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESISTOR ARRAY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHANICAL KEYBOARD SWITCH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC-DC STEPDOWN 3.3/5/12V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCS1600</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCS1700</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCS1800</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-15</t>
+  </si>
+  <si>
+    <t>B05-16</t>
+  </si>
+  <si>
+    <t>WAGO TERMINAL 3P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C TFT DISPLAY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 SEGMENT DISPLAY 4-DIGIT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATRIX LED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI TFT DISPLAY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP2Y10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHARP DUST SENSOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 PIN SMD TO DIP SOCKET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B05-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAGO TERMINAL 8P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAGO TERMINAL 5P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAGO TERMINAL 2P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUSH BUTTON 4PIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUSH BUTTON SOFT 4PIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUSH BUTTON NARROW 2PIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOGGLE SWITCH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLIDE SWITCH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUMPPER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B06-12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB STAND (고정다리)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B03-07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUSE 10A 원통형</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUSH BUTTON KNOB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUSH BUTTON LONG 2PIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUSH BUTTON SOFT 2PIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A13-12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2144,7 +2671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월 &quot;dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2200,6 +2727,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2229,7 +2762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2280,6 +2813,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2633,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G222" sqref="G222"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161:B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2708,13 +3244,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -2723,13 +3259,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -2738,13 +3274,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -2753,13 +3289,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -2768,13 +3304,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -2783,13 +3319,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -2798,13 +3334,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -2813,13 +3349,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G11" s="6">
         <v>101</v>
@@ -2830,13 +3366,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -2845,13 +3381,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -2860,13 +3396,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -2875,13 +3411,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -2890,13 +3426,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -2905,16 +3441,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>17</v>
@@ -2925,16 +3461,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>17</v>
@@ -2945,16 +3481,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="F19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>17</v>
@@ -2965,16 +3501,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>17</v>
@@ -2985,16 +3521,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="F21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>17</v>
@@ -3005,16 +3541,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="F22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>17</v>
@@ -3025,19 +3561,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>17</v>
@@ -3048,16 +3584,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>17</v>
@@ -3068,16 +3604,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>17</v>
@@ -3088,16 +3624,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>17</v>
@@ -3108,13 +3644,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -3123,13 +3659,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -3138,13 +3674,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G29" s="6"/>
     </row>
@@ -3153,13 +3689,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -3168,13 +3704,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -3183,13 +3719,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -3198,19 +3734,19 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3218,19 +3754,19 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3238,19 +3774,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>17</v>
@@ -3261,19 +3797,19 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>17</v>
@@ -3284,19 +3820,19 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>17</v>
@@ -3307,13 +3843,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G38" s="6"/>
     </row>
@@ -3322,19 +3858,19 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3342,13 +3878,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G40" s="6"/>
     </row>
@@ -3357,13 +3893,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G41" s="6"/>
     </row>
@@ -3372,13 +3908,13 @@
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G42" s="6"/>
     </row>
@@ -3387,13 +3923,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G43" s="6"/>
     </row>
@@ -3402,13 +3938,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G44" s="6"/>
     </row>
@@ -3417,13 +3953,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G45" s="6"/>
     </row>
@@ -3432,13 +3968,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G46" s="6"/>
     </row>
@@ -3447,13 +3983,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G47" s="6"/>
     </row>
@@ -3462,13 +3998,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G48" s="6"/>
     </row>
@@ -3477,13 +4013,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G49" s="6"/>
     </row>
@@ -3492,13 +4028,13 @@
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G50" s="6"/>
     </row>
@@ -3507,13 +4043,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G51" s="6"/>
     </row>
@@ -3522,13 +4058,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G52" s="6"/>
     </row>
@@ -3537,13 +4073,13 @@
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G53" s="6"/>
     </row>
@@ -3575,22 +4111,22 @@
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>652</v>
-      </c>
       <c r="J55" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3621,19 +4157,19 @@
         <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3664,19 +4200,19 @@
         <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="J59" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3707,10 +4243,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>32</v>
@@ -3719,7 +4255,7 @@
         <v>36</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3727,19 +4263,19 @@
         <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3793,13 +4329,13 @@
         <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G65" s="6"/>
     </row>
@@ -3808,13 +4344,13 @@
         <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G66" s="6"/>
     </row>
@@ -3823,13 +4359,13 @@
         <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G67" s="6"/>
     </row>
@@ -3838,16 +4374,16 @@
         <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>184</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>17</v>
@@ -3858,16 +4394,16 @@
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="F69" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>17</v>
@@ -3878,10 +4414,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>171</v>
@@ -3893,10 +4429,10 @@
         <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>171</v>
@@ -3908,10 +4444,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>171</v>
@@ -3923,10 +4459,10 @@
         <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>171</v>
@@ -3938,16 +4474,16 @@
         <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>171</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>17</v>
@@ -3958,16 +4494,16 @@
         <v>72</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>171</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J75" s="9" t="s">
         <v>17</v>
@@ -3978,17 +4514,17 @@
         <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G76" s="6"/>
       <c r="J76" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3996,10 +4532,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>14</v>
@@ -4008,7 +4544,7 @@
         <v>171</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>17</v>
@@ -4019,10 +4555,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>14</v>
@@ -4031,7 +4567,7 @@
         <v>171</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>17</v>
@@ -4042,10 +4578,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>14</v>
@@ -4054,7 +4590,7 @@
         <v>171</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>17</v>
@@ -4065,16 +4601,16 @@
         <v>77</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>17</v>
@@ -4085,13 +4621,13 @@
         <v>78</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G81" s="6"/>
     </row>
@@ -4146,16 +4682,16 @@
         <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J84" s="9" t="s">
         <v>17</v>
@@ -4166,16 +4702,16 @@
         <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>17</v>
@@ -4186,19 +4722,19 @@
         <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4206,19 +4742,19 @@
         <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4226,16 +4762,16 @@
         <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>17</v>
@@ -4246,19 +4782,19 @@
         <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4266,19 +4802,19 @@
         <v>87</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4286,19 +4822,19 @@
         <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4306,16 +4842,16 @@
         <v>89</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>184</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>17</v>
@@ -4326,19 +4862,19 @@
         <v>90</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4461,19 +4997,19 @@
         <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J99" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4481,19 +5017,19 @@
         <v>97</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J100" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4501,19 +5037,19 @@
         <v>98</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="G101" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J101" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4521,19 +5057,19 @@
         <v>99</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4541,19 +5077,19 @@
         <v>100</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J103" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4561,10 +5097,10 @@
         <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G104" s="6"/>
     </row>
@@ -4573,10 +5109,10 @@
         <v>102</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G105" s="6"/>
     </row>
@@ -4585,10 +5121,10 @@
         <v>103</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G106" s="6"/>
     </row>
@@ -4597,10 +5133,10 @@
         <v>104</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G107" s="6"/>
     </row>
@@ -4609,10 +5145,10 @@
         <v>105</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G108" s="6"/>
     </row>
@@ -4690,19 +5226,19 @@
         <v>109</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>196</v>
       </c>
       <c r="J112" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4710,19 +5246,19 @@
         <v>110</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>606</v>
-      </c>
       <c r="G113" s="14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J113" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4730,19 +5266,19 @@
         <v>111</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G114" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>632</v>
-      </c>
       <c r="J114" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4750,19 +5286,19 @@
         <v>112</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>652</v>
-      </c>
       <c r="J115" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4816,19 +5352,19 @@
         <v>115</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G118" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="J118" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4836,19 +5372,19 @@
         <v>116</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4856,19 +5392,19 @@
         <v>117</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4876,14 +5412,14 @@
         <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G121" s="6"/>
       <c r="J121" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4891,19 +5427,19 @@
         <v>119</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J122" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4911,19 +5447,19 @@
         <v>120</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J123" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4931,19 +5467,19 @@
         <v>121</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J124" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4974,7 +5510,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>133</v>
@@ -4997,19 +5533,19 @@
         <v>124</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J127" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5132,16 +5668,16 @@
         <v>130</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="J133" s="9" t="s">
         <v>17</v>
@@ -5175,19 +5711,19 @@
         <v>132</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="G135" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J135" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5287,19 +5823,19 @@
         <v>137</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J140" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5307,17 +5843,17 @@
         <v>138</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G141" s="6"/>
       <c r="J141" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5325,16 +5861,16 @@
         <v>139</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="F142" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G142" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="J142" s="9" t="s">
         <v>17</v>
@@ -5345,16 +5881,16 @@
         <v>140</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G143" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5362,19 +5898,19 @@
         <v>141</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J144" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5382,10 +5918,10 @@
         <v>142</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G145" s="6"/>
     </row>
@@ -5394,19 +5930,19 @@
         <v>143</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J146" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5414,16 +5950,16 @@
         <v>144</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="G147" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="J147" s="9" t="s">
         <v>17</v>
@@ -5434,16 +5970,16 @@
         <v>145</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>334</v>
+        <v>676</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J148" s="9" t="s">
         <v>17</v>
@@ -5454,19 +5990,19 @@
         <v>146</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="G149" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="G149" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="J149" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5497,19 +6033,19 @@
         <v>148</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G151" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>537</v>
-      </c>
       <c r="J151" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5517,19 +6053,19 @@
         <v>149</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="J152" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5560,19 +6096,19 @@
         <v>151</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J154" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5678,19 +6214,19 @@
         <v>156</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5698,19 +6234,19 @@
         <v>157</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J160" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5764,19 +6300,19 @@
         <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F163" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>640</v>
-      </c>
       <c r="J163" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5807,19 +6343,19 @@
         <v>162</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="G165" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J165" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5827,19 +6363,19 @@
         <v>163</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>171</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J166" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5847,10 +6383,10 @@
         <v>164</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G167" s="6"/>
     </row>
@@ -5859,16 +6395,16 @@
         <v>165</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="F168" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J168" s="9"/>
     </row>
@@ -5877,13 +6413,13 @@
         <v>166</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G169" s="6"/>
     </row>
@@ -5892,19 +6428,19 @@
         <v>167</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F170" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G170" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="J170" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5935,16 +6471,16 @@
         <v>169</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J172" s="9" t="s">
         <v>17</v>
@@ -5955,16 +6491,16 @@
         <v>170</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J173" s="9" t="s">
         <v>17</v>
@@ -6021,19 +6557,19 @@
         <v>173</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J176" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6041,19 +6577,19 @@
         <v>174</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6061,19 +6597,19 @@
         <v>175</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>625</v>
-      </c>
       <c r="J178" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6081,22 +6617,22 @@
         <v>176</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J179" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6104,19 +6640,19 @@
         <v>177</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G180" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G180" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="J180" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6124,16 +6660,16 @@
         <v>178</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="G181" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="J181" s="9" t="s">
         <v>17</v>
@@ -6144,16 +6680,16 @@
         <v>179</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="F182" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J182" s="9"/>
     </row>
@@ -6162,16 +6698,16 @@
         <v>180</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G183" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G183" s="6" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6179,19 +6715,19 @@
         <v>181</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J184" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6199,10 +6735,10 @@
         <v>182</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G185" s="6"/>
     </row>
@@ -6211,13 +6747,13 @@
         <v>183</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G186" s="6"/>
     </row>
@@ -6226,19 +6762,19 @@
         <v>184</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C187" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G187" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="J187" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6246,19 +6782,19 @@
         <v>185</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G188" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="J188" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6266,10 +6802,10 @@
         <v>186</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G189" s="6"/>
     </row>
@@ -6278,16 +6814,16 @@
         <v>187</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J190" s="9" t="s">
         <v>17</v>
@@ -6298,16 +6834,16 @@
         <v>188</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J191" s="9" t="s">
         <v>17</v>
@@ -6318,10 +6854,10 @@
         <v>189</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G192" s="6"/>
     </row>
@@ -6563,22 +7099,22 @@
         <v>200</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J203" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6586,19 +7122,19 @@
         <v>201</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J204" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6652,19 +7188,19 @@
         <v>204</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J207" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6672,19 +7208,19 @@
         <v>205</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G208" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="J208" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6692,19 +7228,19 @@
         <v>206</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C209" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G209" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="J209" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6712,16 +7248,16 @@
         <v>207</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J210" s="9" t="s">
         <v>17</v>
@@ -6732,19 +7268,19 @@
         <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>184</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J211" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6752,19 +7288,19 @@
         <v>209</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G212" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J212" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6772,19 +7308,19 @@
         <v>210</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G213" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J213" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6792,19 +7328,19 @@
         <v>211</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C214" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G214" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G214" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="J214" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6858,19 +7394,19 @@
         <v>214</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J217" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6878,19 +7414,19 @@
         <v>215</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J218" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -6944,13 +7480,13 @@
         <v>218</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G221" s="6"/>
     </row>
@@ -6959,10 +7495,10 @@
         <v>219</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G222" s="6"/>
     </row>
@@ -6971,17 +7507,17 @@
         <v>220</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>171</v>
       </c>
       <c r="G223" s="6"/>
       <c r="J223" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -6989,19 +7525,19 @@
         <v>221</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J224" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -7009,211 +7545,612 @@
         <v>222</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C225" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G225" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="J225" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>223</v>
       </c>
+      <c r="B226" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>660</v>
+      </c>
       <c r="G226" s="6"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B227" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>662</v>
+      </c>
       <c r="G227" s="6"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B228" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>664</v>
+      </c>
       <c r="G228" s="6"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G229" s="6"/>
+      <c r="B229" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G229" s="6" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G230" s="6"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G231" s="6"/>
+      <c r="B230" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B231" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="G231" s="17" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B232" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>675</v>
+      </c>
       <c r="G232" s="6"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B233" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>756</v>
+      </c>
       <c r="G233" s="6"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B234" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="G234" s="6"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B235" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>681</v>
+      </c>
       <c r="G235" s="6"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B236" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>684</v>
+      </c>
       <c r="G236" s="6"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B237" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="G237" s="6"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B238" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="G238" s="6"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B239" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>691</v>
+      </c>
       <c r="G239" s="6"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B240" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>690</v>
+      </c>
       <c r="G240" s="6"/>
     </row>
-    <row r="241" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B241" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="G241" s="6"/>
     </row>
-    <row r="242" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B242" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>696</v>
+      </c>
       <c r="G242" s="6"/>
     </row>
-    <row r="243" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B243" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="G243" s="6"/>
     </row>
-    <row r="244" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B244" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>700</v>
+      </c>
       <c r="G244" s="6"/>
     </row>
-    <row r="245" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B245" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>702</v>
+      </c>
       <c r="G245" s="6"/>
     </row>
-    <row r="246" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B246" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>704</v>
+      </c>
       <c r="G246" s="6"/>
     </row>
-    <row r="247" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B247" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>706</v>
+      </c>
       <c r="G247" s="6"/>
     </row>
-    <row r="248" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B248" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>708</v>
+      </c>
       <c r="G248" s="6"/>
     </row>
-    <row r="249" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B249" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>709</v>
+      </c>
       <c r="G249" s="6"/>
     </row>
-    <row r="250" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B250" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>711</v>
+      </c>
       <c r="G250" s="6"/>
     </row>
-    <row r="251" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B251" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>713</v>
+      </c>
       <c r="G251" s="6"/>
     </row>
-    <row r="252" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B252" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>714</v>
+      </c>
       <c r="G252" s="6"/>
     </row>
-    <row r="253" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B253" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>717</v>
+      </c>
       <c r="G253" s="6"/>
     </row>
-    <row r="254" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B254" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>719</v>
+      </c>
       <c r="G254" s="6"/>
     </row>
-    <row r="255" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B255" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>721</v>
+      </c>
       <c r="G255" s="6"/>
     </row>
-    <row r="256" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B256" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>723</v>
+      </c>
       <c r="G256" s="6"/>
     </row>
-    <row r="257" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B257" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>725</v>
+      </c>
       <c r="G257" s="6"/>
     </row>
-    <row r="258" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B258" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>727</v>
+      </c>
       <c r="G258" s="6"/>
     </row>
-    <row r="259" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B259" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>729</v>
+      </c>
       <c r="G259" s="6"/>
     </row>
-    <row r="260" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B260" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>731</v>
+      </c>
       <c r="G260" s="6"/>
     </row>
-    <row r="261" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B261" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>733</v>
+      </c>
       <c r="G261" s="6"/>
     </row>
-    <row r="262" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B262" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>735</v>
+      </c>
       <c r="G262" s="6"/>
     </row>
-    <row r="263" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B263" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>739</v>
+      </c>
       <c r="G263" s="6"/>
     </row>
-    <row r="264" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B264" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>740</v>
+      </c>
       <c r="G264" s="6"/>
     </row>
-    <row r="265" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B265" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>741</v>
+      </c>
       <c r="G265" s="6"/>
     </row>
-    <row r="266" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B266" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>769</v>
+      </c>
       <c r="G266" s="6"/>
     </row>
-    <row r="267" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B267" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>744</v>
+      </c>
       <c r="G267" s="6"/>
     </row>
-    <row r="268" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B268" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>746</v>
+      </c>
       <c r="G268" s="6"/>
     </row>
-    <row r="269" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B269" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>792</v>
+      </c>
       <c r="G269" s="6"/>
     </row>
-    <row r="270" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B270" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>750</v>
+      </c>
       <c r="G270" s="6"/>
     </row>
-    <row r="271" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G271" s="6"/>
-    </row>
-    <row r="272" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B271" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B272" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>755</v>
+      </c>
       <c r="G272" s="6"/>
     </row>
-    <row r="273" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B273" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="G273" s="6"/>
     </row>
-    <row r="274" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B274" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>762</v>
+      </c>
       <c r="G274" s="6"/>
     </row>
-    <row r="275" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B275" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>765</v>
+      </c>
       <c r="G275" s="6"/>
     </row>
-    <row r="276" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B276" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>767</v>
+      </c>
       <c r="G276" s="6"/>
     </row>
-    <row r="277" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B277" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>768</v>
+      </c>
       <c r="G277" s="6"/>
     </row>
-    <row r="278" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B278" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>771</v>
+      </c>
       <c r="G278" s="6"/>
     </row>
-    <row r="279" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B279" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>774</v>
+      </c>
       <c r="G279" s="6"/>
     </row>
-    <row r="280" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B280" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>776</v>
+      </c>
       <c r="G280" s="6"/>
     </row>
-    <row r="281" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B281" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>778</v>
+      </c>
       <c r="G281" s="6"/>
     </row>
-    <row r="282" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B282" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>757</v>
+      </c>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B283" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="G283" s="6"/>
     </row>
-    <row r="284" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B284" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>783</v>
+      </c>
       <c r="G284" s="6"/>
     </row>
-    <row r="285" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B285" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>785</v>
+      </c>
       <c r="G285" s="6"/>
     </row>
-    <row r="286" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B286" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>787</v>
+      </c>
       <c r="G286" s="6"/>
     </row>
-    <row r="287" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B287" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>789</v>
+      </c>
       <c r="G287" s="6"/>
     </row>
-    <row r="288" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B288" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>791</v>
+      </c>
       <c r="G288" s="6"/>
     </row>
     <row r="289" spans="7:7" x14ac:dyDescent="0.3">

--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROCESSOR\Desktop\Justin\datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Documents\datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E9F707-4CFC-4DF4-AFF4-CC2CDA4C2A4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="806">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -2187,9 +2188,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>USB-C PD2.0/3.0 to DC Converter Power Supply Module Decoy Fast Charge Trigger Poll Polling Detector Tester(ZY12PDN)</t>
-  </si>
-  <si>
     <t>DOM LED 4PIN</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2496,18 +2494,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GP2Y10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B05-13</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SHARP DUST SENSOR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>8 PIN SMD TO DIP SOCKET</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2661,13 +2651,66 @@
   </si>
   <si>
     <t>S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-Bit μP Compatible A/D Converters with 8-Channel Multiplexer</t>
+  </si>
+  <si>
+    <t>CMOS 4-STAGE PARALLEL IN/PARALLEL OUT SHIFT REGISTER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-Bit Magnitude Comparator (Equality Detector)</t>
+  </si>
+  <si>
+    <t>Monolithic Function Generator</t>
+  </si>
+  <si>
+    <t>TRANSISTER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-Bit Digital-to-Analog Converters</t>
+  </si>
+  <si>
+    <t>FET-Input Operational Amplifiers</t>
+  </si>
+  <si>
+    <t>Precision Voltage-to-Frequency Converters</t>
+  </si>
+  <si>
+    <t>V-F CONVERTER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low-Power JFET-Input Operational Amplifiers</t>
+  </si>
+  <si>
+    <t>Hall Effect Base Linear Current Sensor</t>
+  </si>
+  <si>
+    <t>SIMPLE SWITCHER® Power Converter 150-kHz 3-A Step-Down Voltage Regulator</t>
+  </si>
+  <si>
+    <t>GP2Y1001AU</t>
+  </si>
+  <si>
+    <t>Compact Dust Sensor for Air Conditioners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB-C PD2.0/3.0 to DC Converter Power Supply Module </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월 &quot;dd&quot;일&quot;"/>
   </numFmts>
@@ -2728,10 +2771,12 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Bitstream Vera Sans Mono"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2805,21 +2850,21 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Text 1" xfId="2"/>
+    <cellStyle name="Text 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -3166,11 +3211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161:B162"/>
+    <sheetView tabSelected="1" topLeftCell="E187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G234" sqref="G234:G235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3190,19 +3235,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -4555,7 +4600,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>203</v>
@@ -5254,7 +5299,7 @@
       <c r="F113" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G113" s="14" t="s">
+      <c r="G113" s="1" t="s">
         <v>603</v>
       </c>
       <c r="J113" s="11" t="s">
@@ -5446,7 +5491,7 @@
       <c r="A123" s="4">
         <v>120</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="14" t="s">
         <v>474</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -5973,7 +6018,7 @@
         <v>332</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>32</v>
@@ -7573,6 +7618,9 @@
       <c r="G226" s="6"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" s="4">
+        <v>224</v>
+      </c>
       <c r="B227" s="1" t="s">
         <v>661</v>
       </c>
@@ -7582,6 +7630,9 @@
       <c r="G227" s="6"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" s="4">
+        <v>225</v>
+      </c>
       <c r="B228" s="1" t="s">
         <v>663</v>
       </c>
@@ -7591,6 +7642,9 @@
       <c r="G228" s="6"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" s="4">
+        <v>226</v>
+      </c>
       <c r="B229" s="1" t="s">
         <v>665</v>
       </c>
@@ -7602,6 +7656,9 @@
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" s="4">
+        <v>227</v>
+      </c>
       <c r="B230" s="1" t="s">
         <v>668</v>
       </c>
@@ -7612,544 +7669,793 @@
         <v>670</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" s="4">
+        <v>228</v>
+      </c>
       <c r="B231" s="1" t="s">
         <v>671</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="G231" s="17" t="s">
+      <c r="G231" s="16" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" s="4">
+        <v>229</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B232" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>675</v>
-      </c>
       <c r="G232" s="6"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" s="4">
+        <v>230</v>
+      </c>
       <c r="B233" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G233" s="6"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" s="4">
+        <v>231</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C234" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G234" s="6"/>
+      <c r="J234" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" s="4">
+        <v>232</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G235" s="6"/>
+      <c r="J235" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" s="4">
+        <v>233</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="J236" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" s="4">
+        <v>234</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" s="4">
+        <v>235</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="J238" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" s="4">
+        <v>236</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="J239" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" s="4">
+        <v>237</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="J240" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A241" s="4">
+        <v>238</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G241" s="6"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A242" s="4">
+        <v>239</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="J242" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A243" s="4">
+        <v>240</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="J243" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A244" s="4">
+        <v>241</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="J244" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A245" s="4">
+        <v>242</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="J245" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A246" s="4">
+        <v>243</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J246" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A247" s="4">
+        <v>244</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G247" s="6"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A248" s="4">
+        <v>245</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G248" s="6"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A249" s="4">
+        <v>246</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G249" s="6"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A250" s="4">
+        <v>247</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="G250" s="6"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A251" s="4">
+        <v>248</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="G251" s="6"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A252" s="4">
+        <v>249</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G252" s="6"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253" s="4">
+        <v>250</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="G253" s="6"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A254" s="4">
+        <v>251</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G254" s="6"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A255" s="4">
+        <v>252</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G255" s="6"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A256" s="4">
+        <v>253</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="J256" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" s="4">
+        <v>254</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" s="4">
+        <v>255</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G258" s="6"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259" s="4">
+        <v>256</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G259" s="6"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" s="4">
+        <v>257</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G260" s="6"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261" s="4">
+        <v>258</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G261" s="6"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262" s="4">
+        <v>259</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G262" s="6"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" s="4">
+        <v>260</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="J263" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" s="4">
+        <v>261</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="J264" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="4">
+        <v>262</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="J265" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266" s="4">
+        <v>263</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="G266" s="6"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267" s="4">
+        <v>264</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G267" s="6"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" s="4">
+        <v>265</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G268" s="6"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" s="4">
+        <v>266</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G269" s="6"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" s="4">
+        <v>267</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G270" s="6"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" s="4">
+        <v>268</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="J271" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" s="4">
+        <v>269</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G272" s="6"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" s="4">
+        <v>270</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="G233" s="6"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B234" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="G234" s="6"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B235" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="G235" s="6"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B236" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="G236" s="6"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B237" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="G237" s="6"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B238" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="G238" s="6"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B239" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="G239" s="6"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B240" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="G240" s="6"/>
-    </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B241" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="G241" s="6"/>
-    </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B242" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="G242" s="6"/>
-    </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B243" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="G243" s="6"/>
-    </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B244" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="G244" s="6"/>
-    </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B245" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="G245" s="6"/>
-    </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B246" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="G246" s="6"/>
-    </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B247" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="G247" s="6"/>
-    </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B248" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="G248" s="6"/>
-    </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B249" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="G249" s="6"/>
-    </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B250" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="G250" s="6"/>
-    </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B251" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="G251" s="6"/>
-    </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B252" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="G252" s="6"/>
-    </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B253" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="G253" s="6"/>
-    </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B254" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="G254" s="6"/>
-    </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B255" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="G255" s="6"/>
-    </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B256" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="G256" s="6"/>
-    </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B257" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="G257" s="6"/>
-    </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B258" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="G258" s="6"/>
-    </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B259" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="G259" s="6"/>
-    </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B260" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="G260" s="6"/>
-    </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B261" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="G261" s="6"/>
-    </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B262" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="G262" s="6"/>
-    </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B263" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G263" s="6"/>
-    </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B264" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="G264" s="6"/>
-    </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B265" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="G265" s="6"/>
-    </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B266" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="C266" s="1" t="s">
+      <c r="D273" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G273" s="6"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" s="4">
+        <v>271</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G274" s="6"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" s="4">
+        <v>272</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G275" s="6"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" s="4">
+        <v>273</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G276" s="6"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" s="4">
+        <v>274</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G277" s="6"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="4">
+        <v>275</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="G266" s="6"/>
-    </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B267" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="G267" s="6"/>
-    </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B268" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="G268" s="6"/>
-    </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B269" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="G269" s="6"/>
-    </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B270" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G270" s="6"/>
-    </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B271" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="G271" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B272" s="1" t="s">
+      <c r="C278" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G278" s="6"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" s="4">
+        <v>276</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G279" s="6"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" s="4">
+        <v>277</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G280" s="6"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" s="4">
+        <v>278</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="G281" s="6"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" s="4">
+        <v>279</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C272" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G272" s="6"/>
-    </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B273" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="G273" s="6"/>
-    </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B274" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="G274" s="6"/>
-    </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B275" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="G275" s="6"/>
-    </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B276" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="G276" s="6"/>
-    </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B277" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="G277" s="6"/>
-    </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B278" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="G278" s="6"/>
-    </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B279" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="G279" s="6"/>
-    </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B280" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="G280" s="6"/>
-    </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B281" s="1" t="s">
+      <c r="G282" s="6"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" s="4">
+        <v>280</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="C283" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="G281" s="6"/>
-    </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B282" s="1" t="s">
+      <c r="G283" s="6"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" s="4">
+        <v>281</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C282" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="G282" s="6"/>
-    </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B283" s="1" t="s">
+      <c r="C284" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="G284" s="6"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" s="4">
+        <v>282</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="G283" s="6"/>
-    </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B284" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="G285" s="6"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" s="4">
+        <v>283</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="G284" s="6"/>
-    </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B285" s="1" t="s">
+      <c r="C286" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="G286" s="6"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" s="4">
+        <v>284</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="G285" s="6"/>
-    </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B286" s="1" t="s">
+      <c r="C287" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="G287" s="6"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" s="4">
+        <v>285</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="G286" s="6"/>
-    </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B287" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="G287" s="6"/>
-    </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B288" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>791</v>
       </c>
       <c r="G288" s="6"/>
     </row>
@@ -10944,7 +11250,7 @@
       <c r="G1218" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:K226"/>
+  <autoFilter ref="B3:K226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="B4:J226">
     <sortCondition ref="B4:B226"/>
   </sortState>
@@ -10953,170 +11259,186 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J98" r:id="rId1"/>
-    <hyperlink ref="J95" r:id="rId2"/>
-    <hyperlink ref="J150" r:id="rId3"/>
-    <hyperlink ref="J155" r:id="rId4"/>
-    <hyperlink ref="J56" r:id="rId5"/>
-    <hyperlink ref="J171" r:id="rId6"/>
-    <hyperlink ref="J196" r:id="rId7"/>
-    <hyperlink ref="J64" r:id="rId8"/>
-    <hyperlink ref="J153" r:id="rId9"/>
-    <hyperlink ref="J174" r:id="rId10"/>
-    <hyperlink ref="J215" r:id="rId11"/>
-    <hyperlink ref="J216" r:id="rId12"/>
-    <hyperlink ref="J94" r:id="rId13"/>
-    <hyperlink ref="J96" r:id="rId14"/>
-    <hyperlink ref="J97" r:id="rId15"/>
-    <hyperlink ref="J220" r:id="rId16"/>
-    <hyperlink ref="J219" r:id="rId17"/>
-    <hyperlink ref="J206" r:id="rId18"/>
-    <hyperlink ref="J63" r:id="rId19"/>
-    <hyperlink ref="J194" r:id="rId20"/>
-    <hyperlink ref="J193" r:id="rId21"/>
-    <hyperlink ref="J58" r:id="rId22"/>
-    <hyperlink ref="J195" r:id="rId23"/>
-    <hyperlink ref="J129" r:id="rId24"/>
-    <hyperlink ref="J205" r:id="rId25"/>
-    <hyperlink ref="J131" r:id="rId26"/>
-    <hyperlink ref="J134" r:id="rId27"/>
-    <hyperlink ref="J138" r:id="rId28"/>
-    <hyperlink ref="J130" r:id="rId29"/>
-    <hyperlink ref="J139" r:id="rId30"/>
-    <hyperlink ref="J137" r:id="rId31"/>
-    <hyperlink ref="J197" r:id="rId32"/>
-    <hyperlink ref="J200" r:id="rId33"/>
-    <hyperlink ref="J60" r:id="rId34"/>
-    <hyperlink ref="J201" r:id="rId35"/>
-    <hyperlink ref="J126" r:id="rId36"/>
-    <hyperlink ref="J132" r:id="rId37"/>
-    <hyperlink ref="J117" r:id="rId38"/>
-    <hyperlink ref="J136" r:id="rId39"/>
-    <hyperlink ref="J125" r:id="rId40"/>
-    <hyperlink ref="J54" r:id="rId41"/>
-    <hyperlink ref="J199" r:id="rId42"/>
-    <hyperlink ref="J116" r:id="rId43"/>
-    <hyperlink ref="J202" r:id="rId44"/>
-    <hyperlink ref="J161" r:id="rId45"/>
-    <hyperlink ref="J164" r:id="rId46"/>
-    <hyperlink ref="J109" r:id="rId47"/>
-    <hyperlink ref="J162" r:id="rId48"/>
-    <hyperlink ref="J83" r:id="rId49"/>
-    <hyperlink ref="J198" r:id="rId50"/>
-    <hyperlink ref="J128" r:id="rId51"/>
-    <hyperlink ref="J82" r:id="rId52"/>
-    <hyperlink ref="J157" r:id="rId53"/>
-    <hyperlink ref="J175" r:id="rId54"/>
-    <hyperlink ref="J110" r:id="rId55"/>
-    <hyperlink ref="J111" r:id="rId56"/>
-    <hyperlink ref="J156" r:id="rId57"/>
-    <hyperlink ref="J158" r:id="rId58"/>
-    <hyperlink ref="J78" r:id="rId59"/>
-    <hyperlink ref="J79" r:id="rId60"/>
-    <hyperlink ref="J77" r:id="rId61"/>
-    <hyperlink ref="J17" r:id="rId62"/>
-    <hyperlink ref="J18" r:id="rId63"/>
-    <hyperlink ref="J19" r:id="rId64"/>
-    <hyperlink ref="J20" r:id="rId65"/>
-    <hyperlink ref="J21" r:id="rId66"/>
-    <hyperlink ref="J22" r:id="rId67"/>
-    <hyperlink ref="J23" r:id="rId68"/>
-    <hyperlink ref="J24" r:id="rId69"/>
-    <hyperlink ref="J25" r:id="rId70"/>
-    <hyperlink ref="J26" r:id="rId71"/>
-    <hyperlink ref="J35" r:id="rId72"/>
-    <hyperlink ref="J36" r:id="rId73"/>
-    <hyperlink ref="J37" r:id="rId74"/>
-    <hyperlink ref="J84" r:id="rId75"/>
-    <hyperlink ref="J85" r:id="rId76"/>
-    <hyperlink ref="J190" r:id="rId77"/>
-    <hyperlink ref="J191" r:id="rId78"/>
-    <hyperlink ref="J172" r:id="rId79"/>
-    <hyperlink ref="J88" r:id="rId80"/>
-    <hyperlink ref="J80" r:id="rId81"/>
-    <hyperlink ref="J68" r:id="rId82"/>
-    <hyperlink ref="J92" r:id="rId83"/>
-    <hyperlink ref="J173" r:id="rId84"/>
-    <hyperlink ref="J74" r:id="rId85"/>
-    <hyperlink ref="J75" r:id="rId86"/>
-    <hyperlink ref="J69" r:id="rId87"/>
-    <hyperlink ref="J133" r:id="rId88"/>
-    <hyperlink ref="J142" r:id="rId89"/>
-    <hyperlink ref="J181" r:id="rId90"/>
-    <hyperlink ref="J148" r:id="rId91"/>
-    <hyperlink ref="J210" r:id="rId92"/>
-    <hyperlink ref="J151" r:id="rId93"/>
-    <hyperlink ref="J93" r:id="rId94"/>
-    <hyperlink ref="J120" r:id="rId95"/>
-    <hyperlink ref="J208" r:id="rId96"/>
-    <hyperlink ref="J214" r:id="rId97"/>
-    <hyperlink ref="J119" r:id="rId98"/>
-    <hyperlink ref="J149" r:id="rId99"/>
-    <hyperlink ref="J207" r:id="rId100"/>
-    <hyperlink ref="J187" r:id="rId101"/>
-    <hyperlink ref="J209" r:id="rId102"/>
-    <hyperlink ref="J188" r:id="rId103"/>
-    <hyperlink ref="J180" r:id="rId104"/>
-    <hyperlink ref="J177" r:id="rId105"/>
-    <hyperlink ref="J225" r:id="rId106"/>
-    <hyperlink ref="J118" r:id="rId107"/>
-    <hyperlink ref="J147" r:id="rId108"/>
-    <hyperlink ref="J101" r:id="rId109"/>
-    <hyperlink ref="J135" r:id="rId110"/>
-    <hyperlink ref="J212" r:id="rId111"/>
-    <hyperlink ref="J39" r:id="rId112"/>
-    <hyperlink ref="J87" r:id="rId113"/>
-    <hyperlink ref="J184" r:id="rId114"/>
-    <hyperlink ref="J86" r:id="rId115"/>
-    <hyperlink ref="J33" r:id="rId116"/>
-    <hyperlink ref="J34" r:id="rId117"/>
-    <hyperlink ref="J152" r:id="rId118"/>
-    <hyperlink ref="J179" r:id="rId119"/>
-    <hyperlink ref="J160" r:id="rId120"/>
-    <hyperlink ref="J144" r:id="rId121"/>
-    <hyperlink ref="J91" r:id="rId122"/>
-    <hyperlink ref="J90" r:id="rId123"/>
-    <hyperlink ref="J102" r:id="rId124"/>
-    <hyperlink ref="J211" r:id="rId125"/>
-    <hyperlink ref="J154" r:id="rId126"/>
-    <hyperlink ref="J213" r:id="rId127"/>
-    <hyperlink ref="J170" r:id="rId128"/>
-    <hyperlink ref="J113" r:id="rId129"/>
-    <hyperlink ref="J223" r:id="rId130"/>
-    <hyperlink ref="J112" r:id="rId131"/>
-    <hyperlink ref="J89" r:id="rId132"/>
-    <hyperlink ref="J166" r:id="rId133"/>
-    <hyperlink ref="J122" r:id="rId134"/>
-    <hyperlink ref="J218" r:id="rId135"/>
-    <hyperlink ref="J165" r:id="rId136"/>
-    <hyperlink ref="J178" r:id="rId137"/>
-    <hyperlink ref="J103" r:id="rId138"/>
-    <hyperlink ref="J141" r:id="rId139"/>
-    <hyperlink ref="J114" r:id="rId140"/>
-    <hyperlink ref="J121" r:id="rId141"/>
-    <hyperlink ref="J123" r:id="rId142"/>
-    <hyperlink ref="J127" r:id="rId143"/>
-    <hyperlink ref="J203" r:id="rId144"/>
-    <hyperlink ref="J61" r:id="rId145"/>
-    <hyperlink ref="J76" r:id="rId146"/>
-    <hyperlink ref="J62" r:id="rId147"/>
-    <hyperlink ref="J163" r:id="rId148"/>
-    <hyperlink ref="J224" r:id="rId149"/>
-    <hyperlink ref="J100" r:id="rId150"/>
-    <hyperlink ref="J57" r:id="rId151" display="File"/>
-    <hyperlink ref="J59" r:id="rId152"/>
-    <hyperlink ref="J217" r:id="rId153"/>
-    <hyperlink ref="J159" r:id="rId154"/>
-    <hyperlink ref="J124" r:id="rId155"/>
-    <hyperlink ref="J140" r:id="rId156"/>
-    <hyperlink ref="J55" r:id="rId157"/>
-    <hyperlink ref="J115" r:id="rId158"/>
-    <hyperlink ref="J204" r:id="rId159"/>
-    <hyperlink ref="J99" r:id="rId160"/>
-    <hyperlink ref="J176" r:id="rId161"/>
-    <hyperlink ref="J146" r:id="rId162"/>
+    <hyperlink ref="J98" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J95" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J150" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J155" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J56" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J171" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J196" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J64" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J153" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J174" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J215" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J216" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J94" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J96" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J97" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J220" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J219" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J206" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J63" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J194" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J193" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J58" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J195" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J129" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J205" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J131" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J134" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J138" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J130" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J139" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J137" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J197" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J200" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J201" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J126" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J132" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J117" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J136" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J125" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J54" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J199" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J116" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J202" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J161" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J164" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J109" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J162" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J83" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J198" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J128" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J157" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J175" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J110" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J111" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J156" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J158" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J77" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J17" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J18" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J19" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J20" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J21" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J22" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J23" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J24" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J25" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J26" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J35" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J36" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J37" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J190" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J191" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J172" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J88" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J80" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J68" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J173" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J74" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J75" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J69" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J133" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J142" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J181" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J148" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J210" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J151" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J93" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J120" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J208" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J214" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J119" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J149" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J207" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J187" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J209" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J188" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J180" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J177" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J225" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J147" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J101" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="J135" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J212" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J39" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="J87" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="J184" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="J86" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="J33" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="J34" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="J152" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J179" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="J160" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="J144" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="J91" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="J90" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="J102" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J211" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="J154" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J213" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="J170" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="J113" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="J223" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J112" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="J89" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J166" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="J122" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="J218" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="J165" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="J178" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="J103" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="J141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="J114" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="J121" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="J123" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="J127" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="J203" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="J61" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J76" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="J62" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="J163" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="J224" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="J100" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="J57" r:id="rId151" display="File" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="J59" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="J217" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="J159" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="J124" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="J140" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="J55" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="J115" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="J204" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="J99" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="J176" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="J146" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="J235" r:id="rId163" xr:uid="{6C66F11D-906F-44F2-ACFE-DD6B5B09D1E8}"/>
+    <hyperlink ref="J234" r:id="rId164" xr:uid="{72306048-D77C-4A95-BB92-8A5A58F20578}"/>
+    <hyperlink ref="J236" r:id="rId165" xr:uid="{62DC2B33-07B0-4677-A881-A3C3AB96615B}"/>
+    <hyperlink ref="J238" r:id="rId166" xr:uid="{72D6DACE-66C7-456F-8D08-F602C3ECAFBD}"/>
+    <hyperlink ref="J239" r:id="rId167" xr:uid="{A968573B-D349-4815-BD54-CF4C3D2FBAC1}"/>
+    <hyperlink ref="J240" r:id="rId168" xr:uid="{3AA4EED9-DD29-4BBC-BB61-6E9BC938380A}"/>
+    <hyperlink ref="J242" r:id="rId169" xr:uid="{2284AB8E-01D0-4A41-BAB5-A12351A83290}"/>
+    <hyperlink ref="J243" r:id="rId170" xr:uid="{2170FDE2-5993-4238-BD3C-853B252FDB40}"/>
+    <hyperlink ref="J244" r:id="rId171" xr:uid="{88CA156D-B7ED-44E9-9066-C371F45082C3}"/>
+    <hyperlink ref="J245" r:id="rId172" xr:uid="{9966B56A-5200-4C1A-85FE-5C3E9ABE378E}"/>
+    <hyperlink ref="J246" r:id="rId173" xr:uid="{0C5BA830-308F-43E2-8812-B41DE4AB3C74}"/>
+    <hyperlink ref="J256" r:id="rId174" xr:uid="{F6CC77B8-0D4E-4D8A-8AD9-3BC87384E02B}"/>
+    <hyperlink ref="J263" r:id="rId175" xr:uid="{B4E98249-5488-45CF-B7EC-27C73558D00C}"/>
+    <hyperlink ref="J264" r:id="rId176" xr:uid="{9D88ECF8-EF0C-4991-9DB6-1A7E38D73B9C}"/>
+    <hyperlink ref="J265" r:id="rId177" xr:uid="{53AA99EF-6EE6-4F31-A3AC-91D9FD2BF72D}"/>
+    <hyperlink ref="J271" r:id="rId178" xr:uid="{C1AA6907-CC12-4B1B-BDF1-72126F1CB618}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId163"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId179"/>
 </worksheet>
 </file>
--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Documents\datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROCESSOR\Desktop\Justin\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E9F707-4CFC-4DF4-AFF4-CC2CDA4C2A4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2176,10 +2175,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ZY12PDN</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2704,13 +2699,17 @@
   </si>
   <si>
     <t xml:space="preserve">USB-C PD2.0/3.0 to DC Converter Power Supply Module </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-12v 10W</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월 &quot;dd&quot;일&quot;"/>
   </numFmts>
@@ -2853,18 +2852,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Text 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Text 1" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -3211,11 +3210,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G234" sqref="G234:G235"/>
+    <sheetView tabSelected="1" topLeftCell="E213" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G234" sqref="G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3235,19 +3234,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -4600,7 +4599,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>203</v>
@@ -6018,7 +6017,7 @@
         <v>332</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>32</v>
@@ -7666,7 +7665,7 @@
         <v>669</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>670</v>
+        <v>805</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -7674,13 +7673,13 @@
         <v>228</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="G231" s="16" t="s">
-        <v>805</v>
+      <c r="G231" s="15" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -7688,10 +7687,10 @@
         <v>229</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="G232" s="6"/>
     </row>
@@ -7700,10 +7699,10 @@
         <v>230</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G233" s="6"/>
     </row>
@@ -7712,14 +7711,14 @@
         <v>231</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>678</v>
-      </c>
       <c r="G234" s="6"/>
-      <c r="J234" s="17" t="s">
-        <v>790</v>
+      <c r="J234" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -7727,14 +7726,14 @@
         <v>232</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>680</v>
-      </c>
       <c r="G235" s="6"/>
-      <c r="J235" s="17" t="s">
-        <v>790</v>
+      <c r="J235" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -7742,16 +7741,16 @@
         <v>233</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="J236" s="17" t="s">
         <v>790</v>
+      </c>
+      <c r="J236" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -7759,10 +7758,10 @@
         <v>234</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -7770,16 +7769,16 @@
         <v>235</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="J238" s="17" t="s">
-        <v>790</v>
+        <v>791</v>
+      </c>
+      <c r="J238" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -7787,16 +7786,16 @@
         <v>236</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="J239" s="17" t="s">
-        <v>790</v>
+        <v>792</v>
+      </c>
+      <c r="J239" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -7804,16 +7803,16 @@
         <v>237</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>689</v>
-      </c>
       <c r="G240" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="J240" s="17" t="s">
-        <v>790</v>
+        <v>793</v>
+      </c>
+      <c r="J240" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -7821,13 +7820,13 @@
         <v>238</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G241" s="6"/>
     </row>
@@ -7836,16 +7835,16 @@
         <v>239</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>695</v>
-      </c>
       <c r="G242" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="J242" s="17" t="s">
-        <v>790</v>
+        <v>795</v>
+      </c>
+      <c r="J242" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -7853,16 +7852,16 @@
         <v>240</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>697</v>
-      </c>
       <c r="G243" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="J243" s="17" t="s">
-        <v>790</v>
+        <v>796</v>
+      </c>
+      <c r="J243" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -7870,16 +7869,16 @@
         <v>241</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C244" s="1" t="s">
-        <v>699</v>
-      </c>
       <c r="G244" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="J244" s="17" t="s">
-        <v>790</v>
+        <v>797</v>
+      </c>
+      <c r="J244" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -7887,16 +7886,16 @@
         <v>242</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>701</v>
-      </c>
       <c r="G245" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="J245" s="17" t="s">
-        <v>790</v>
+        <v>798</v>
+      </c>
+      <c r="J245" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -7904,16 +7903,16 @@
         <v>243</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>703</v>
-      </c>
       <c r="G246" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="J246" s="17" t="s">
-        <v>790</v>
+        <v>799</v>
+      </c>
+      <c r="J246" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -7921,10 +7920,10 @@
         <v>244</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G247" s="6"/>
     </row>
@@ -7933,10 +7932,10 @@
         <v>245</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="G248" s="6"/>
     </row>
@@ -7945,10 +7944,10 @@
         <v>246</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G249" s="6"/>
     </row>
@@ -7957,10 +7956,10 @@
         <v>247</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>710</v>
       </c>
       <c r="G250" s="6"/>
     </row>
@@ -7969,10 +7968,10 @@
         <v>248</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>712</v>
       </c>
       <c r="G251" s="6"/>
     </row>
@@ -7981,10 +7980,10 @@
         <v>249</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G252" s="6"/>
     </row>
@@ -7993,10 +7992,10 @@
         <v>250</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="G253" s="6"/>
     </row>
@@ -8005,10 +8004,10 @@
         <v>251</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>718</v>
       </c>
       <c r="G254" s="6"/>
     </row>
@@ -8017,10 +8016,10 @@
         <v>252</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="G255" s="6"/>
     </row>
@@ -8029,16 +8028,16 @@
         <v>253</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>722</v>
-      </c>
       <c r="G256" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="J256" s="17" t="s">
-        <v>790</v>
+        <v>801</v>
+      </c>
+      <c r="J256" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -8046,10 +8045,10 @@
         <v>254</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -8057,10 +8056,10 @@
         <v>255</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="G258" s="6"/>
     </row>
@@ -8069,10 +8068,10 @@
         <v>256</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="G259" s="6"/>
     </row>
@@ -8081,10 +8080,10 @@
         <v>257</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>730</v>
       </c>
       <c r="G260" s="6"/>
     </row>
@@ -8093,10 +8092,10 @@
         <v>258</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="G261" s="6"/>
     </row>
@@ -8105,10 +8104,10 @@
         <v>259</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="G262" s="6"/>
     </row>
@@ -8117,16 +8116,16 @@
         <v>260</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="J263" s="17" t="s">
-        <v>790</v>
+        <v>800</v>
+      </c>
+      <c r="J263" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -8134,16 +8133,16 @@
         <v>261</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="J264" s="17" t="s">
-        <v>790</v>
+        <v>800</v>
+      </c>
+      <c r="J264" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -8151,16 +8150,16 @@
         <v>262</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="J265" s="17" t="s">
-        <v>790</v>
+        <v>800</v>
+      </c>
+      <c r="J265" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -8168,10 +8167,10 @@
         <v>263</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G266" s="6"/>
     </row>
@@ -8180,10 +8179,10 @@
         <v>264</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>743</v>
       </c>
       <c r="G267" s="6"/>
     </row>
@@ -8192,10 +8191,10 @@
         <v>265</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="G268" s="6"/>
     </row>
@@ -8204,13 +8203,13 @@
         <v>266</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="D269" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G269" s="6"/>
     </row>
@@ -8219,10 +8218,10 @@
         <v>267</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>749</v>
       </c>
       <c r="G270" s="6"/>
     </row>
@@ -8231,16 +8230,16 @@
         <v>268</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G271" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="J271" s="17" t="s">
-        <v>790</v>
+      <c r="J271" s="16" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -8248,10 +8247,10 @@
         <v>269</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="G272" s="6"/>
     </row>
@@ -8260,13 +8259,13 @@
         <v>270</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>757</v>
       </c>
       <c r="G273" s="6"/>
     </row>
@@ -8275,13 +8274,13 @@
         <v>271</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C274" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="G274" s="6"/>
     </row>
@@ -8290,10 +8289,10 @@
         <v>272</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G275" s="6"/>
     </row>
@@ -8302,13 +8301,13 @@
         <v>273</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C276" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>764</v>
       </c>
       <c r="G276" s="6"/>
     </row>
@@ -8317,10 +8316,10 @@
         <v>274</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G277" s="6"/>
     </row>
@@ -8329,10 +8328,10 @@
         <v>275</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G278" s="6"/>
     </row>
@@ -8341,13 +8340,13 @@
         <v>276</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C279" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D279" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="G279" s="6"/>
     </row>
@@ -8356,10 +8355,10 @@
         <v>277</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="G280" s="6"/>
     </row>
@@ -8368,10 +8367,10 @@
         <v>278</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="G281" s="6"/>
     </row>
@@ -8380,10 +8379,10 @@
         <v>279</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G282" s="6"/>
     </row>
@@ -8392,10 +8391,10 @@
         <v>280</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="G283" s="6"/>
     </row>
@@ -8404,10 +8403,10 @@
         <v>281</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>780</v>
       </c>
       <c r="G284" s="6"/>
     </row>
@@ -8416,10 +8415,10 @@
         <v>282</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>782</v>
       </c>
       <c r="G285" s="6"/>
     </row>
@@ -8428,10 +8427,10 @@
         <v>283</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>784</v>
       </c>
       <c r="G286" s="6"/>
     </row>
@@ -8440,10 +8439,10 @@
         <v>284</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="G287" s="6"/>
     </row>
@@ -8452,10 +8451,10 @@
         <v>285</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="G288" s="6"/>
     </row>
@@ -11250,7 +11249,7 @@
       <c r="G1218" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:K226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B3:K226"/>
   <sortState ref="B4:J226">
     <sortCondition ref="B4:B226"/>
   </sortState>
@@ -11259,184 +11258,184 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J98" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J95" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J150" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J155" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J56" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J171" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J196" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J64" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J153" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J174" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J215" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J216" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J94" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J96" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J97" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J220" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J219" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J206" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J63" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J194" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J193" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J58" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J195" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J129" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J205" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J131" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J134" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J138" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J130" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J139" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J137" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J197" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J200" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J201" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J126" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J132" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J117" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J136" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J125" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J54" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J199" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J116" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J202" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J161" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J164" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J109" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J162" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J83" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J198" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J128" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J157" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J175" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J110" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J111" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J156" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J158" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="J78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J77" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J17" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J18" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J19" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J20" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J21" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="J22" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J23" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J24" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="J25" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J26" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J35" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J36" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="J37" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="J85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J190" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J191" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J172" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="J88" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J80" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J68" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J173" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J74" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J75" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J69" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="J133" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J142" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J181" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="J148" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J210" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J151" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="J93" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="J120" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J208" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J214" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="J119" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J149" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="J207" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J187" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J209" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J188" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="J180" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="J177" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="J225" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="J118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="J147" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="J101" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="J135" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J212" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="J39" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="J87" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="J184" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="J86" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="J33" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="J34" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="J152" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="J179" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="J160" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="J144" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="J91" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="J90" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="J102" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="J211" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="J154" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="J213" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="J170" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="J113" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="J223" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="J112" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="J89" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="J166" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="J122" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="J218" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="J165" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="J178" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="J103" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="J141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="J114" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="J121" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="J123" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="J127" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="J203" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="J61" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="J76" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="J62" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="J163" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="J224" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="J100" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="J57" r:id="rId151" display="File" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="J59" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="J217" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="J159" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="J124" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="J140" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="J55" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="J115" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="J204" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="J99" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="J176" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="J146" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="J235" r:id="rId163" xr:uid="{6C66F11D-906F-44F2-ACFE-DD6B5B09D1E8}"/>
-    <hyperlink ref="J234" r:id="rId164" xr:uid="{72306048-D77C-4A95-BB92-8A5A58F20578}"/>
-    <hyperlink ref="J236" r:id="rId165" xr:uid="{62DC2B33-07B0-4677-A881-A3C3AB96615B}"/>
-    <hyperlink ref="J238" r:id="rId166" xr:uid="{72D6DACE-66C7-456F-8D08-F602C3ECAFBD}"/>
-    <hyperlink ref="J239" r:id="rId167" xr:uid="{A968573B-D349-4815-BD54-CF4C3D2FBAC1}"/>
-    <hyperlink ref="J240" r:id="rId168" xr:uid="{3AA4EED9-DD29-4BBC-BB61-6E9BC938380A}"/>
-    <hyperlink ref="J242" r:id="rId169" xr:uid="{2284AB8E-01D0-4A41-BAB5-A12351A83290}"/>
-    <hyperlink ref="J243" r:id="rId170" xr:uid="{2170FDE2-5993-4238-BD3C-853B252FDB40}"/>
-    <hyperlink ref="J244" r:id="rId171" xr:uid="{88CA156D-B7ED-44E9-9066-C371F45082C3}"/>
-    <hyperlink ref="J245" r:id="rId172" xr:uid="{9966B56A-5200-4C1A-85FE-5C3E9ABE378E}"/>
-    <hyperlink ref="J246" r:id="rId173" xr:uid="{0C5BA830-308F-43E2-8812-B41DE4AB3C74}"/>
-    <hyperlink ref="J256" r:id="rId174" xr:uid="{F6CC77B8-0D4E-4D8A-8AD9-3BC87384E02B}"/>
-    <hyperlink ref="J263" r:id="rId175" xr:uid="{B4E98249-5488-45CF-B7EC-27C73558D00C}"/>
-    <hyperlink ref="J264" r:id="rId176" xr:uid="{9D88ECF8-EF0C-4991-9DB6-1A7E38D73B9C}"/>
-    <hyperlink ref="J265" r:id="rId177" xr:uid="{53AA99EF-6EE6-4F31-A3AC-91D9FD2BF72D}"/>
-    <hyperlink ref="J271" r:id="rId178" xr:uid="{C1AA6907-CC12-4B1B-BDF1-72126F1CB618}"/>
+    <hyperlink ref="J98" r:id="rId1"/>
+    <hyperlink ref="J95" r:id="rId2"/>
+    <hyperlink ref="J150" r:id="rId3"/>
+    <hyperlink ref="J155" r:id="rId4"/>
+    <hyperlink ref="J56" r:id="rId5"/>
+    <hyperlink ref="J171" r:id="rId6"/>
+    <hyperlink ref="J196" r:id="rId7"/>
+    <hyperlink ref="J64" r:id="rId8"/>
+    <hyperlink ref="J153" r:id="rId9"/>
+    <hyperlink ref="J174" r:id="rId10"/>
+    <hyperlink ref="J215" r:id="rId11"/>
+    <hyperlink ref="J216" r:id="rId12"/>
+    <hyperlink ref="J94" r:id="rId13"/>
+    <hyperlink ref="J96" r:id="rId14"/>
+    <hyperlink ref="J97" r:id="rId15"/>
+    <hyperlink ref="J220" r:id="rId16"/>
+    <hyperlink ref="J219" r:id="rId17"/>
+    <hyperlink ref="J206" r:id="rId18"/>
+    <hyperlink ref="J63" r:id="rId19"/>
+    <hyperlink ref="J194" r:id="rId20"/>
+    <hyperlink ref="J193" r:id="rId21"/>
+    <hyperlink ref="J58" r:id="rId22"/>
+    <hyperlink ref="J195" r:id="rId23"/>
+    <hyperlink ref="J129" r:id="rId24"/>
+    <hyperlink ref="J205" r:id="rId25"/>
+    <hyperlink ref="J131" r:id="rId26"/>
+    <hyperlink ref="J134" r:id="rId27"/>
+    <hyperlink ref="J138" r:id="rId28"/>
+    <hyperlink ref="J130" r:id="rId29"/>
+    <hyperlink ref="J139" r:id="rId30"/>
+    <hyperlink ref="J137" r:id="rId31"/>
+    <hyperlink ref="J197" r:id="rId32"/>
+    <hyperlink ref="J200" r:id="rId33"/>
+    <hyperlink ref="J60" r:id="rId34"/>
+    <hyperlink ref="J201" r:id="rId35"/>
+    <hyperlink ref="J126" r:id="rId36"/>
+    <hyperlink ref="J132" r:id="rId37"/>
+    <hyperlink ref="J117" r:id="rId38"/>
+    <hyperlink ref="J136" r:id="rId39"/>
+    <hyperlink ref="J125" r:id="rId40"/>
+    <hyperlink ref="J54" r:id="rId41"/>
+    <hyperlink ref="J199" r:id="rId42"/>
+    <hyperlink ref="J116" r:id="rId43"/>
+    <hyperlink ref="J202" r:id="rId44"/>
+    <hyperlink ref="J161" r:id="rId45"/>
+    <hyperlink ref="J164" r:id="rId46"/>
+    <hyperlink ref="J109" r:id="rId47"/>
+    <hyperlink ref="J162" r:id="rId48"/>
+    <hyperlink ref="J83" r:id="rId49"/>
+    <hyperlink ref="J198" r:id="rId50"/>
+    <hyperlink ref="J128" r:id="rId51"/>
+    <hyperlink ref="J82" r:id="rId52"/>
+    <hyperlink ref="J157" r:id="rId53"/>
+    <hyperlink ref="J175" r:id="rId54"/>
+    <hyperlink ref="J110" r:id="rId55"/>
+    <hyperlink ref="J111" r:id="rId56"/>
+    <hyperlink ref="J156" r:id="rId57"/>
+    <hyperlink ref="J158" r:id="rId58"/>
+    <hyperlink ref="J78" r:id="rId59"/>
+    <hyperlink ref="J79" r:id="rId60"/>
+    <hyperlink ref="J77" r:id="rId61"/>
+    <hyperlink ref="J17" r:id="rId62"/>
+    <hyperlink ref="J18" r:id="rId63"/>
+    <hyperlink ref="J19" r:id="rId64"/>
+    <hyperlink ref="J20" r:id="rId65"/>
+    <hyperlink ref="J21" r:id="rId66"/>
+    <hyperlink ref="J22" r:id="rId67"/>
+    <hyperlink ref="J23" r:id="rId68"/>
+    <hyperlink ref="J24" r:id="rId69"/>
+    <hyperlink ref="J25" r:id="rId70"/>
+    <hyperlink ref="J26" r:id="rId71"/>
+    <hyperlink ref="J35" r:id="rId72"/>
+    <hyperlink ref="J36" r:id="rId73"/>
+    <hyperlink ref="J37" r:id="rId74"/>
+    <hyperlink ref="J84" r:id="rId75"/>
+    <hyperlink ref="J85" r:id="rId76"/>
+    <hyperlink ref="J190" r:id="rId77"/>
+    <hyperlink ref="J191" r:id="rId78"/>
+    <hyperlink ref="J172" r:id="rId79"/>
+    <hyperlink ref="J88" r:id="rId80"/>
+    <hyperlink ref="J80" r:id="rId81"/>
+    <hyperlink ref="J68" r:id="rId82"/>
+    <hyperlink ref="J92" r:id="rId83"/>
+    <hyperlink ref="J173" r:id="rId84"/>
+    <hyperlink ref="J74" r:id="rId85"/>
+    <hyperlink ref="J75" r:id="rId86"/>
+    <hyperlink ref="J69" r:id="rId87"/>
+    <hyperlink ref="J133" r:id="rId88"/>
+    <hyperlink ref="J142" r:id="rId89"/>
+    <hyperlink ref="J181" r:id="rId90"/>
+    <hyperlink ref="J148" r:id="rId91"/>
+    <hyperlink ref="J210" r:id="rId92"/>
+    <hyperlink ref="J151" r:id="rId93"/>
+    <hyperlink ref="J93" r:id="rId94"/>
+    <hyperlink ref="J120" r:id="rId95"/>
+    <hyperlink ref="J208" r:id="rId96"/>
+    <hyperlink ref="J214" r:id="rId97"/>
+    <hyperlink ref="J119" r:id="rId98"/>
+    <hyperlink ref="J149" r:id="rId99"/>
+    <hyperlink ref="J207" r:id="rId100"/>
+    <hyperlink ref="J187" r:id="rId101"/>
+    <hyperlink ref="J209" r:id="rId102"/>
+    <hyperlink ref="J188" r:id="rId103"/>
+    <hyperlink ref="J180" r:id="rId104"/>
+    <hyperlink ref="J177" r:id="rId105"/>
+    <hyperlink ref="J225" r:id="rId106"/>
+    <hyperlink ref="J118" r:id="rId107"/>
+    <hyperlink ref="J147" r:id="rId108"/>
+    <hyperlink ref="J101" r:id="rId109"/>
+    <hyperlink ref="J135" r:id="rId110"/>
+    <hyperlink ref="J212" r:id="rId111"/>
+    <hyperlink ref="J39" r:id="rId112"/>
+    <hyperlink ref="J87" r:id="rId113"/>
+    <hyperlink ref="J184" r:id="rId114"/>
+    <hyperlink ref="J86" r:id="rId115"/>
+    <hyperlink ref="J33" r:id="rId116"/>
+    <hyperlink ref="J34" r:id="rId117"/>
+    <hyperlink ref="J152" r:id="rId118"/>
+    <hyperlink ref="J179" r:id="rId119"/>
+    <hyperlink ref="J160" r:id="rId120"/>
+    <hyperlink ref="J144" r:id="rId121"/>
+    <hyperlink ref="J91" r:id="rId122"/>
+    <hyperlink ref="J90" r:id="rId123"/>
+    <hyperlink ref="J102" r:id="rId124"/>
+    <hyperlink ref="J211" r:id="rId125"/>
+    <hyperlink ref="J154" r:id="rId126"/>
+    <hyperlink ref="J213" r:id="rId127"/>
+    <hyperlink ref="J170" r:id="rId128"/>
+    <hyperlink ref="J113" r:id="rId129"/>
+    <hyperlink ref="J223" r:id="rId130"/>
+    <hyperlink ref="J112" r:id="rId131"/>
+    <hyperlink ref="J89" r:id="rId132"/>
+    <hyperlink ref="J166" r:id="rId133"/>
+    <hyperlink ref="J122" r:id="rId134"/>
+    <hyperlink ref="J218" r:id="rId135"/>
+    <hyperlink ref="J165" r:id="rId136"/>
+    <hyperlink ref="J178" r:id="rId137"/>
+    <hyperlink ref="J103" r:id="rId138"/>
+    <hyperlink ref="J141" r:id="rId139"/>
+    <hyperlink ref="J114" r:id="rId140"/>
+    <hyperlink ref="J121" r:id="rId141"/>
+    <hyperlink ref="J123" r:id="rId142"/>
+    <hyperlink ref="J127" r:id="rId143"/>
+    <hyperlink ref="J203" r:id="rId144"/>
+    <hyperlink ref="J61" r:id="rId145"/>
+    <hyperlink ref="J76" r:id="rId146"/>
+    <hyperlink ref="J62" r:id="rId147"/>
+    <hyperlink ref="J163" r:id="rId148"/>
+    <hyperlink ref="J224" r:id="rId149"/>
+    <hyperlink ref="J100" r:id="rId150"/>
+    <hyperlink ref="J57" r:id="rId151" display="File"/>
+    <hyperlink ref="J59" r:id="rId152"/>
+    <hyperlink ref="J217" r:id="rId153"/>
+    <hyperlink ref="J159" r:id="rId154"/>
+    <hyperlink ref="J124" r:id="rId155"/>
+    <hyperlink ref="J140" r:id="rId156"/>
+    <hyperlink ref="J55" r:id="rId157"/>
+    <hyperlink ref="J115" r:id="rId158"/>
+    <hyperlink ref="J204" r:id="rId159"/>
+    <hyperlink ref="J99" r:id="rId160"/>
+    <hyperlink ref="J176" r:id="rId161"/>
+    <hyperlink ref="J146" r:id="rId162"/>
+    <hyperlink ref="J235" r:id="rId163"/>
+    <hyperlink ref="J234" r:id="rId164"/>
+    <hyperlink ref="J236" r:id="rId165"/>
+    <hyperlink ref="J238" r:id="rId166"/>
+    <hyperlink ref="J239" r:id="rId167"/>
+    <hyperlink ref="J240" r:id="rId168"/>
+    <hyperlink ref="J242" r:id="rId169"/>
+    <hyperlink ref="J243" r:id="rId170"/>
+    <hyperlink ref="J244" r:id="rId171"/>
+    <hyperlink ref="J245" r:id="rId172"/>
+    <hyperlink ref="J246" r:id="rId173"/>
+    <hyperlink ref="J256" r:id="rId174"/>
+    <hyperlink ref="J263" r:id="rId175"/>
+    <hyperlink ref="J264" r:id="rId176"/>
+    <hyperlink ref="J265" r:id="rId177"/>
+    <hyperlink ref="J271" r:id="rId178"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId179"/>

--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Documents\datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E9F707-4CFC-4DF4-AFF4-CC2CDA4C2A4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07382F80-287A-4A3D-B245-0F9AFA35C738}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$K$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$K$288</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="828">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -2064,10 +2064,6 @@
     <t>Digitally Controlled Potentiometer</t>
   </si>
   <si>
-    <t>Potentiometer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CMOS Dual Up-Counter</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2650,10 +2646,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FILE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2671,10 +2663,6 @@
     <t>Monolithic Function Generator</t>
   </si>
   <si>
-    <t>TRANSISTER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>8-Bit Digital-to-Analog Converters</t>
   </si>
   <si>
@@ -2704,6 +2692,106 @@
   </si>
   <si>
     <t xml:space="preserve">USB-C PD2.0/3.0 to DC Converter Power Supply Module </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEPDOWN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEPUP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWITCH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT REGISTER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUSE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENSOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLUETOOTH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDUCTOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSCILLATOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8X8 MATRIX LED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODULE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparators</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONNECTOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESISTOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUTTON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOCKET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP AMP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBCONVERTOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-GENE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2807,7 +2895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2853,14 +2941,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3214,8 +3305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G234" sqref="G234:G235"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J267" sqref="J267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3235,19 +3327,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -3734,25 +3826,30 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>375</v>
+        <v>687</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>376</v>
+        <v>688</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G30" s="6"/>
+        <v>827</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>570</v>
@@ -3764,10 +3861,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>570</v>
@@ -3779,36 +3876,31 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>575</v>
+        <v>357</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>534</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>578</v>
+      <c r="G34" s="10" t="s">
+        <v>576</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>534</v>
@@ -3819,22 +3911,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>234</v>
+        <v>577</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>504</v>
+        <v>346</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>17</v>
+        <v>578</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3842,42 +3931,34 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>237</v>
+        <v>692</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>239</v>
+        <v>691</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>17</v>
@@ -3888,34 +3969,45 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>348</v>
+        <v>238</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G38" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>566</v>
+        <v>241</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>340</v>
+        <v>242</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>534</v>
+      <c r="G39" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3923,10 +4015,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>570</v>
@@ -3938,25 +4030,30 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>359</v>
+        <v>566</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G41" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>570</v>
@@ -3968,10 +4065,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>570</v>
@@ -3983,10 +4080,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>570</v>
@@ -3998,10 +4095,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>570</v>
@@ -4013,10 +4110,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>570</v>
@@ -4028,10 +4125,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>570</v>
@@ -4043,10 +4140,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>570</v>
@@ -4058,10 +4155,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>570</v>
@@ -4073,10 +4170,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>570</v>
@@ -4088,10 +4185,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>570</v>
@@ -4103,25 +4200,24 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>403</v>
+        <v>722</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>404</v>
+        <v>723</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G52" s="6"/>
+        <v>804</v>
+      </c>
     </row>
     <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>570</v>
@@ -4133,108 +4229,79 @@
         <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>146</v>
+        <v>381</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>14</v>
+        <v>382</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>511</v>
+        <v>403</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>517</v>
+        <v>404</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>534</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>30</v>
+        <v>365</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>14</v>
+        <v>366</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>497</v>
+        <v>743</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>498</v>
+        <v>744</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>534</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="J58" s="9" t="s">
         <v>17</v>
@@ -4245,16 +4312,19 @@
         <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>500</v>
+        <v>512</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>534</v>
@@ -4265,19 +4335,19 @@
         <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>17</v>
@@ -4288,16 +4358,16 @@
         <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>32</v>
+        <v>645</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>36</v>
+        <v>642</v>
       </c>
       <c r="J61" s="11" t="s">
         <v>534</v>
@@ -4308,19 +4378,22 @@
         <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>487</v>
+        <v>88</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>488</v>
+        <v>89</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>534</v>
+        <v>59</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4328,22 +4401,19 @@
         <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>17</v>
+        <v>641</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4351,19 +4421,19 @@
         <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>17</v>
@@ -4374,61 +4444,82 @@
         <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>367</v>
+        <v>481</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>368</v>
+        <v>482</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G65" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>369</v>
+        <v>487</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>370</v>
+        <v>488</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G66" s="6"/>
+        <v>636</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>457</v>
+        <v>80</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="G67" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>266</v>
+        <v>42</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>17</v>
@@ -4439,33 +4530,28 @@
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>308</v>
+        <v>367</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>309</v>
+        <v>368</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="G69" s="6"/>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>445</v>
+        <v>750</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>446</v>
+        <v>751</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>171</v>
+        <v>823</v>
       </c>
       <c r="G70" s="6"/>
     </row>
@@ -4474,13 +4560,13 @@
         <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>171</v>
+        <v>570</v>
       </c>
       <c r="G71" s="6"/>
     </row>
@@ -4489,13 +4575,13 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>171</v>
+        <v>620</v>
       </c>
       <c r="G72" s="6"/>
     </row>
@@ -4504,51 +4590,51 @@
         <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>447</v>
+        <v>265</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>448</v>
+        <v>266</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G73" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>274</v>
+        <v>732</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>275</v>
+        <v>733</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>72</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="J75" s="9" t="s">
         <v>17</v>
@@ -4559,17 +4645,19 @@
         <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>483</v>
+        <v>680</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>484</v>
+        <v>682</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G76" s="6"/>
-      <c r="J76" s="11" t="s">
-        <v>534</v>
+        <v>826</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4577,22 +4665,17 @@
         <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>208</v>
+        <v>676</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>14</v>
+        <v>677</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>17</v>
+      <c r="G77" s="6"/>
+      <c r="J77" s="16" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4600,79 +4683,58 @@
         <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>685</v>
+        <v>445</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>14</v>
+        <v>446</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>205</v>
+        <v>443</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>14</v>
+        <v>444</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G79" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>77</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>261</v>
+        <v>449</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>78</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>622</v>
+        <v>171</v>
       </c>
       <c r="G81" s="6"/>
     </row>
@@ -4681,42 +4743,31 @@
         <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>179</v>
+        <v>662</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>14</v>
+        <v>663</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G82" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>171</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>17</v>
@@ -4727,16 +4778,16 @@
         <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="J84" s="9" t="s">
         <v>17</v>
@@ -4747,16 +4798,19 @@
         <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>246</v>
+        <v>684</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>247</v>
+        <v>203</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>17</v>
@@ -4767,17 +4821,18 @@
         <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>337</v>
+        <v>484</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>574</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G86" s="6"/>
       <c r="J86" s="11" t="s">
         <v>534</v>
       </c>
@@ -4787,19 +4842,22 @@
         <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>568</v>
+        <v>208</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>339</v>
+        <v>209</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>534</v>
+        <v>171</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4807,16 +4865,19 @@
         <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>259</v>
+        <v>206</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>17</v>
@@ -4827,19 +4888,20 @@
         <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>441</v>
+        <v>679</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>534</v>
+        <v>171</v>
+      </c>
+      <c r="G89" s="6"/>
+      <c r="J89" s="16" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4847,19 +4909,19 @@
         <v>87</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>427</v>
+        <v>261</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>428</v>
+        <v>262</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>534</v>
+        <v>263</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4867,36 +4929,34 @@
         <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>426</v>
+        <v>611</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>439</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>534</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>89</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>269</v>
+        <v>180</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>17</v>
@@ -4907,19 +4967,22 @@
         <v>90</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>556</v>
+        <v>169</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>316</v>
+        <v>170</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="J93" s="11" t="s">
-        <v>534</v>
+        <v>171</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4927,42 +4990,31 @@
         <v>91</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>57</v>
+        <v>726</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>727</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>92</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>17</v>
@@ -4973,19 +5025,16 @@
         <v>93</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>17</v>
@@ -4996,22 +5045,19 @@
         <v>94</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>14</v>
+        <v>337</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5019,22 +5065,19 @@
         <v>95</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>14</v>
+        <v>339</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5042,19 +5085,19 @@
         <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>518</v>
+        <v>258</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>519</v>
+        <v>259</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>642</v>
+        <v>71</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="J99" s="11" t="s">
-        <v>534</v>
+        <v>260</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5062,16 +5105,16 @@
         <v>97</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>493</v>
+        <v>607</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>494</v>
+        <v>441</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>641</v>
+        <v>609</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="J100" s="11" t="s">
         <v>534</v>
@@ -5082,16 +5125,16 @@
         <v>98</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>558</v>
+        <v>427</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>321</v>
+        <v>428</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>559</v>
+        <v>590</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="J101" s="11" t="s">
         <v>534</v>
@@ -5102,16 +5145,16 @@
         <v>99</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>592</v>
+        <v>425</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>71</v>
+        <v>589</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="J102" s="11" t="s">
         <v>534</v>
@@ -5122,19 +5165,19 @@
         <v>100</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>461</v>
+        <v>268</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>462</v>
+        <v>269</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="J103" s="11" t="s">
-        <v>534</v>
+        <v>184</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5142,79 +5185,128 @@
         <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="G104" s="6"/>
+        <v>316</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="105" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>102</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>524</v>
+        <v>57</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G105" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="106" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>103</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>525</v>
+        <v>18</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G106" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="107" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>104</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>526</v>
+        <v>61</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="G107" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="108" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>105</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>527</v>
+        <v>685</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G108" s="6"/>
+        <v>690</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="J108" s="16" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="109" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>106</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="J109" s="9" t="s">
         <v>17</v>
@@ -5225,19 +5317,19 @@
         <v>107</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>17</v>
@@ -5248,22 +5340,19 @@
         <v>108</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>194</v>
+        <v>518</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>14</v>
+        <v>519</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>192</v>
+        <v>641</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J111" s="9" t="s">
-        <v>17</v>
+        <v>640</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5271,16 +5360,16 @@
         <v>109</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>606</v>
+        <v>493</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>196</v>
+        <v>641</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>640</v>
       </c>
       <c r="J112" s="11" t="s">
         <v>534</v>
@@ -5291,16 +5380,16 @@
         <v>110</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>602</v>
+        <v>558</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>434</v>
+        <v>321</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>603</v>
+        <v>560</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>559</v>
       </c>
       <c r="J113" s="11" t="s">
         <v>534</v>
@@ -5311,16 +5400,16 @@
         <v>111</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>630</v>
+        <v>71</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="J114" s="11" t="s">
         <v>534</v>
@@ -5331,19 +5420,19 @@
         <v>112</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>515</v>
+        <v>693</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>516</v>
+        <v>694</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="J115" s="11" t="s">
-        <v>534</v>
+        <v>803</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="J115" s="16" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5351,64 +5440,48 @@
         <v>113</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>151</v>
+        <v>710</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>14</v>
+        <v>711</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>114</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>138</v>
+        <v>716</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>14</v>
+        <v>717</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J117" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>115</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>550</v>
+        <v>461</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>306</v>
+        <v>462</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="J118" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J118" s="11" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5417,125 +5490,100 @@
         <v>116</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>286</v>
+        <v>532</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="J119" s="9" t="s">
-        <v>534</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="G119" s="6"/>
     </row>
     <row r="120" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>117</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>283</v>
+        <v>523</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="J120" s="9" t="s">
-        <v>534</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="G120" s="6"/>
     </row>
     <row r="121" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>471</v>
+        <v>704</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="G121" s="6"/>
-      <c r="J121" s="11" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="122" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>119</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>451</v>
+        <v>525</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>452</v>
+        <v>528</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="J122" s="11" t="s">
-        <v>534</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>120</v>
       </c>
-      <c r="B123" s="14" t="s">
-        <v>474</v>
+      <c r="B123" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="J123" s="11" t="s">
-        <v>534</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>121</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="J124" s="11" t="s">
-        <v>534</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>122</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>14</v>
@@ -5544,7 +5592,7 @@
         <v>59</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="J125" s="9" t="s">
         <v>17</v>
@@ -5555,42 +5603,37 @@
         <v>123</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>520</v>
+        <v>672</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>14</v>
+        <v>673</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J126" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>124</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>476</v>
+        <v>190</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>477</v>
+        <v>191</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="J127" s="11" t="s">
-        <v>534</v>
+        <v>192</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5598,19 +5641,19 @@
         <v>125</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="J128" s="9" t="s">
         <v>17</v>
@@ -5621,22 +5664,19 @@
         <v>126</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>94</v>
+        <v>606</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>14</v>
+        <v>438</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J129" s="9" t="s">
-        <v>17</v>
+        <v>604</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5644,22 +5684,19 @@
         <v>127</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>110</v>
+        <v>602</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>14</v>
+        <v>434</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J130" s="9" t="s">
-        <v>17</v>
+        <v>604</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5667,22 +5704,19 @@
         <v>128</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>101</v>
+        <v>628</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>14</v>
+        <v>470</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>67</v>
+        <v>629</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J131" s="9" t="s">
-        <v>17</v>
+        <v>630</v>
+      </c>
+      <c r="J131" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5690,42 +5724,34 @@
         <v>129</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>135</v>
+        <v>780</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>14</v>
+        <v>781</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J132" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>130</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>311</v>
+        <v>515</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>312</v>
+        <v>516</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J133" s="9" t="s">
-        <v>17</v>
+        <v>647</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J133" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5733,19 +5759,19 @@
         <v>131</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="J134" s="9" t="s">
         <v>17</v>
@@ -5756,19 +5782,22 @@
         <v>132</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>561</v>
+        <v>138</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>323</v>
+        <v>139</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="J135" s="11" t="s">
-        <v>534</v>
+        <v>59</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5776,45 +5805,39 @@
         <v>133</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>140</v>
+        <v>550</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>142</v>
+        <v>307</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>17</v>
+        <v>534</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>134</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>115</v>
+      <c r="B137" s="2" t="s">
+        <v>800</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>14</v>
+        <v>749</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J137" s="9" t="s">
-        <v>17</v>
+        <v>810</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="J137" s="16" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5822,22 +5845,19 @@
         <v>135</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>107</v>
+        <v>540</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>109</v>
+        <v>553</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>17</v>
+        <v>534</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5845,22 +5865,19 @@
         <v>136</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>112</v>
+        <v>537</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>114</v>
+        <v>552</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>17</v>
+        <v>534</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5868,17 +5885,15 @@
         <v>137</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>509</v>
+        <v>631</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>649</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="G140" s="6"/>
       <c r="J140" s="11" t="s">
         <v>534</v>
       </c>
@@ -5888,15 +5903,17 @@
         <v>138</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>626</v>
+        <v>451</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G141" s="6"/>
+        <v>614</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>615</v>
+      </c>
       <c r="J141" s="11" t="s">
         <v>534</v>
       </c>
@@ -5905,20 +5922,20 @@
       <c r="A142" s="4">
         <v>139</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>325</v>
+      <c r="B142" s="14" t="s">
+        <v>474</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>326</v>
+        <v>475</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="J142" s="9" t="s">
-        <v>17</v>
+        <v>629</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5926,16 +5943,19 @@
         <v>140</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>341</v>
+        <v>507</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>342</v>
+        <v>508</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>343</v>
+        <v>647</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5943,19 +5963,22 @@
         <v>141</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>586</v>
+        <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>424</v>
+        <v>144</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="J144" s="11" t="s">
-        <v>534</v>
+        <v>59</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5963,31 +5986,42 @@
         <v>142</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G145" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="146" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>143</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>655</v>
+        <v>476</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>322</v>
+        <v>477</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="J146" s="11" t="s">
-        <v>656</v>
+        <v>534</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5995,16 +6029,19 @@
         <v>144</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>317</v>
+        <v>176</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>318</v>
+        <v>177</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>319</v>
+        <v>59</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>320</v>
+        <v>178</v>
       </c>
       <c r="J147" s="9" t="s">
         <v>17</v>
@@ -6015,16 +6052,19 @@
         <v>145</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>675</v>
+        <v>95</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>333</v>
+        <v>96</v>
       </c>
       <c r="J148" s="9" t="s">
         <v>17</v>
@@ -6035,19 +6075,22 @@
         <v>146</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>541</v>
+        <v>110</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>287</v>
+        <v>111</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>289</v>
+        <v>103</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>534</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6055,19 +6098,19 @@
         <v>147</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="J150" s="9" t="s">
         <v>17</v>
@@ -6078,19 +6121,22 @@
         <v>148</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>533</v>
+        <v>135</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>315</v>
+        <v>136</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="J151" s="11" t="s">
-        <v>534</v>
+        <v>59</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6098,19 +6144,19 @@
         <v>149</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>579</v>
+        <v>311</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>419</v>
+        <v>312</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="J152" s="11" t="s">
-        <v>534</v>
+        <v>313</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6118,19 +6164,19 @@
         <v>150</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="J153" s="9" t="s">
         <v>17</v>
@@ -6141,16 +6187,16 @@
         <v>151</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>597</v>
+        <v>563</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>562</v>
       </c>
       <c r="J154" s="11" t="s">
         <v>534</v>
@@ -6161,19 +6207,19 @@
         <v>152</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="J155" s="9" t="s">
         <v>17</v>
@@ -6184,22 +6230,19 @@
         <v>153</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="J156" s="9" t="s">
         <v>17</v>
@@ -6210,19 +6253,19 @@
         <v>154</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="J157" s="9" t="s">
         <v>17</v>
@@ -6233,22 +6276,19 @@
         <v>155</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="J158" s="9" t="s">
         <v>17</v>
@@ -6259,16 +6299,16 @@
         <v>156</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>536</v>
+        <v>645</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J159" s="11" t="s">
         <v>534</v>
@@ -6279,17 +6319,15 @@
         <v>157</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>422</v>
+        <v>626</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>585</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="G160" s="6"/>
       <c r="J160" s="11" t="s">
         <v>534</v>
       </c>
@@ -6299,19 +6337,16 @@
         <v>158</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>157</v>
+        <v>325</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>159</v>
+        <v>319</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>160</v>
+        <v>327</v>
       </c>
       <c r="J161" s="9" t="s">
         <v>17</v>
@@ -6322,42 +6357,31 @@
         <v>159</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>166</v>
+        <v>741</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>14</v>
+        <v>742</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J162" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="G162" s="6"/>
     </row>
     <row r="163" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>489</v>
+        <v>341</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="J163" s="11" t="s">
-        <v>534</v>
+        <v>263</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6365,39 +6389,31 @@
         <v>161</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>161</v>
+        <v>718</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>14</v>
+        <v>719</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J164" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="G164" s="6"/>
     </row>
     <row r="165" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>162</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>618</v>
+        <v>584</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="J165" s="11" t="s">
         <v>534</v>
@@ -6408,30 +6424,28 @@
         <v>163</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>612</v>
+        <v>495</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="J166" s="11" t="s">
-        <v>534</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="G166" s="6"/>
     </row>
     <row r="167" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>164</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>472</v>
+        <v>776</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>473</v>
+        <v>777</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="G167" s="6"/>
     </row>
@@ -6440,52 +6454,59 @@
         <v>165</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>281</v>
+        <v>699</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>282</v>
+        <v>700</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="J168" s="9"/>
+        <v>815</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="J168" s="16" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="169" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>166</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>610</v>
+        <v>317</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>442</v>
+        <v>318</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G169" s="6"/>
+        <v>319</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="170" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>167</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>600</v>
+        <v>332</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>433</v>
+        <v>674</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="J170" s="11" t="s">
-        <v>534</v>
+        <v>32</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J170" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6493,22 +6514,19 @@
         <v>168</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>34</v>
+        <v>541</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>17</v>
+        <v>534</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6516,16 +6534,19 @@
         <v>169</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>256</v>
+        <v>23</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="J172" s="9" t="s">
         <v>17</v>
@@ -6536,19 +6557,16 @@
         <v>170</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>271</v>
+        <v>667</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>272</v>
+        <v>668</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>71</v>
+        <v>807</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J173" s="9" t="s">
-        <v>17</v>
+        <v>669</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6556,22 +6574,16 @@
         <v>171</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>47</v>
+        <v>664</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>14</v>
+        <v>665</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>49</v>
+        <v>807</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J174" s="9" t="s">
-        <v>17</v>
+        <v>666</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6579,39 +6591,31 @@
         <v>172</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>186</v>
+        <v>675</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>14</v>
+        <v>752</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G175" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="J175" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="G175" s="6"/>
     </row>
     <row r="176" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>173</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>522</v>
+        <v>315</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>653</v>
+        <v>536</v>
+      </c>
+      <c r="G176" s="10" t="s">
+        <v>535</v>
       </c>
       <c r="J176" s="11" t="s">
         <v>534</v>
@@ -6622,18 +6626,18 @@
         <v>174</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>303</v>
+        <v>419</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="J177" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="J177" s="11" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6642,19 +6646,19 @@
         <v>175</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>621</v>
+        <v>720</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>460</v>
+        <v>721</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="J178" s="11" t="s">
-        <v>534</v>
+        <v>804</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="J178" s="16" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6662,22 +6666,22 @@
         <v>176</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>580</v>
+        <v>45</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>421</v>
+        <v>42</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="J179" s="11" t="s">
-        <v>534</v>
+        <v>28</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J179" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6685,18 +6689,18 @@
         <v>177</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>547</v>
+        <v>596</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>301</v>
+        <v>431</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G180" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="J180" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="J180" s="11" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6705,19 +6709,19 @@
         <v>178</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>328</v>
+        <v>697</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>329</v>
+        <v>698</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="J181" s="9" t="s">
-        <v>17</v>
+        <v>815</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="J181" s="16" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6725,34 +6729,48 @@
         <v>179</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>293</v>
+        <v>26</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>294</v>
+        <v>27</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>263</v>
+        <v>28</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="J182" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="J182" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="183" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>180</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>543</v>
+        <v>197</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>291</v>
+        <v>198</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>292</v>
+        <v>185</v>
+      </c>
+      <c r="J183" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6760,19 +6778,22 @@
         <v>181</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>571</v>
+        <v>182</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>338</v>
+        <v>183</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G184" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="J184" s="11" t="s">
-        <v>534</v>
+        <v>184</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J184" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6780,45 +6801,64 @@
         <v>182</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>467</v>
+        <v>200</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G185" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J185" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="186" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>183</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G186" s="6"/>
+        <v>536</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="J186" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="187" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>184</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>544</v>
+        <v>422</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>295</v>
+        <v>423</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="J187" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="J187" s="11" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6827,19 +6867,16 @@
         <v>185</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>546</v>
+        <v>745</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>299</v>
+        <v>746</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>288</v>
+        <v>807</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="J188" s="9" t="s">
-        <v>534</v>
+        <v>816</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6847,28 +6884,42 @@
         <v>186</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>465</v>
+        <v>157</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G189" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J189" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="190" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>187</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>250</v>
+        <v>167</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>251</v>
+        <v>168</v>
       </c>
       <c r="J190" s="9" t="s">
         <v>17</v>
@@ -6879,19 +6930,19 @@
         <v>188</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>252</v>
+        <v>489</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>253</v>
+        <v>490</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G191" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="J191" s="9" t="s">
-        <v>17</v>
+        <v>636</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="J191" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6899,57 +6950,57 @@
         <v>189</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>485</v>
+        <v>161</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G192" s="6"/>
+        <v>162</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J192" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="193" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>190</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>85</v>
+        <v>730</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>14</v>
+        <v>731</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G193" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J193" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="G193" s="6"/>
     </row>
     <row r="194" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>191</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>82</v>
+        <v>617</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>14</v>
+        <v>455</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>59</v>
+        <v>619</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J194" s="9" t="s">
-        <v>17</v>
+        <v>618</v>
+      </c>
+      <c r="J194" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6957,45 +7008,34 @@
         <v>192</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>91</v>
+        <v>724</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>14</v>
+        <v>725</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G195" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J195" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="G195" s="6"/>
     </row>
     <row r="196" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>193</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>37</v>
+        <v>612</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J196" s="9" t="s">
-        <v>17</v>
+        <v>613</v>
+      </c>
+      <c r="J196" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7003,140 +7043,97 @@
         <v>194</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>119</v>
+        <v>472</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>14</v>
+        <v>473</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J197" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="G197" s="6"/>
     </row>
     <row r="198" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>195</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>173</v>
+        <v>281</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J198" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="J198" s="9"/>
     </row>
     <row r="199" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>196</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>148</v>
+        <v>610</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>14</v>
+        <v>442</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J199" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="G199" s="6"/>
     </row>
     <row r="200" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>197</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>123</v>
+        <v>705</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>14</v>
+        <v>706</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G200" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J200" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="G200" s="6"/>
     </row>
     <row r="201" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>198</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>129</v>
+        <v>705</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>14</v>
+        <v>707</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J201" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="G201" s="6"/>
     </row>
     <row r="202" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>199</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>154</v>
+        <v>600</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>14</v>
+        <v>433</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J202" s="9" t="s">
-        <v>17</v>
+        <v>599</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="J202" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7144,22 +7141,22 @@
         <v>200</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>478</v>
+        <v>34</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>480</v>
+        <v>35</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="J203" s="11" t="s">
-        <v>534</v>
+      <c r="G203" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J203" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7167,19 +7164,19 @@
         <v>201</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>514</v>
+        <v>686</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>513</v>
+        <v>689</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="J204" s="11" t="s">
-        <v>534</v>
+        <v>819</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="J204" s="16" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7187,42 +7184,31 @@
         <v>202</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>97</v>
+        <v>660</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>14</v>
+        <v>661</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J205" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="G205" s="6"/>
     </row>
     <row r="206" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>203</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="J206" s="9" t="s">
         <v>17</v>
@@ -7233,19 +7219,19 @@
         <v>204</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>542</v>
+        <v>271</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>263</v>
+        <v>71</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J207" s="9" t="s">
-        <v>534</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7253,19 +7239,22 @@
         <v>205</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>538</v>
+        <v>47</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>279</v>
+        <v>48</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>263</v>
+        <v>49</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="J208" s="9" t="s">
-        <v>534</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7273,19 +7262,22 @@
         <v>206</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>545</v>
+        <v>186</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>297</v>
+        <v>187</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>298</v>
+        <v>189</v>
       </c>
       <c r="J209" s="9" t="s">
-        <v>534</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7293,19 +7285,19 @@
         <v>207</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>334</v>
+        <v>521</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>335</v>
+        <v>522</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="J210" s="9" t="s">
-        <v>17</v>
+        <v>653</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="J210" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7313,18 +7305,18 @@
         <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>594</v>
+        <v>548</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>430</v>
+        <v>303</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="J211" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="J211" s="9" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7333,16 +7325,16 @@
         <v>209</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>564</v>
+        <v>621</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>324</v>
+        <v>460</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G212" s="10" t="s">
-        <v>565</v>
+        <v>624</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="J212" s="11" t="s">
         <v>534</v>
@@ -7353,16 +7345,19 @@
         <v>210</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>432</v>
+        <v>420</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G213" s="10" t="s">
-        <v>572</v>
+        <v>584</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="J213" s="11" t="s">
         <v>534</v>
@@ -7373,16 +7368,16 @@
         <v>211</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="J214" s="9" t="s">
         <v>534</v>
@@ -7393,19 +7388,16 @@
         <v>212</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>51</v>
+        <v>328</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>14</v>
+        <v>329</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>54</v>
+        <v>331</v>
       </c>
       <c r="J215" s="9" t="s">
         <v>17</v>
@@ -7416,62 +7408,49 @@
         <v>213</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>55</v>
+        <v>778</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>14</v>
+        <v>779</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J216" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="G216" s="6"/>
     </row>
     <row r="217" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>214</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>501</v>
+        <v>293</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>502</v>
+        <v>294</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="J217" s="11" t="s">
-        <v>534</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="J217" s="9"/>
     </row>
     <row r="218" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>215</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>453</v>
+        <v>543</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>454</v>
+        <v>291</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="J218" s="11" t="s">
-        <v>534</v>
+        <v>263</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -7479,22 +7458,19 @@
         <v>216</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>73</v>
+        <v>571</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G219" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J219" s="9" t="s">
-        <v>17</v>
+      <c r="G219" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="J219" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -7502,33 +7478,25 @@
         <v>217</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>69</v>
+        <v>467</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>14</v>
+        <v>468</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J220" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="G220" s="6"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>218</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>622</v>
@@ -7540,80 +7508,81 @@
         <v>219</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G222" s="6"/>
+        <v>295</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J222" s="9" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>220</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>605</v>
+        <v>766</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>435</v>
+        <v>769</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>171</v>
+        <v>822</v>
       </c>
       <c r="G223" s="6"/>
-      <c r="J223" s="11" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>221</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>491</v>
+        <v>782</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>492</v>
+        <v>783</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="J224" s="11" t="s">
-        <v>534</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="G224" s="6"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>222</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>549</v>
+        <v>784</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>304</v>
+        <v>785</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="J225" s="9" t="s">
-        <v>534</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="G225" s="6"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>223</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>659</v>
+        <v>771</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>660</v>
+        <v>772</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="G226" s="6"/>
     </row>
@@ -7622,10 +7591,13 @@
         <v>224</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>661</v>
+        <v>786</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>662</v>
+        <v>787</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="G227" s="6"/>
     </row>
@@ -7634,10 +7606,13 @@
         <v>225</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>663</v>
+        <v>768</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>664</v>
+        <v>767</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="G228" s="6"/>
     </row>
@@ -7646,13 +7621,19 @@
         <v>226</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>665</v>
+        <v>546</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>666</v>
+        <v>299</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>667</v>
+        <v>300</v>
+      </c>
+      <c r="J229" s="9" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -7660,109 +7641,137 @@
         <v>227</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>668</v>
+        <v>728</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>670</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G230" s="6"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>228</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>671</v>
+        <v>465</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="G231" s="16" t="s">
-        <v>805</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="G231" s="6"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>229</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>673</v>
+        <v>249</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="G232" s="6"/>
+        <v>250</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J232" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>230</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>676</v>
+        <v>252</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="G233" s="6"/>
+        <v>253</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J233" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>231</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>678</v>
+        <v>659</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="G234" s="6"/>
-      <c r="J234" s="17" t="s">
-        <v>790</v>
-      </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>232</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>679</v>
+        <v>775</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>680</v>
+        <v>753</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="G235" s="6"/>
-      <c r="J235" s="17" t="s">
-        <v>790</v>
-      </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>233</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>681</v>
+        <v>485</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="J236" s="17" t="s">
-        <v>790</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G236" s="6"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>234</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>682</v>
+        <v>85</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>684</v>
+        <v>86</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J237" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -7770,16 +7779,22 @@
         <v>235</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>686</v>
+        <v>82</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>691</v>
+        <v>83</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="J238" s="17" t="s">
-        <v>790</v>
+        <v>84</v>
+      </c>
+      <c r="J238" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -7787,16 +7802,22 @@
         <v>236</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>687</v>
+        <v>91</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="J239" s="17" t="s">
-        <v>790</v>
+        <v>92</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J239" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -7804,16 +7825,22 @@
         <v>237</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>688</v>
+        <v>37</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="J240" s="17" t="s">
-        <v>790</v>
+        <v>38</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J240" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -7821,31 +7848,45 @@
         <v>238</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>693</v>
+        <v>119</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>692</v>
+        <v>120</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="G241" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J241" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>239</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>694</v>
+        <v>173</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="J242" s="17" t="s">
-        <v>790</v>
+        <v>174</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J242" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -7853,16 +7894,22 @@
         <v>240</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>696</v>
+        <v>148</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="J243" s="17" t="s">
-        <v>790</v>
+        <v>149</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J243" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -7870,16 +7917,22 @@
         <v>241</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>698</v>
+        <v>123</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="J244" s="17" t="s">
-        <v>790</v>
+        <v>124</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J244" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -7887,16 +7940,25 @@
         <v>242</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>700</v>
+        <v>129</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="J245" s="17" t="s">
-        <v>790</v>
+        <v>130</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J245" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -7904,16 +7966,22 @@
         <v>243</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>702</v>
+        <v>154</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="J246" s="17" t="s">
-        <v>790</v>
+        <v>155</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G246" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J246" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -7921,82 +7989,136 @@
         <v>244</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>704</v>
+        <v>478</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="G247" s="6"/>
+        <v>479</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="J247" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>245</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>706</v>
+        <v>514</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="G248" s="6"/>
+        <v>513</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="J248" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>246</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>706</v>
+        <v>97</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="G249" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J249" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>247</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>709</v>
+        <v>654</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="G250" s="6"/>
+        <v>322</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="J250" s="11" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>248</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>711</v>
+        <v>76</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="G251" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J251" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>249</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>714</v>
+        <v>681</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="G252" s="6"/>
+        <v>683</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>250</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>716</v>
+        <v>748</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>805</v>
       </c>
       <c r="G253" s="6"/>
     </row>
@@ -8005,10 +8127,13 @@
         <v>251</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>805</v>
       </c>
       <c r="G254" s="6"/>
     </row>
@@ -8017,28 +8142,39 @@
         <v>252</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>719</v>
+        <v>542</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G255" s="6"/>
+        <v>290</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="J255" s="9" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>253</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>721</v>
+        <v>538</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="J256" s="17" t="s">
-        <v>790</v>
+        <v>279</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="J256" s="9" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -8046,10 +8182,19 @@
         <v>254</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>723</v>
+        <v>545</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>724</v>
+        <v>297</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J257" s="9" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -8057,76 +8202,119 @@
         <v>255</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>725</v>
+        <v>334</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="G258" s="6"/>
+        <v>335</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="J258" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>256</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>727</v>
+        <v>594</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="G259" s="6"/>
+        <v>430</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J259" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>257</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>729</v>
+        <v>564</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G260" s="6"/>
+        <v>324</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G260" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="J260" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>258</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>731</v>
+        <v>598</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="G261" s="6"/>
+        <v>432</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G261" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="J261" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>259</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="G262" s="6"/>
+        <v>702</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="J262" s="16" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>260</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>735</v>
+        <v>695</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>738</v>
+        <v>696</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="J263" s="17" t="s">
-        <v>790</v>
+        <v>794</v>
+      </c>
+      <c r="J263" s="16" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -8134,16 +8322,19 @@
         <v>261</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>736</v>
+        <v>539</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="J264" s="17" t="s">
-        <v>790</v>
+        <v>284</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="J264" s="9" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -8151,96 +8342,146 @@
         <v>262</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>737</v>
+        <v>773</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="J265" s="17" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+        <v>774</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="G265" s="6"/>
+    </row>
+    <row r="266" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>263</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>741</v>
+        <v>51</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="G266" s="6"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J266" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>264</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>742</v>
+        <v>55</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="G267" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G267" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J267" s="18" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>265</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>744</v>
+        <v>501</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="G268" s="6"/>
+        <v>502</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="J268" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>266</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>746</v>
+        <v>453</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="G269" s="6"/>
+        <v>454</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="J269" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>267</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>748</v>
+        <v>73</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="G270" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G270" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J270" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>268</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>803</v>
+      <c r="B271" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="J271" s="17" t="s">
-        <v>790</v>
+        <v>70</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J271" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -8248,216 +8489,294 @@
         <v>269</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>751</v>
+        <v>458</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>752</v>
+        <v>459</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>622</v>
       </c>
       <c r="G272" s="6"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>270</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>757</v>
+        <v>763</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="G273" s="6"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>271</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="G274" s="6"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>272</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>762</v>
+        <v>765</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="G275" s="6"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>273</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C276" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>764</v>
+      <c r="F276" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="G276" s="6"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>274</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>765</v>
+        <v>755</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="G277" s="6"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>275</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>768</v>
+        <v>757</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="G278" s="6"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>276</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>767</v>
+        <v>463</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>771</v>
+        <v>464</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="G279" s="6"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>277</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>772</v>
+        <v>734</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="G280" s="6"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="J280" s="16" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>278</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>774</v>
+        <v>735</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="G281" s="6"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+        <v>738</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="J281" s="16" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>279</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>776</v>
+        <v>736</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="G282" s="6"/>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="J282" s="16" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>280</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>777</v>
+        <v>605</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>778</v>
+        <v>435</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="G283" s="6"/>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J283" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>281</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>779</v>
+        <v>491</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="G284" s="6"/>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J284" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>282</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>781</v>
+        <v>713</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>782</v>
+        <v>712</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="G285" s="6"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>283</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>783</v>
+        <v>708</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>784</v>
+        <v>709</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="G286" s="6"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>284</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>785</v>
+        <v>549</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="G287" s="6"/>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G287" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J287" s="9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>285</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>787</v>
+        <v>670</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="G288" s="6"/>
+        <v>671</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G288" s="15" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="289" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G289" s="6"/>
@@ -11250,76 +11569,76 @@
       <c r="G1218" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:K226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState ref="B4:J226">
-    <sortCondition ref="B4:B226"/>
+  <autoFilter ref="B3:K288" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState ref="B4:L288">
+    <sortCondition ref="B288"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J98" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J95" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J150" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J155" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J56" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J171" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J196" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J64" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J153" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J174" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J215" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J216" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J94" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J96" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J97" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J220" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J219" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J206" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J63" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J194" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J193" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J58" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J195" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J129" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J205" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J131" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J134" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J138" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J130" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J139" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J137" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J197" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J200" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J201" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J126" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J132" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J117" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J136" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J125" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J54" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J199" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J116" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J202" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J161" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J164" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J109" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J162" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J83" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J198" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J128" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J157" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J175" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J110" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J111" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J156" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J158" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="J78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J77" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J110" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J106" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J172" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J182" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J60" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J203" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J240" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J68" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J179" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J208" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J266" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J267" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J105" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J107" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J109" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J271" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J270" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J251" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J67" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J238" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J237" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J62" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J239" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J148" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J249" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J150" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J153" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J157" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J149" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J158" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J156" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J241" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J244" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J64" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J245" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J145" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J151" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J135" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J155" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J144" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J58" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J243" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J134" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J246" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J189" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J192" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J125" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J190" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J93" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J242" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J147" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J92" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J184" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J209" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J127" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J128" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J183" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J185" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J85" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J88" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J87" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="J17" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="J18" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="J19" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
@@ -11330,113 +11649,113 @@
     <hyperlink ref="J24" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="J25" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="J26" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J35" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J36" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="J37" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="J85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J190" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J191" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J172" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="J88" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J80" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J68" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J173" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J74" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J75" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J69" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="J133" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J142" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J181" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="J148" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J210" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J151" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="J93" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="J120" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J208" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J214" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="J119" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J149" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="J207" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J187" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J209" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J188" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="J180" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="J177" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="J225" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="J118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="J147" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="J101" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="J135" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J212" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="J39" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="J87" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="J184" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="J86" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="J33" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="J34" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="J152" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="J179" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="J160" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="J144" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="J91" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="J90" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="J102" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="J211" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="J154" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="J213" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="J170" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="J113" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="J223" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="J112" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="J89" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="J166" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="J122" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="J218" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="J165" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="J178" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="J103" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="J141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="J114" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="J121" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="J123" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="J127" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="J203" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="J61" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="J76" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="J62" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="J163" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="J224" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="J100" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="J57" r:id="rId151" display="File" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="J59" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="J217" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="J159" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="J124" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="J140" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="J55" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="J115" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="J204" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="J99" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="J176" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="J146" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="J235" r:id="rId163" xr:uid="{6C66F11D-906F-44F2-ACFE-DD6B5B09D1E8}"/>
-    <hyperlink ref="J234" r:id="rId164" xr:uid="{72306048-D77C-4A95-BB92-8A5A58F20578}"/>
-    <hyperlink ref="J236" r:id="rId165" xr:uid="{62DC2B33-07B0-4677-A881-A3C3AB96615B}"/>
-    <hyperlink ref="J238" r:id="rId166" xr:uid="{72D6DACE-66C7-456F-8D08-F602C3ECAFBD}"/>
-    <hyperlink ref="J239" r:id="rId167" xr:uid="{A968573B-D349-4815-BD54-CF4C3D2FBAC1}"/>
-    <hyperlink ref="J240" r:id="rId168" xr:uid="{3AA4EED9-DD29-4BBC-BB61-6E9BC938380A}"/>
-    <hyperlink ref="J242" r:id="rId169" xr:uid="{2284AB8E-01D0-4A41-BAB5-A12351A83290}"/>
-    <hyperlink ref="J243" r:id="rId170" xr:uid="{2170FDE2-5993-4238-BD3C-853B252FDB40}"/>
-    <hyperlink ref="J244" r:id="rId171" xr:uid="{88CA156D-B7ED-44E9-9066-C371F45082C3}"/>
-    <hyperlink ref="J245" r:id="rId172" xr:uid="{9966B56A-5200-4C1A-85FE-5C3E9ABE378E}"/>
-    <hyperlink ref="J246" r:id="rId173" xr:uid="{0C5BA830-308F-43E2-8812-B41DE4AB3C74}"/>
-    <hyperlink ref="J256" r:id="rId174" xr:uid="{F6CC77B8-0D4E-4D8A-8AD9-3BC87384E02B}"/>
-    <hyperlink ref="J263" r:id="rId175" xr:uid="{B4E98249-5488-45CF-B7EC-27C73558D00C}"/>
-    <hyperlink ref="J264" r:id="rId176" xr:uid="{9D88ECF8-EF0C-4991-9DB6-1A7E38D73B9C}"/>
-    <hyperlink ref="J265" r:id="rId177" xr:uid="{53AA99EF-6EE6-4F31-A3AC-91D9FD2BF72D}"/>
-    <hyperlink ref="J271" r:id="rId178" xr:uid="{C1AA6907-CC12-4B1B-BDF1-72126F1CB618}"/>
+    <hyperlink ref="J37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J39" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J95" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J96" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J232" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J233" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J206" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J99" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J73" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J103" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J207" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J83" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J84" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J75" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J152" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J161" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J215" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J170" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J258" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J176" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J104" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J139" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J256" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J264" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J138" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J171" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J255" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J222" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J257" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J229" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J214" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J211" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J287" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J136" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J169" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J113" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="J154" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J260" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J41" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="J98" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="J219" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="J97" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="J34" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="J35" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="J177" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J213" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="J187" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="J165" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="J102" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="J101" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="J114" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J259" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="J180" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J261" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="J202" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="J130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="J283" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J129" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="J100" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J196" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="J141" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="J269" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="J194" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="J212" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="J118" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="J160" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="J131" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="J140" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="J142" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="J146" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="J247" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="J65" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J86" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="J66" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="J191" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="J284" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="J112" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="J61" r:id="rId151" display="File" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="J63" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="J268" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="J186" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="J143" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="J159" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="J59" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="J133" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="J248" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="J111" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="J210" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="J250" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="J89" r:id="rId163" xr:uid="{6C66F11D-906F-44F2-ACFE-DD6B5B09D1E8}"/>
+    <hyperlink ref="J77" r:id="rId164" xr:uid="{72306048-D77C-4A95-BB92-8A5A58F20578}"/>
+    <hyperlink ref="J76" r:id="rId165" xr:uid="{62DC2B33-07B0-4677-A881-A3C3AB96615B}"/>
+    <hyperlink ref="J108" r:id="rId166" xr:uid="{72D6DACE-66C7-456F-8D08-F602C3ECAFBD}"/>
+    <hyperlink ref="J204" r:id="rId167" xr:uid="{A968573B-D349-4815-BD54-CF4C3D2FBAC1}"/>
+    <hyperlink ref="J30" r:id="rId168" xr:uid="{3AA4EED9-DD29-4BBC-BB61-6E9BC938380A}"/>
+    <hyperlink ref="J115" r:id="rId169" xr:uid="{2284AB8E-01D0-4A41-BAB5-A12351A83290}"/>
+    <hyperlink ref="J263" r:id="rId170" xr:uid="{2170FDE2-5993-4238-BD3C-853B252FDB40}"/>
+    <hyperlink ref="J181" r:id="rId171" xr:uid="{88CA156D-B7ED-44E9-9066-C371F45082C3}"/>
+    <hyperlink ref="J168" r:id="rId172" xr:uid="{9966B56A-5200-4C1A-85FE-5C3E9ABE378E}"/>
+    <hyperlink ref="J262" r:id="rId173" xr:uid="{0C5BA830-308F-43E2-8812-B41DE4AB3C74}"/>
+    <hyperlink ref="J178" r:id="rId174" xr:uid="{F6CC77B8-0D4E-4D8A-8AD9-3BC87384E02B}"/>
+    <hyperlink ref="J280" r:id="rId175" xr:uid="{B4E98249-5488-45CF-B7EC-27C73558D00C}"/>
+    <hyperlink ref="J281" r:id="rId176" xr:uid="{9D88ECF8-EF0C-4991-9DB6-1A7E38D73B9C}"/>
+    <hyperlink ref="J282" r:id="rId177" xr:uid="{53AA99EF-6EE6-4F31-A3AC-91D9FD2BF72D}"/>
+    <hyperlink ref="J137" r:id="rId178" xr:uid="{C1AA6907-CC12-4B1B-BDF1-72126F1CB618}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId179"/>

--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROCESSOR\Desktop\Justin\datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Documents\datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA4F6E0-6843-41E5-B962-D45F06B88EC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$K$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$K$288</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="813">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -1955,10 +1956,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ATTINY 13A/85 PROGRAMMING BOARD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MH-TINY T88-15MZ</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2703,17 +2700,49 @@
   </si>
   <si>
     <t>9-12v 10W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TQFP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTINY13A/85 PROGRAMMING BOARD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODULE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-bit AVR Microcontroller with 8K Byte In-System Programmable Flash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">low power CMOS 8-bit Microcontroller </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월 &quot;dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2765,14 +2794,6 @@
     <font>
       <u/>
       <sz val="12"/>
-      <name val="Bitstream Vera Sans Mono"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0563C1"/>
       <name val="Bitstream Vera Sans Mono"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2840,9 +2861,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2855,15 +2873,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Text 1" xfId="2"/>
+    <cellStyle name="Text 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -3210,11 +3231,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E213" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G234" sqref="G234"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F243" sqref="F243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3222,7 +3244,7 @@
     <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="1" customWidth="1"/>
     <col min="3" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="73.875" style="5" customWidth="1"/>
     <col min="8" max="8" width="6.25" style="4" customWidth="1"/>
@@ -3234,19 +3256,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -3496,7 +3518,7 @@
       <c r="G17" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3516,7 +3538,7 @@
       <c r="G18" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3536,7 +3558,7 @@
       <c r="G19" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3556,7 +3578,7 @@
       <c r="G20" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3576,7 +3598,7 @@
       <c r="G21" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3596,7 +3618,7 @@
       <c r="G22" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3619,7 +3641,7 @@
       <c r="G23" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3639,7 +3661,7 @@
       <c r="G24" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3659,7 +3681,7 @@
       <c r="G25" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3679,7 +3701,7 @@
       <c r="G26" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3789,7 +3811,7 @@
       <c r="G33" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -3809,7 +3831,7 @@
       <c r="G34" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -3832,7 +3854,7 @@
       <c r="G35" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3855,7 +3877,7 @@
       <c r="G36" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3878,7 +3900,7 @@
       <c r="G37" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3897,7 +3919,7 @@
       </c>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -3913,7 +3935,7 @@
       <c r="G39" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4146,7 +4168,7 @@
       <c r="G54" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J54" s="9" t="s">
+      <c r="J54" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4164,12 +4186,12 @@
         <v>517</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="J55" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="J55" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4192,7 +4214,7 @@
       <c r="G56" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="J56" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4207,12 +4229,12 @@
         <v>498</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="J57" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="J57" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4235,7 +4257,7 @@
       <c r="G58" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="9" t="s">
+      <c r="J58" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4250,12 +4272,12 @@
         <v>500</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="J59" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="J59" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4278,7 +4300,7 @@
       <c r="G60" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J60" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4298,7 +4320,7 @@
       <c r="G61" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4313,12 +4335,12 @@
         <v>488</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4341,7 +4363,7 @@
       <c r="G63" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="J63" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4364,7 +4386,7 @@
       <c r="G64" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="J64" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4409,7 +4431,7 @@
         <v>457</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G67" s="6"/>
     </row>
@@ -4429,7 +4451,7 @@
       <c r="G68" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="J68" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4449,7 +4471,7 @@
       <c r="G69" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="J69" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4463,10 +4485,18 @@
       <c r="C70" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="E70" s="1" t="s">
+        <v>808</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G70" s="6"/>
+      <c r="G70" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
@@ -4478,6 +4508,9 @@
       <c r="C71" s="1" t="s">
         <v>444</v>
       </c>
+      <c r="E71" s="1" t="s">
+        <v>808</v>
+      </c>
       <c r="F71" s="1" t="s">
         <v>171</v>
       </c>
@@ -4493,10 +4526,18 @@
       <c r="C72" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="E72" s="1" t="s">
+        <v>808</v>
+      </c>
       <c r="F72" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G72" s="6"/>
+      <c r="G72" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
@@ -4508,10 +4549,18 @@
       <c r="C73" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="E73" s="1" t="s">
+        <v>808</v>
+      </c>
       <c r="F73" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G73" s="6"/>
+      <c r="G73" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
@@ -4523,13 +4572,16 @@
       <c r="C74" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="E74" s="1" t="s">
+        <v>805</v>
+      </c>
       <c r="F74" s="1" t="s">
         <v>171</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J74" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4543,13 +4595,16 @@
       <c r="C75" s="1" t="s">
         <v>278</v>
       </c>
+      <c r="E75" s="1" t="s">
+        <v>805</v>
+      </c>
       <c r="F75" s="1" t="s">
         <v>171</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="J75" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4563,11 +4618,16 @@
       <c r="C76" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="E76" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F76" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G76" s="6"/>
-      <c r="J76" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J76" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4590,8 +4650,8 @@
       <c r="G77" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="J77" s="9" t="s">
-        <v>17</v>
+      <c r="J77" s="17" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4599,7 +4659,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>203</v>
@@ -4613,7 +4673,7 @@
       <c r="G78" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="J78" s="9" t="s">
+      <c r="J78" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4636,7 +4696,7 @@
       <c r="G79" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4656,8 +4716,8 @@
       <c r="G80" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="J80" s="9" t="s">
-        <v>17</v>
+      <c r="J80" s="16" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4665,13 +4725,13 @@
         <v>78</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>611</v>
+        <v>806</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>439</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G81" s="6"/>
     </row>
@@ -4694,7 +4754,7 @@
       <c r="G82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="J82" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4717,7 +4777,7 @@
       <c r="G83" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J83" s="9" t="s">
+      <c r="J83" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4737,7 +4797,7 @@
       <c r="G84" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="J84" s="9" t="s">
+      <c r="J84" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4757,7 +4817,7 @@
       <c r="G85" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="J85" s="9" t="s">
+      <c r="J85" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4777,7 +4837,7 @@
       <c r="G86" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="J86" s="11" t="s">
+      <c r="J86" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4797,7 +4857,7 @@
       <c r="G87" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="J87" s="11" t="s">
+      <c r="J87" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4817,7 +4877,7 @@
       <c r="G88" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J88" s="9" t="s">
+      <c r="J88" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4837,7 +4897,7 @@
       <c r="G89" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="J89" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4857,7 +4917,7 @@
       <c r="G90" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="J90" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4877,7 +4937,7 @@
       <c r="G91" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="J91" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4897,7 +4957,7 @@
       <c r="G92" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="J92" s="9" t="s">
+      <c r="J92" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4914,10 +4974,10 @@
       <c r="F93" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G93" s="12" t="s">
+      <c r="G93" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="J93" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4937,10 +4997,10 @@
       <c r="F94" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G94" s="13" t="s">
+      <c r="G94" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J94" s="9" t="s">
+      <c r="J94" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4963,7 +5023,7 @@
       <c r="G95" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J95" s="9" t="s">
+      <c r="J95" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4986,7 +5046,7 @@
       <c r="G96" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J96" s="9" t="s">
+      <c r="J96" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5009,7 +5069,7 @@
       <c r="G97" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J97" s="9" t="s">
+      <c r="J97" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5032,7 +5092,7 @@
       <c r="G98" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J98" s="9" t="s">
+      <c r="J98" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5047,12 +5107,12 @@
         <v>519</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="J99" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="J99" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5067,12 +5127,12 @@
         <v>494</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="J100" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="J100" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5092,7 +5152,7 @@
       <c r="G101" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="J101" s="11" t="s">
+      <c r="J101" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5112,7 +5172,7 @@
       <c r="G102" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="J102" s="11" t="s">
+      <c r="J102" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5127,12 +5187,12 @@
         <v>462</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="J103" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="J103" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5215,7 +5275,7 @@
       <c r="G109" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J109" s="9" t="s">
+      <c r="J109" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5238,7 +5298,7 @@
       <c r="G110" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J110" s="9" t="s">
+      <c r="J110" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5261,7 +5321,7 @@
       <c r="G111" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="J111" s="9" t="s">
+      <c r="J111" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5281,7 +5341,7 @@
       <c r="G112" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J112" s="11" t="s">
+      <c r="J112" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5301,7 +5361,7 @@
       <c r="G113" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="J113" s="11" t="s">
+      <c r="J113" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5310,18 +5370,18 @@
         <v>111</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>470</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G114" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="G114" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="J114" s="11" t="s">
+      <c r="J114" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5336,12 +5396,12 @@
         <v>516</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="J115" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="J115" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5364,7 +5424,7 @@
       <c r="G116" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="J116" s="9" t="s">
+      <c r="J116" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5387,7 +5447,7 @@
       <c r="G117" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J117" s="9" t="s">
+      <c r="J117" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5407,7 +5467,7 @@
       <c r="G118" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="J118" s="9" t="s">
+      <c r="J118" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5427,7 +5487,7 @@
       <c r="G119" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="J119" s="9" t="s">
+      <c r="J119" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5447,7 +5507,7 @@
       <c r="G120" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="J120" s="9" t="s">
+      <c r="J120" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5456,13 +5516,13 @@
         <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>471</v>
       </c>
       <c r="G121" s="6"/>
-      <c r="J121" s="11" t="s">
+      <c r="J121" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5477,12 +5537,12 @@
         <v>452</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="J122" s="11" t="s">
+      <c r="J122" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5490,19 +5550,19 @@
       <c r="A123" s="4">
         <v>120</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="13" t="s">
         <v>474</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>475</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="J123" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="J123" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5517,12 +5577,12 @@
         <v>508</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="J124" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="J124" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5545,7 +5605,7 @@
       <c r="G125" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J125" s="9" t="s">
+      <c r="J125" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5568,7 +5628,7 @@
       <c r="G126" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J126" s="9" t="s">
+      <c r="J126" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5586,9 +5646,9 @@
         <v>67</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="J127" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="J127" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5611,7 +5671,7 @@
       <c r="G128" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="J128" s="9" t="s">
+      <c r="J128" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5634,7 +5694,7 @@
       <c r="G129" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J129" s="9" t="s">
+      <c r="J129" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5657,7 +5717,7 @@
       <c r="G130" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J130" s="9" t="s">
+      <c r="J130" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5680,7 +5740,7 @@
       <c r="G131" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J131" s="9" t="s">
+      <c r="J131" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5703,7 +5763,7 @@
       <c r="G132" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J132" s="9" t="s">
+      <c r="J132" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5723,7 +5783,7 @@
       <c r="G133" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="J133" s="9" t="s">
+      <c r="J133" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5746,7 +5806,7 @@
       <c r="G134" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J134" s="9" t="s">
+      <c r="J134" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5766,7 +5826,7 @@
       <c r="G135" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="J135" s="11" t="s">
+      <c r="J135" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5789,7 +5849,7 @@
       <c r="G136" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="J136" s="9" t="s">
+      <c r="J136" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5812,7 +5872,7 @@
       <c r="G137" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J137" s="9" t="s">
+      <c r="J137" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5835,7 +5895,7 @@
       <c r="G138" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J138" s="9" t="s">
+      <c r="J138" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5858,7 +5918,7 @@
       <c r="G139" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="J139" s="9" t="s">
+      <c r="J139" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5873,12 +5933,12 @@
         <v>510</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="J140" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="J140" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5887,16 +5947,16 @@
         <v>138</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>469</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G141" s="6"/>
-      <c r="J141" s="11" t="s">
+      <c r="J141" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5916,7 +5976,7 @@
       <c r="G142" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="J142" s="9" t="s">
+      <c r="J142" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5953,7 +6013,7 @@
       <c r="G144" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="J144" s="11" t="s">
+      <c r="J144" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5974,7 +6034,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>322</v>
@@ -5983,10 +6043,10 @@
         <v>63</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="J146" s="11" t="s">
-        <v>656</v>
+        <v>657</v>
+      </c>
+      <c r="J146" s="17" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6005,7 +6065,7 @@
       <c r="G147" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="J147" s="9" t="s">
+      <c r="J147" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6017,7 +6077,7 @@
         <v>332</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>32</v>
@@ -6025,7 +6085,7 @@
       <c r="G148" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="J148" s="9" t="s">
+      <c r="J148" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6045,7 +6105,7 @@
       <c r="G149" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="J149" s="9" t="s">
+      <c r="J149" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6068,7 +6128,7 @@
       <c r="G150" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J150" s="9" t="s">
+      <c r="J150" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6088,7 +6148,7 @@
       <c r="G151" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="J151" s="11" t="s">
+      <c r="J151" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6108,7 +6168,7 @@
       <c r="G152" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="J152" s="11" t="s">
+      <c r="J152" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6131,7 +6191,7 @@
       <c r="G153" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J153" s="9" t="s">
+      <c r="J153" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6151,7 +6211,7 @@
       <c r="G154" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="J154" s="11" t="s">
+      <c r="J154" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6174,7 +6234,7 @@
       <c r="G155" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J155" s="9" t="s">
+      <c r="J155" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6200,7 +6260,7 @@
       <c r="G156" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J156" s="9" t="s">
+      <c r="J156" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6223,7 +6283,7 @@
       <c r="G157" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J157" s="9" t="s">
+      <c r="J157" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6249,7 +6309,7 @@
       <c r="G158" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J158" s="9" t="s">
+      <c r="J158" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6267,9 +6327,9 @@
         <v>536</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="J159" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="J159" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6289,7 +6349,7 @@
       <c r="G160" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="J160" s="11" t="s">
+      <c r="J160" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6312,7 +6372,7 @@
       <c r="G161" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="J161" s="9" t="s">
+      <c r="J161" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6335,7 +6395,7 @@
       <c r="G162" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="J162" s="9" t="s">
+      <c r="J162" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6350,12 +6410,12 @@
         <v>490</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="J163" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="J163" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6378,7 +6438,7 @@
       <c r="G164" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="J164" s="9" t="s">
+      <c r="J164" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6387,18 +6447,18 @@
         <v>162</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>455</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="J165" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="J165" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6407,18 +6467,21 @@
         <v>163</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>440</v>
       </c>
+      <c r="E166" s="1" t="s">
+        <v>808</v>
+      </c>
       <c r="F166" s="1" t="s">
         <v>171</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="J166" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="J166" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6463,7 +6526,7 @@
         <v>442</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G169" s="6"/>
     </row>
@@ -6483,7 +6546,7 @@
       <c r="G170" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="J170" s="11" t="s">
+      <c r="J170" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6506,7 +6569,7 @@
       <c r="G171" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J171" s="9" t="s">
+      <c r="J171" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6526,7 +6589,7 @@
       <c r="G172" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="J172" s="9" t="s">
+      <c r="J172" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6546,7 +6609,7 @@
       <c r="G173" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="J173" s="9" t="s">
+      <c r="J173" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6569,7 +6632,7 @@
       <c r="G174" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J174" s="9" t="s">
+      <c r="J174" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6592,7 +6655,7 @@
       <c r="G175" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="J175" s="9" t="s">
+      <c r="J175" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6607,12 +6670,12 @@
         <v>522</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="J176" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="J176" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6632,7 +6695,7 @@
       <c r="G177" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="J177" s="9" t="s">
+      <c r="J177" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6641,18 +6704,18 @@
         <v>175</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="J178" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="J178" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6675,7 +6738,7 @@
       <c r="G179" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="J179" s="11" t="s">
+      <c r="J179" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6695,7 +6758,7 @@
       <c r="G180" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="J180" s="9" t="s">
+      <c r="J180" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6715,7 +6778,7 @@
       <c r="G181" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="J181" s="9" t="s">
+      <c r="J181" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6770,7 +6833,7 @@
       <c r="G184" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="J184" s="11" t="s">
+      <c r="J184" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6797,7 +6860,7 @@
         <v>437</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G186" s="6"/>
     </row>
@@ -6817,7 +6880,7 @@
       <c r="G187" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J187" s="9" t="s">
+      <c r="J187" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6837,7 +6900,7 @@
       <c r="G188" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J188" s="9" t="s">
+      <c r="J188" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6869,7 +6932,7 @@
       <c r="G190" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="J190" s="9" t="s">
+      <c r="J190" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6889,7 +6952,7 @@
       <c r="G191" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="J191" s="9" t="s">
+      <c r="J191" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6924,7 +6987,7 @@
       <c r="G193" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J193" s="9" t="s">
+      <c r="J193" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6947,7 +7010,7 @@
       <c r="G194" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J194" s="9" t="s">
+      <c r="J194" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6970,7 +7033,7 @@
       <c r="G195" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J195" s="9" t="s">
+      <c r="J195" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6993,7 +7056,7 @@
       <c r="G196" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J196" s="9" t="s">
+      <c r="J196" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7016,7 +7079,7 @@
       <c r="G197" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="J197" s="9" t="s">
+      <c r="J197" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7039,7 +7102,7 @@
       <c r="G198" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="J198" s="9" t="s">
+      <c r="J198" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7062,7 +7125,7 @@
       <c r="G199" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J199" s="9" t="s">
+      <c r="J199" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7085,7 +7148,7 @@
       <c r="G200" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J200" s="9" t="s">
+      <c r="J200" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7111,7 +7174,7 @@
       <c r="G201" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J201" s="9" t="s">
+      <c r="J201" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7134,7 +7197,7 @@
       <c r="G202" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="J202" s="9" t="s">
+      <c r="J202" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7151,13 +7214,16 @@
       <c r="D203" s="1" t="s">
         <v>480</v>
       </c>
+      <c r="E203" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F203" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="J203" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="J203" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7171,13 +7237,16 @@
       <c r="C204" s="1" t="s">
         <v>513</v>
       </c>
+      <c r="E204" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F204" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="J204" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="J204" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7200,7 +7269,7 @@
       <c r="G205" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J205" s="9" t="s">
+      <c r="J205" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7223,7 +7292,7 @@
       <c r="G206" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J206" s="9" t="s">
+      <c r="J206" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7243,7 +7312,7 @@
       <c r="G207" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="J207" s="9" t="s">
+      <c r="J207" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7263,7 +7332,7 @@
       <c r="G208" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="J208" s="9" t="s">
+      <c r="J208" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7283,7 +7352,7 @@
       <c r="G209" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J209" s="9" t="s">
+      <c r="J209" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7303,7 +7372,7 @@
       <c r="G210" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="J210" s="9" t="s">
+      <c r="J210" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7323,7 +7392,7 @@
       <c r="G211" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="J211" s="11" t="s">
+      <c r="J211" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7343,7 +7412,7 @@
       <c r="G212" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="J212" s="11" t="s">
+      <c r="J212" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7363,7 +7432,7 @@
       <c r="G213" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="J213" s="11" t="s">
+      <c r="J213" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7383,7 +7452,7 @@
       <c r="G214" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="J214" s="9" t="s">
+      <c r="J214" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7406,7 +7475,7 @@
       <c r="G215" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J215" s="9" t="s">
+      <c r="J215" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7429,7 +7498,7 @@
       <c r="G216" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J216" s="9" t="s">
+      <c r="J216" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7443,13 +7512,16 @@
       <c r="C217" s="1" t="s">
         <v>502</v>
       </c>
+      <c r="E217" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F217" s="1" t="s">
         <v>599</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="J217" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="J217" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7463,17 +7535,20 @@
       <c r="C218" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="E218" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F218" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="J218" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="J218" s="17" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>216</v>
       </c>
@@ -7492,11 +7567,11 @@
       <c r="G219" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J219" s="9" t="s">
+      <c r="J219" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>217</v>
       </c>
@@ -7515,11 +7590,11 @@
       <c r="G220" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J220" s="9" t="s">
+      <c r="J220" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>218</v>
       </c>
@@ -7530,11 +7605,11 @@
         <v>459</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G221" s="6"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>219</v>
       </c>
@@ -7546,7 +7621,7 @@
       </c>
       <c r="G222" s="6"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>220</v>
       </c>
@@ -7556,15 +7631,18 @@
       <c r="C223" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="E223" s="1" t="s">
+        <v>808</v>
+      </c>
       <c r="F223" s="1" t="s">
         <v>171</v>
       </c>
       <c r="G223" s="6"/>
-      <c r="J223" s="11" t="s">
+      <c r="J223" s="17" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>221</v>
       </c>
@@ -7574,17 +7652,20 @@
       <c r="C224" s="1" t="s">
         <v>492</v>
       </c>
+      <c r="E224" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F224" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="J224" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="J224" s="17" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>222</v>
       </c>
@@ -7600,43 +7681,43 @@
       <c r="G225" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="J225" s="9" t="s">
+      <c r="J225" s="16" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>223</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="G226" s="6"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>224</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="G227" s="6"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>225</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="G228" s="6"/>
     </row>
@@ -7645,13 +7726,13 @@
         <v>226</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="G229" s="6" t="s">
         <v>666</v>
-      </c>
-      <c r="G229" s="6" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -7659,13 +7740,13 @@
         <v>227</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>669</v>
-      </c>
       <c r="G230" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -7673,13 +7754,13 @@
         <v>228</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="G231" s="15" t="s">
-        <v>804</v>
+      <c r="G231" s="14" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -7687,10 +7768,10 @@
         <v>229</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="G232" s="6"/>
     </row>
@@ -7699,120 +7780,145 @@
         <v>230</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G233" s="6"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>231</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G234" s="6"/>
-      <c r="J234" s="16" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E234" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J234" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>232</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="G235" s="6"/>
-      <c r="J235" s="16" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E235" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="J235" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>233</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="J236" s="16" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J236" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>234</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>235</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="J238" s="16" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+      <c r="J238" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>236</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="J239" s="16" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+      <c r="J239" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>237</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>688</v>
-      </c>
       <c r="G240" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="J240" s="16" t="s">
-        <v>789</v>
+        <v>792</v>
+      </c>
+      <c r="J240" s="17" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -7820,99 +7926,114 @@
         <v>238</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G241" s="6"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>239</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>694</v>
+      <c r="E242" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="J242" s="16" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+      <c r="J242" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>240</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>696</v>
+      <c r="E243" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="J243" s="16" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+      <c r="J243" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>241</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C244" s="1" t="s">
-        <v>698</v>
+      <c r="E244" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="J244" s="16" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+        <v>796</v>
+      </c>
+      <c r="J244" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>242</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>700</v>
+      <c r="E245" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="J245" s="16" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+      <c r="J245" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>243</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>702</v>
+      <c r="E246" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="J246" s="16" t="s">
-        <v>789</v>
+        <v>798</v>
+      </c>
+      <c r="J246" s="17" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -7920,10 +8041,13 @@
         <v>244</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>704</v>
+      <c r="E247" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G247" s="6"/>
     </row>
@@ -7932,10 +8056,10 @@
         <v>245</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G248" s="6"/>
     </row>
@@ -7944,10 +8068,10 @@
         <v>246</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G249" s="6"/>
     </row>
@@ -7956,10 +8080,10 @@
         <v>247</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="G250" s="6"/>
     </row>
@@ -7968,10 +8092,10 @@
         <v>248</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="G251" s="6"/>
     </row>
@@ -7980,10 +8104,10 @@
         <v>249</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G252" s="6"/>
     </row>
@@ -7992,10 +8116,10 @@
         <v>250</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="G253" s="6"/>
     </row>
@@ -8004,10 +8128,10 @@
         <v>251</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="G254" s="6"/>
     </row>
@@ -8016,28 +8140,28 @@
         <v>252</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>719</v>
-      </c>
       <c r="G255" s="6"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>253</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>721</v>
-      </c>
       <c r="G256" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="J256" s="16" t="s">
-        <v>789</v>
+        <v>800</v>
+      </c>
+      <c r="J256" s="17" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -8045,10 +8169,10 @@
         <v>254</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -8056,10 +8180,10 @@
         <v>255</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="G258" s="6"/>
     </row>
@@ -8068,10 +8192,10 @@
         <v>256</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>727</v>
       </c>
       <c r="G259" s="6"/>
     </row>
@@ -8080,10 +8204,10 @@
         <v>257</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="G260" s="6"/>
     </row>
@@ -8092,10 +8216,10 @@
         <v>258</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="G261" s="6"/>
     </row>
@@ -8104,62 +8228,62 @@
         <v>259</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C262" s="1" t="s">
-        <v>733</v>
-      </c>
       <c r="G262" s="6"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>260</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="J263" s="16" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="J263" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>261</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="J264" s="16" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="J264" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>262</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="J265" s="16" t="s">
-        <v>789</v>
+        <v>799</v>
+      </c>
+      <c r="J265" s="17" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -8167,10 +8291,10 @@
         <v>263</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G266" s="6"/>
     </row>
@@ -8179,10 +8303,10 @@
         <v>264</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>742</v>
       </c>
       <c r="G267" s="6"/>
     </row>
@@ -8191,10 +8315,10 @@
         <v>265</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>744</v>
       </c>
       <c r="G268" s="6"/>
     </row>
@@ -8203,13 +8327,13 @@
         <v>266</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>746</v>
-      </c>
       <c r="D269" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G269" s="6"/>
     </row>
@@ -8218,28 +8342,28 @@
         <v>267</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C270" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="G270" s="6"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>268</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G271" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="J271" s="16" t="s">
-        <v>789</v>
+      <c r="J271" s="17" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -8247,10 +8371,10 @@
         <v>269</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>751</v>
       </c>
       <c r="G272" s="6"/>
     </row>
@@ -8259,13 +8383,13 @@
         <v>270</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="G273" s="6"/>
     </row>
@@ -8274,13 +8398,13 @@
         <v>271</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C274" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="G274" s="6"/>
     </row>
@@ -8289,10 +8413,10 @@
         <v>272</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G275" s="6"/>
     </row>
@@ -8301,13 +8425,13 @@
         <v>273</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C276" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>763</v>
       </c>
       <c r="G276" s="6"/>
     </row>
@@ -8316,10 +8440,10 @@
         <v>274</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G277" s="6"/>
     </row>
@@ -8328,10 +8452,10 @@
         <v>275</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G278" s="6"/>
     </row>
@@ -8340,13 +8464,13 @@
         <v>276</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C279" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D279" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="G279" s="6"/>
     </row>
@@ -8355,10 +8479,10 @@
         <v>277</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="G280" s="6"/>
     </row>
@@ -8367,10 +8491,10 @@
         <v>278</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="G281" s="6"/>
     </row>
@@ -8379,10 +8503,10 @@
         <v>279</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G282" s="6"/>
     </row>
@@ -8391,10 +8515,10 @@
         <v>280</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>777</v>
       </c>
       <c r="G283" s="6"/>
     </row>
@@ -8403,10 +8527,10 @@
         <v>281</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="G284" s="6"/>
     </row>
@@ -8415,10 +8539,10 @@
         <v>282</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>781</v>
       </c>
       <c r="G285" s="6"/>
     </row>
@@ -8427,10 +8551,10 @@
         <v>283</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>783</v>
       </c>
       <c r="G286" s="6"/>
     </row>
@@ -8439,10 +8563,10 @@
         <v>284</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>785</v>
       </c>
       <c r="G287" s="6"/>
     </row>
@@ -8451,10 +8575,10 @@
         <v>285</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>787</v>
       </c>
       <c r="G288" s="6"/>
     </row>
@@ -11249,7 +11373,7 @@
       <c r="G1218" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:K226"/>
+  <autoFilter ref="B3:K288" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="B4:J226">
     <sortCondition ref="B4:B226"/>
   </sortState>
@@ -11258,186 +11382,184 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J98" r:id="rId1"/>
-    <hyperlink ref="J95" r:id="rId2"/>
-    <hyperlink ref="J150" r:id="rId3"/>
-    <hyperlink ref="J155" r:id="rId4"/>
-    <hyperlink ref="J56" r:id="rId5"/>
-    <hyperlink ref="J171" r:id="rId6"/>
-    <hyperlink ref="J196" r:id="rId7"/>
-    <hyperlink ref="J64" r:id="rId8"/>
-    <hyperlink ref="J153" r:id="rId9"/>
-    <hyperlink ref="J174" r:id="rId10"/>
-    <hyperlink ref="J215" r:id="rId11"/>
-    <hyperlink ref="J216" r:id="rId12"/>
-    <hyperlink ref="J94" r:id="rId13"/>
-    <hyperlink ref="J96" r:id="rId14"/>
-    <hyperlink ref="J97" r:id="rId15"/>
-    <hyperlink ref="J220" r:id="rId16"/>
-    <hyperlink ref="J219" r:id="rId17"/>
-    <hyperlink ref="J206" r:id="rId18"/>
-    <hyperlink ref="J63" r:id="rId19"/>
-    <hyperlink ref="J194" r:id="rId20"/>
-    <hyperlink ref="J193" r:id="rId21"/>
-    <hyperlink ref="J58" r:id="rId22"/>
-    <hyperlink ref="J195" r:id="rId23"/>
-    <hyperlink ref="J129" r:id="rId24"/>
-    <hyperlink ref="J205" r:id="rId25"/>
-    <hyperlink ref="J131" r:id="rId26"/>
-    <hyperlink ref="J134" r:id="rId27"/>
-    <hyperlink ref="J138" r:id="rId28"/>
-    <hyperlink ref="J130" r:id="rId29"/>
-    <hyperlink ref="J139" r:id="rId30"/>
-    <hyperlink ref="J137" r:id="rId31"/>
-    <hyperlink ref="J197" r:id="rId32"/>
-    <hyperlink ref="J200" r:id="rId33"/>
-    <hyperlink ref="J60" r:id="rId34"/>
-    <hyperlink ref="J201" r:id="rId35"/>
-    <hyperlink ref="J126" r:id="rId36"/>
-    <hyperlink ref="J132" r:id="rId37"/>
-    <hyperlink ref="J117" r:id="rId38"/>
-    <hyperlink ref="J136" r:id="rId39"/>
-    <hyperlink ref="J125" r:id="rId40"/>
-    <hyperlink ref="J54" r:id="rId41"/>
-    <hyperlink ref="J199" r:id="rId42"/>
-    <hyperlink ref="J116" r:id="rId43"/>
-    <hyperlink ref="J202" r:id="rId44"/>
-    <hyperlink ref="J161" r:id="rId45"/>
-    <hyperlink ref="J164" r:id="rId46"/>
-    <hyperlink ref="J109" r:id="rId47"/>
-    <hyperlink ref="J162" r:id="rId48"/>
-    <hyperlink ref="J83" r:id="rId49"/>
-    <hyperlink ref="J198" r:id="rId50"/>
-    <hyperlink ref="J128" r:id="rId51"/>
-    <hyperlink ref="J82" r:id="rId52"/>
-    <hyperlink ref="J157" r:id="rId53"/>
-    <hyperlink ref="J175" r:id="rId54"/>
-    <hyperlink ref="J110" r:id="rId55"/>
-    <hyperlink ref="J111" r:id="rId56"/>
-    <hyperlink ref="J156" r:id="rId57"/>
-    <hyperlink ref="J158" r:id="rId58"/>
-    <hyperlink ref="J78" r:id="rId59"/>
-    <hyperlink ref="J79" r:id="rId60"/>
-    <hyperlink ref="J77" r:id="rId61"/>
-    <hyperlink ref="J17" r:id="rId62"/>
-    <hyperlink ref="J18" r:id="rId63"/>
-    <hyperlink ref="J19" r:id="rId64"/>
-    <hyperlink ref="J20" r:id="rId65"/>
-    <hyperlink ref="J21" r:id="rId66"/>
-    <hyperlink ref="J22" r:id="rId67"/>
-    <hyperlink ref="J23" r:id="rId68"/>
-    <hyperlink ref="J24" r:id="rId69"/>
-    <hyperlink ref="J25" r:id="rId70"/>
-    <hyperlink ref="J26" r:id="rId71"/>
-    <hyperlink ref="J35" r:id="rId72"/>
-    <hyperlink ref="J36" r:id="rId73"/>
-    <hyperlink ref="J37" r:id="rId74"/>
-    <hyperlink ref="J84" r:id="rId75"/>
-    <hyperlink ref="J85" r:id="rId76"/>
-    <hyperlink ref="J190" r:id="rId77"/>
-    <hyperlink ref="J191" r:id="rId78"/>
-    <hyperlink ref="J172" r:id="rId79"/>
-    <hyperlink ref="J88" r:id="rId80"/>
-    <hyperlink ref="J80" r:id="rId81"/>
-    <hyperlink ref="J68" r:id="rId82"/>
-    <hyperlink ref="J92" r:id="rId83"/>
-    <hyperlink ref="J173" r:id="rId84"/>
-    <hyperlink ref="J74" r:id="rId85"/>
-    <hyperlink ref="J75" r:id="rId86"/>
-    <hyperlink ref="J69" r:id="rId87"/>
-    <hyperlink ref="J133" r:id="rId88"/>
-    <hyperlink ref="J142" r:id="rId89"/>
-    <hyperlink ref="J181" r:id="rId90"/>
-    <hyperlink ref="J148" r:id="rId91"/>
-    <hyperlink ref="J210" r:id="rId92"/>
-    <hyperlink ref="J151" r:id="rId93"/>
-    <hyperlink ref="J93" r:id="rId94"/>
-    <hyperlink ref="J120" r:id="rId95"/>
-    <hyperlink ref="J208" r:id="rId96"/>
-    <hyperlink ref="J214" r:id="rId97"/>
-    <hyperlink ref="J119" r:id="rId98"/>
-    <hyperlink ref="J149" r:id="rId99"/>
-    <hyperlink ref="J207" r:id="rId100"/>
-    <hyperlink ref="J187" r:id="rId101"/>
-    <hyperlink ref="J209" r:id="rId102"/>
-    <hyperlink ref="J188" r:id="rId103"/>
-    <hyperlink ref="J180" r:id="rId104"/>
-    <hyperlink ref="J177" r:id="rId105"/>
-    <hyperlink ref="J225" r:id="rId106"/>
-    <hyperlink ref="J118" r:id="rId107"/>
-    <hyperlink ref="J147" r:id="rId108"/>
-    <hyperlink ref="J101" r:id="rId109"/>
-    <hyperlink ref="J135" r:id="rId110"/>
-    <hyperlink ref="J212" r:id="rId111"/>
-    <hyperlink ref="J39" r:id="rId112"/>
-    <hyperlink ref="J87" r:id="rId113"/>
-    <hyperlink ref="J184" r:id="rId114"/>
-    <hyperlink ref="J86" r:id="rId115"/>
-    <hyperlink ref="J33" r:id="rId116"/>
-    <hyperlink ref="J34" r:id="rId117"/>
-    <hyperlink ref="J152" r:id="rId118"/>
-    <hyperlink ref="J179" r:id="rId119"/>
-    <hyperlink ref="J160" r:id="rId120"/>
-    <hyperlink ref="J144" r:id="rId121"/>
-    <hyperlink ref="J91" r:id="rId122"/>
-    <hyperlink ref="J90" r:id="rId123"/>
-    <hyperlink ref="J102" r:id="rId124"/>
-    <hyperlink ref="J211" r:id="rId125"/>
-    <hyperlink ref="J154" r:id="rId126"/>
-    <hyperlink ref="J213" r:id="rId127"/>
-    <hyperlink ref="J170" r:id="rId128"/>
-    <hyperlink ref="J113" r:id="rId129"/>
-    <hyperlink ref="J223" r:id="rId130"/>
-    <hyperlink ref="J112" r:id="rId131"/>
-    <hyperlink ref="J89" r:id="rId132"/>
-    <hyperlink ref="J166" r:id="rId133"/>
-    <hyperlink ref="J122" r:id="rId134"/>
-    <hyperlink ref="J218" r:id="rId135"/>
-    <hyperlink ref="J165" r:id="rId136"/>
-    <hyperlink ref="J178" r:id="rId137"/>
-    <hyperlink ref="J103" r:id="rId138"/>
-    <hyperlink ref="J141" r:id="rId139"/>
-    <hyperlink ref="J114" r:id="rId140"/>
-    <hyperlink ref="J121" r:id="rId141"/>
-    <hyperlink ref="J123" r:id="rId142"/>
-    <hyperlink ref="J127" r:id="rId143"/>
-    <hyperlink ref="J203" r:id="rId144"/>
-    <hyperlink ref="J61" r:id="rId145"/>
-    <hyperlink ref="J76" r:id="rId146"/>
-    <hyperlink ref="J62" r:id="rId147"/>
-    <hyperlink ref="J163" r:id="rId148"/>
-    <hyperlink ref="J224" r:id="rId149"/>
-    <hyperlink ref="J100" r:id="rId150"/>
-    <hyperlink ref="J57" r:id="rId151" display="File"/>
-    <hyperlink ref="J59" r:id="rId152"/>
-    <hyperlink ref="J217" r:id="rId153"/>
-    <hyperlink ref="J159" r:id="rId154"/>
-    <hyperlink ref="J124" r:id="rId155"/>
-    <hyperlink ref="J140" r:id="rId156"/>
-    <hyperlink ref="J55" r:id="rId157"/>
-    <hyperlink ref="J115" r:id="rId158"/>
-    <hyperlink ref="J204" r:id="rId159"/>
-    <hyperlink ref="J99" r:id="rId160"/>
-    <hyperlink ref="J176" r:id="rId161"/>
-    <hyperlink ref="J146" r:id="rId162"/>
-    <hyperlink ref="J235" r:id="rId163"/>
-    <hyperlink ref="J234" r:id="rId164"/>
-    <hyperlink ref="J236" r:id="rId165"/>
-    <hyperlink ref="J238" r:id="rId166"/>
-    <hyperlink ref="J239" r:id="rId167"/>
-    <hyperlink ref="J240" r:id="rId168"/>
-    <hyperlink ref="J242" r:id="rId169"/>
-    <hyperlink ref="J243" r:id="rId170"/>
-    <hyperlink ref="J244" r:id="rId171"/>
-    <hyperlink ref="J245" r:id="rId172"/>
-    <hyperlink ref="J246" r:id="rId173"/>
-    <hyperlink ref="J256" r:id="rId174"/>
-    <hyperlink ref="J263" r:id="rId175"/>
-    <hyperlink ref="J264" r:id="rId176"/>
-    <hyperlink ref="J265" r:id="rId177"/>
-    <hyperlink ref="J271" r:id="rId178"/>
+    <hyperlink ref="J98" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J95" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J150" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J155" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J56" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J171" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J196" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J64" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J153" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J174" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J215" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J216" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J94" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J96" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J97" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J220" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J219" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J206" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J63" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J194" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J193" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J58" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J195" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J129" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J205" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J131" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J134" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J138" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J130" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J139" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J137" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J197" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J200" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J201" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J126" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J132" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J117" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J136" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J125" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J54" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J199" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J116" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J202" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J161" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J164" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J109" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J162" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J83" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J198" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J128" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J157" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J175" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J110" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J111" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J156" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J158" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J17" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J24" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J25" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J26" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J35" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J37" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J84" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J85" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J190" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J191" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J172" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J88" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J80" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J68" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J92" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J173" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J74" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J75" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J69" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J133" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J142" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J181" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J148" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J210" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J151" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J93" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J120" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J208" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J214" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J119" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J149" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J207" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J187" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J209" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J188" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J180" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J177" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J225" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J118" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J147" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J101" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="J135" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J212" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J39" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="J87" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="J184" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="J86" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="J33" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="J34" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="J152" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J179" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="J160" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="J144" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="J91" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="J90" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="J102" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J211" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="J154" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J213" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="J170" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="J113" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="J223" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J112" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="J89" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J166" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="J122" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="J218" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="J165" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="J178" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="J103" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="J141" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="J114" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="J121" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="J123" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="J127" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="J203" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="J61" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J76" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="J62" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="J163" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="J224" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="J100" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="J57" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="J59" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="J217" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="J159" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="J124" r:id="rId148" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="J140" r:id="rId149" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="J55" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="J115" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="J204" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="J99" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="J176" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="J146" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="J235" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="J234" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="J236" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="J238" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="J239" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="J240" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="J242" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="J243" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="J244" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="J245" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="J246" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="J256" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="J263" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="J264" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="J265" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="J271" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="J18:J23" r:id="rId172" display="FILE" xr:uid="{261737D8-268D-4463-BCD1-243642970C6A}"/>
+    <hyperlink ref="J77" r:id="rId173" xr:uid="{5172EBED-C93C-455F-BB2D-6B2A1E8773FA}"/>
+    <hyperlink ref="J70" r:id="rId174" xr:uid="{1B7443F2-E580-486C-97D6-FCAB7323D778}"/>
+    <hyperlink ref="J72" r:id="rId175" xr:uid="{8658C7D8-68B9-4BC8-A0C7-329D539DCB38}"/>
+    <hyperlink ref="J73" r:id="rId176" xr:uid="{57EECCE0-4E20-43E4-9470-F1656992D66F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId179"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId177"/>
 </worksheet>
 </file>
--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Documents\datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA4F6E0-6843-41E5-B962-D45F06B88EC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B487A412-2405-464D-8171-824354F745A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="837">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -75,9 +75,6 @@
     <t>DIP</t>
   </si>
   <si>
-    <t>Gate</t>
-  </si>
-  <si>
     <t>CMOS 8-Input NOR/OR Gate</t>
   </si>
   <si>
@@ -747,9 +744,6 @@
     <t>A06-12</t>
   </si>
   <si>
-    <t>TO92</t>
-  </si>
-  <si>
     <t>SILICON PNP TRANSISTOR</t>
   </si>
   <si>
@@ -1886,10 +1880,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>D882</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>NPN SILICON POWER TRANSISTOR</t>
   </si>
   <si>
@@ -1911,10 +1901,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TRANSISTOR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MJE13005</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2088,10 +2074,6 @@
     <t>Operational Amplifier</t>
   </si>
   <si>
-    <t>GATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BCD to decimal decoder</t>
   </si>
   <si>
@@ -2144,10 +2126,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AT89C51-24PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B04-07</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2642,10 +2620,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FILE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2663,10 +2637,6 @@
     <t>Monolithic Function Generator</t>
   </si>
   <si>
-    <t>TRANSISTER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>8-Bit Digital-to-Analog Converters</t>
   </si>
   <si>
@@ -2680,58 +2650,186 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Hall Effect Base Linear Current Sensor</t>
+  </si>
+  <si>
+    <t>SIMPLE SWITCHER® Power Converter 150-kHz 3-A Step-Down Voltage Regulator</t>
+  </si>
+  <si>
+    <t>GP2Y1001AU</t>
+  </si>
+  <si>
+    <t>Compact Dust Sensor for Air Conditioners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB-C PD2.0/3.0 to DC Converter Power Supply Module </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-12v 10W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TQFP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTINY13A/85 PROGRAMMING BOARD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODULE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-bit AVR Microcontroller with 8K Byte In-System Programmable Flash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">low power CMOS 8-bit Microcontroller </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODULE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSCILLATOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROTARY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logic Gate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miniature power relay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SENSOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONNECTOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT89C51</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhanced 8-bit Microcontroller with 64KB Flash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift Register</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparators</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-Generator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP AMP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-F Converter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Low-Power JFET-Input Operational Amplifiers</t>
-  </si>
-  <si>
-    <t>Hall Effect Base Linear Current Sensor</t>
-  </si>
-  <si>
-    <t>SIMPLE SWITCHER® Power Converter 150-kHz 3-A Step-Down Voltage Regulator</t>
-  </si>
-  <si>
-    <t>GP2Y1001AU</t>
-  </si>
-  <si>
-    <t>Compact Dust Sensor for Air Conditioners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB-C PD2.0/3.0 to DC Converter Power Supply Module </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-12v 10W</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TQFP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTINY13A/85 PROGRAMMING BOARD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODULE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Microcontroller</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-bit AVR Microcontroller with 8K Byte In-System Programmable Flash</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">low power CMOS 8-bit Microcontroller </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step-down</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step-up</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inductor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resistor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOCKET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUSE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-39</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silicon NPN Transistor General Purpose Amplifier and Switch</t>
+  </si>
+  <si>
+    <t>TO-92</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2SD882</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2742,7 +2840,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월 &quot;dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2794,6 +2892,14 @@
     <font>
       <u/>
       <sz val="12"/>
+      <name val="Bitstream Vera Sans Mono"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
       <name val="Bitstream Vera Sans Mono"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2876,10 +2982,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3235,8 +3341,8 @@
   <dimension ref="A1:AMJ1218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F243" sqref="F243"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3310,13 +3416,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -3325,13 +3431,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -3340,13 +3446,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -3355,13 +3461,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -3370,13 +3476,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -3385,13 +3491,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -3400,13 +3506,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -3415,13 +3521,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G11" s="6">
         <v>101</v>
@@ -3432,13 +3538,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -3447,13 +3553,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -3462,13 +3568,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -3477,13 +3583,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -3492,13 +3598,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -3507,19 +3613,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="J17" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3527,19 +3633,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="J18" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3547,19 +3653,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="F19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="J19" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3567,19 +3673,19 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="J20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3587,19 +3693,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="F21" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="J21" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3607,19 +3713,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="F22" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="J22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3627,22 +3733,22 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="J23" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3650,19 +3756,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="J24" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3670,19 +3776,19 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3690,19 +3796,19 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3710,13 +3816,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -3725,13 +3831,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -3740,13 +3846,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G29" s="6"/>
     </row>
@@ -3755,28 +3861,33 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>375</v>
+        <v>680</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>376</v>
+        <v>681</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G30" s="6"/>
+        <v>820</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -3785,13 +3896,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -3800,39 +3911,34 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>575</v>
+        <v>355</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>534</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>578</v>
+        <v>343</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>574</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3840,22 +3946,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>234</v>
+        <v>575</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>504</v>
+        <v>344</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>17</v>
+        <v>576</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3863,22 +3966,22 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>237</v>
+        <v>685</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>238</v>
+        <v>684</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>239</v>
+        <v>833</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3886,22 +3989,22 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3909,34 +4012,45 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>348</v>
+        <v>237</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>835</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>566</v>
+        <v>239</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>340</v>
+        <v>240</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>835</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>534</v>
+        <v>70</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3944,13 +4058,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G40" s="6"/>
     </row>
@@ -3959,43 +4073,53 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>359</v>
+        <v>564</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G41" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>377</v>
+        <v>836</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G42" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G43" s="6"/>
     </row>
@@ -4004,13 +4128,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G44" s="6"/>
     </row>
@@ -4019,13 +4143,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G45" s="6"/>
     </row>
@@ -4034,13 +4158,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G46" s="6"/>
     </row>
@@ -4049,13 +4173,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>402</v>
+        <v>348</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G47" s="6"/>
     </row>
@@ -4064,13 +4188,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G48" s="6"/>
     </row>
@@ -4079,13 +4203,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G49" s="6"/>
     </row>
@@ -4094,13 +4218,13 @@
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G50" s="6"/>
     </row>
@@ -4109,13 +4233,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G51" s="6"/>
     </row>
@@ -4124,13 +4248,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G52" s="6"/>
     </row>
@@ -4139,146 +4263,111 @@
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>365</v>
+        <v>715</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>366</v>
+        <v>716</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G53" s="6"/>
+        <v>825</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>146</v>
+        <v>391</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>14</v>
+        <v>392</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J54" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>511</v>
+        <v>379</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>517</v>
+        <v>380</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="J55" s="17" t="s">
-        <v>534</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>30</v>
+        <v>401</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>14</v>
+        <v>402</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J56" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>497</v>
+        <v>363</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>498</v>
+        <v>364</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="J57" s="17" t="s">
-        <v>534</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>736</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>14</v>
+        <v>737</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>499</v>
+        <v>145</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>500</v>
+        <v>146</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="J59" s="17" t="s">
-        <v>534</v>
+        <v>66</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4286,22 +4375,25 @@
         <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>126</v>
+        <v>509</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>510</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>17</v>
+        <v>809</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4309,19 +4401,22 @@
         <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>481</v>
+        <v>29</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>482</v>
+        <v>30</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J61" s="17" t="s">
-        <v>534</v>
+      <c r="J61" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4329,19 +4424,22 @@
         <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>488</v>
+        <v>496</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4349,22 +4447,22 @@
         <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4372,22 +4470,22 @@
         <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>41</v>
+        <v>497</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>42</v>
+        <v>498</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J64" s="16" t="s">
-        <v>17</v>
+        <v>637</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4395,64 +4493,91 @@
         <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>367</v>
+        <v>125</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>368</v>
+        <v>126</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G65" s="6"/>
+        <v>809</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>369</v>
+        <v>479</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>370</v>
+        <v>480</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G66" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>457</v>
+        <v>486</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="G67" s="6"/>
+        <v>631</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>266</v>
+        <v>79</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4460,19 +4585,22 @@
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>309</v>
+        <v>41</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>310</v>
+        <v>43</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4480,39 +4608,28 @@
         <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>445</v>
+        <v>365</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>808</v>
+        <v>366</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J70" s="17" t="s">
-        <v>534</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="G70" s="6"/>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>443</v>
+        <v>743</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>808</v>
+        <v>744</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>171</v>
+        <v>830</v>
       </c>
       <c r="G71" s="6"/>
     </row>
@@ -4521,68 +4638,49 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>449</v>
+        <v>367</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>808</v>
+        <v>368</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J72" s="17" t="s">
-        <v>534</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>808</v>
+        <v>455</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J73" s="17" t="s">
-        <v>534</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>805</v>
+        <v>264</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4590,45 +4688,34 @@
         <v>72</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>277</v>
+        <v>725</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>805</v>
+        <v>726</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="J75" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>483</v>
+        <v>306</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>634</v>
+        <v>286</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J76" s="17" t="s">
-        <v>534</v>
+        <v>308</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4636,22 +4723,22 @@
         <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>208</v>
+        <v>673</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>209</v>
+        <v>675</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>14</v>
+        <v>817</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>210</v>
+        <v>803</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>782</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>534</v>
+        <v>781</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4659,22 +4746,22 @@
         <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>203</v>
+        <v>670</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>14</v>
+        <v>799</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>171</v>
+        <v>800</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>17</v>
+        <v>802</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4682,22 +4769,22 @@
         <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>205</v>
+        <v>443</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>206</v>
+        <v>444</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>14</v>
+        <v>799</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="J79" s="16" t="s">
-        <v>17</v>
+        <v>209</v>
+      </c>
+      <c r="J79" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4705,57 +4792,63 @@
         <v>77</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>261</v>
+        <v>441</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>262</v>
+        <v>442</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>799</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="J80" s="16" t="s">
-        <v>807</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>78</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>799</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="G81" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>179</v>
+        <v>445</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>180</v>
+        <v>446</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>14</v>
+        <v>799</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="J82" s="16" t="s">
-        <v>17</v>
+        <v>209</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4763,22 +4856,22 @@
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>169</v>
+        <v>813</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>170</v>
+        <v>657</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>14</v>
+        <v>817</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>171</v>
+        <v>814</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J83" s="16" t="s">
-        <v>17</v>
+        <v>816</v>
+      </c>
+      <c r="J83" s="17" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4786,19 +4879,22 @@
         <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>244</v>
+        <v>273</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>796</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4806,19 +4902,22 @@
         <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>247</v>
+        <v>276</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>796</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4826,19 +4925,22 @@
         <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>573</v>
+        <v>677</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>337</v>
+        <v>202</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="J86" s="17" t="s">
-        <v>534</v>
+        <v>170</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J86" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4846,19 +4948,22 @@
         <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>568</v>
+        <v>481</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>339</v>
+        <v>482</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>569</v>
+        <v>630</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4866,19 +4971,22 @@
         <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>259</v>
+        <v>208</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J88" s="16" t="s">
-        <v>17</v>
+        <v>209</v>
+      </c>
+      <c r="J88" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4886,19 +4994,22 @@
         <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>607</v>
+        <v>204</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>441</v>
+        <v>205</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="J89" s="17" t="s">
-        <v>534</v>
+        <v>170</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4906,19 +5017,22 @@
         <v>87</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>427</v>
+        <v>671</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>428</v>
+        <v>672</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>799</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>591</v>
+        <v>800</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>801</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>534</v>
+        <v>781</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4926,19 +5040,19 @@
         <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>425</v>
+        <v>259</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>426</v>
+        <v>260</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="J91" s="17" t="s">
-        <v>534</v>
+        <v>261</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J91" s="16" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4946,39 +5060,37 @@
         <v>89</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>269</v>
+        <v>797</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>437</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="J92" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>90</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>556</v>
+        <v>178</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>316</v>
+        <v>179</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="J93" s="17" t="s">
-        <v>534</v>
+        <v>170</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J93" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4986,22 +5098,22 @@
         <v>91</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>60</v>
+        <v>170</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="J94" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5009,45 +5121,34 @@
         <v>92</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>18</v>
+        <v>719</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>14</v>
+        <v>720</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J95" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>93</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5055,22 +5156,19 @@
         <v>94</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>65</v>
+        <v>244</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="J97" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5078,22 +5176,19 @@
         <v>95</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>12</v>
+        <v>571</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J98" s="16" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5101,19 +5196,19 @@
         <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>519</v>
+        <v>337</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>640</v>
+        <v>70</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>567</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5121,19 +5216,19 @@
         <v>97</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>493</v>
+        <v>256</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>494</v>
+        <v>257</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>641</v>
+        <v>70</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="J100" s="17" t="s">
-        <v>534</v>
+        <v>258</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5141,19 +5236,19 @@
         <v>98</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>558</v>
+        <v>603</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>321</v>
+        <v>439</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>559</v>
+        <v>605</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5161,19 +5256,19 @@
         <v>99</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>592</v>
+        <v>425</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>71</v>
+        <v>588</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5181,19 +5276,19 @@
         <v>100</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5201,82 +5296,131 @@
         <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>531</v>
+        <v>266</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="G104" s="6"/>
+        <v>267</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J104" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="105" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>102</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G105" s="6"/>
+        <v>314</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="106" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>103</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>525</v>
+        <v>56</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G106" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J106" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="107" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>104</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>526</v>
+        <v>17</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="G107" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="108" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>105</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>527</v>
+        <v>60</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G108" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J108" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="109" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>106</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>164</v>
+        <v>678</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>165</v>
+        <v>683</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>59</v>
+        <v>818</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J109" s="16" t="s">
-        <v>17</v>
+        <v>783</v>
+      </c>
+      <c r="J109" s="17" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5284,22 +5428,22 @@
         <v>107</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5307,22 +5451,22 @@
         <v>108</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>192</v>
+        <v>809</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5330,19 +5474,22 @@
         <v>109</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>606</v>
+        <v>516</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>438</v>
+        <v>517</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>196</v>
+        <v>637</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>636</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5350,19 +5497,22 @@
         <v>110</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>602</v>
+        <v>491</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>434</v>
+        <v>492</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>603</v>
+        <v>637</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>636</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5370,19 +5520,22 @@
         <v>111</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>627</v>
+        <v>556</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>470</v>
+        <v>319</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>629</v>
+        <v>558</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>557</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5390,19 +5543,22 @@
         <v>112</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>515</v>
+        <v>686</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>516</v>
+        <v>687</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>649</v>
+        <v>832</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>786</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>534</v>
+        <v>781</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5410,65 +5566,49 @@
         <v>113</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>151</v>
+        <v>703</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>14</v>
+        <v>704</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J116" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>114</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>138</v>
+        <v>709</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>14</v>
+        <v>710</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J117" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>826</v>
+      </c>
+      <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>115</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>550</v>
+        <v>459</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>306</v>
+        <v>460</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="J118" s="16" t="s">
-        <v>534</v>
+        <v>609</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J118" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5476,137 +5616,130 @@
         <v>116</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>286</v>
+        <v>530</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="J119" s="16" t="s">
-        <v>534</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="G119" s="6"/>
     </row>
     <row r="120" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>117</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>283</v>
+        <v>521</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="J120" s="16" t="s">
-        <v>534</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="G120" s="6"/>
     </row>
     <row r="121" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>630</v>
+        <v>696</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>471</v>
+        <v>697</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="G121" s="6"/>
-      <c r="J121" s="17" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="122" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>119</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>451</v>
+        <v>523</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>452</v>
+        <v>526</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="J122" s="17" t="s">
-        <v>534</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>120</v>
       </c>
-      <c r="B123" s="13" t="s">
-        <v>474</v>
+      <c r="B123" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>475</v>
+        <v>527</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="J123" s="17" t="s">
-        <v>534</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>121</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>508</v>
+        <v>528</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="J124" s="17" t="s">
-        <v>534</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>122</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="J125" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5614,42 +5747,37 @@
         <v>123</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>520</v>
+        <v>665</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>14</v>
+        <v>666</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J126" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>124</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>476</v>
+        <v>189</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>477</v>
+        <v>190</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="J127" s="17" t="s">
-        <v>534</v>
+        <v>191</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J127" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5657,22 +5785,22 @@
         <v>125</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="J128" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5680,22 +5808,19 @@
         <v>126</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>94</v>
+        <v>602</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>14</v>
+        <v>436</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J129" s="16" t="s">
-        <v>17</v>
+        <v>600</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J129" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5703,22 +5828,19 @@
         <v>127</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>110</v>
+        <v>598</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>14</v>
+        <v>432</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J130" s="16" t="s">
-        <v>17</v>
+        <v>600</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J130" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5726,22 +5848,19 @@
         <v>128</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>101</v>
+        <v>623</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>14</v>
+        <v>468</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>67</v>
+        <v>624</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J131" s="16" t="s">
-        <v>17</v>
+        <v>625</v>
+      </c>
+      <c r="J131" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5749,42 +5868,37 @@
         <v>129</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>135</v>
+        <v>773</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>14</v>
+        <v>774</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J132" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>130</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>311</v>
+        <v>513</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>312</v>
+        <v>514</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="J133" s="16" t="s">
-        <v>17</v>
+        <v>809</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="J133" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5792,22 +5906,22 @@
         <v>131</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="J134" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5815,19 +5929,22 @@
         <v>132</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>561</v>
+        <v>137</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>323</v>
+        <v>138</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="J135" s="17" t="s">
-        <v>534</v>
+        <v>58</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J135" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5835,45 +5952,39 @@
         <v>133</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>140</v>
+        <v>548</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>142</v>
+        <v>305</v>
       </c>
       <c r="J136" s="16" t="s">
-        <v>17</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>134</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>115</v>
+      <c r="B137" s="2" t="s">
+        <v>792</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>14</v>
+        <v>742</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J137" s="16" t="s">
-        <v>17</v>
+        <v>811</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="J137" s="17" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5881,22 +5992,19 @@
         <v>135</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>107</v>
+        <v>538</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>109</v>
+        <v>551</v>
       </c>
       <c r="J138" s="16" t="s">
-        <v>17</v>
+        <v>532</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5904,22 +6012,19 @@
         <v>136</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>112</v>
+        <v>535</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>14</v>
+        <v>281</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>114</v>
+        <v>550</v>
       </c>
       <c r="J139" s="16" t="s">
-        <v>17</v>
+        <v>532</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5927,19 +6032,17 @@
         <v>137</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>509</v>
+        <v>626</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>648</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="G140" s="6"/>
       <c r="J140" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5947,37 +6050,39 @@
         <v>138</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>625</v>
+        <v>449</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G141" s="6"/>
+        <v>609</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>610</v>
+      </c>
       <c r="J141" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>139</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>325</v>
+      <c r="B142" s="13" t="s">
+        <v>472</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>326</v>
+        <v>473</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="J142" s="16" t="s">
-        <v>17</v>
+        <v>624</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J142" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5985,16 +6090,22 @@
         <v>140</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>341</v>
+        <v>505</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>342</v>
+        <v>506</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>343</v>
+        <v>809</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J143" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6002,19 +6113,22 @@
         <v>141</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>586</v>
+        <v>142</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>424</v>
+        <v>143</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="J144" s="17" t="s">
-        <v>534</v>
+        <v>58</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J144" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6022,31 +6136,42 @@
         <v>142</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G145" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J145" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="146" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>143</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>654</v>
+        <v>474</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>322</v>
+        <v>475</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>655</v>
+        <v>532</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6054,19 +6179,22 @@
         <v>144</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>318</v>
+        <v>176</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>319</v>
+        <v>58</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>320</v>
+        <v>177</v>
       </c>
       <c r="J147" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6074,19 +6202,22 @@
         <v>145</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>332</v>
+        <v>93</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>673</v>
+        <v>94</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>333</v>
+        <v>95</v>
       </c>
       <c r="J148" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6094,19 +6225,22 @@
         <v>146</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>541</v>
+        <v>109</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>287</v>
+        <v>110</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>288</v>
+        <v>66</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>289</v>
+        <v>102</v>
       </c>
       <c r="J149" s="16" t="s">
-        <v>534</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6114,22 +6248,22 @@
         <v>147</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="J150" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6137,19 +6271,22 @@
         <v>148</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>533</v>
+        <v>134</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>315</v>
+        <v>135</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="J151" s="17" t="s">
-        <v>534</v>
+        <v>58</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J151" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6157,19 +6294,19 @@
         <v>149</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>579</v>
+        <v>309</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>419</v>
+        <v>310</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="J152" s="17" t="s">
-        <v>534</v>
+        <v>311</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="J152" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6177,22 +6314,22 @@
         <v>150</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="J153" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6200,19 +6337,19 @@
         <v>151</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>596</v>
+        <v>559</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>431</v>
+        <v>321</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>597</v>
+        <v>561</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>560</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6220,22 +6357,22 @@
         <v>152</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="J155" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6243,25 +6380,22 @@
         <v>153</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="J156" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6269,22 +6403,22 @@
         <v>154</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="J157" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6292,25 +6426,22 @@
         <v>155</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="J158" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6318,19 +6449,19 @@
         <v>156</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>536</v>
+        <v>641</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6338,19 +6469,19 @@
         <v>157</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>422</v>
+        <v>621</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>585</v>
+        <v>622</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>810</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6358,22 +6489,19 @@
         <v>158</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>157</v>
+        <v>323</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>160</v>
+        <v>325</v>
       </c>
       <c r="J161" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6381,42 +6509,31 @@
         <v>159</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>166</v>
+        <v>734</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>14</v>
+        <v>735</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J162" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>829</v>
+      </c>
+      <c r="G162" s="6"/>
     </row>
     <row r="163" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>489</v>
+        <v>339</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="J163" s="17" t="s">
-        <v>534</v>
+        <v>261</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6424,42 +6541,34 @@
         <v>161</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>161</v>
+        <v>711</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>14</v>
+        <v>712</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J164" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="G164" s="6"/>
     </row>
     <row r="165" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>162</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>617</v>
+        <v>582</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6467,33 +6576,28 @@
         <v>163</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>611</v>
+        <v>493</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>808</v>
+        <v>494</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="J166" s="17" t="s">
-        <v>534</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="G166" s="6"/>
     </row>
     <row r="167" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>164</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>472</v>
+        <v>769</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>473</v>
+        <v>770</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="G167" s="6"/>
     </row>
@@ -6502,52 +6606,65 @@
         <v>165</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>281</v>
+        <v>692</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>282</v>
+        <v>693</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="J168" s="9"/>
+        <v>822</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="J168" s="17" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="169" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>166</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>610</v>
+        <v>315</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>442</v>
+        <v>316</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="G169" s="6"/>
+        <v>317</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="J169" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="170" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>167</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>433</v>
+        <v>667</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="J170" s="17" t="s">
-        <v>534</v>
+        <v>31</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="J170" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6555,22 +6672,19 @@
         <v>168</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>34</v>
+        <v>539</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>14</v>
+        <v>285</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="J171" s="16" t="s">
-        <v>17</v>
+        <v>532</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6578,19 +6692,22 @@
         <v>169</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>256</v>
+        <v>22</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="J172" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6598,19 +6715,16 @@
         <v>170</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>271</v>
+        <v>661</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>272</v>
+        <v>662</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>71</v>
+        <v>808</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J173" s="16" t="s">
-        <v>17</v>
+        <v>795</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6618,22 +6732,16 @@
         <v>171</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>47</v>
+        <v>658</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>14</v>
+        <v>659</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>49</v>
+        <v>808</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J174" s="16" t="s">
-        <v>17</v>
+        <v>660</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6641,42 +6749,34 @@
         <v>172</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>186</v>
+        <v>668</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>14</v>
+        <v>745</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G175" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="J175" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="G175" s="6"/>
     </row>
     <row r="176" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>173</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>522</v>
+        <v>313</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>652</v>
+        <v>534</v>
+      </c>
+      <c r="G176" s="10" t="s">
+        <v>533</v>
       </c>
       <c r="J176" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6684,19 +6784,19 @@
         <v>174</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>303</v>
+        <v>417</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="J177" s="16" t="s">
-        <v>534</v>
+        <v>580</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="J177" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6704,19 +6804,19 @@
         <v>175</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>620</v>
+        <v>713</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>460</v>
+        <v>714</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>622</v>
+        <v>825</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>791</v>
       </c>
       <c r="J178" s="17" t="s">
-        <v>534</v>
+        <v>781</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6724,22 +6824,22 @@
         <v>176</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>580</v>
+        <v>44</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>421</v>
+        <v>41</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="J179" s="17" t="s">
-        <v>534</v>
+        <v>27</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J179" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6747,19 +6847,19 @@
         <v>177</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>301</v>
+        <v>429</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G180" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="J180" s="16" t="s">
-        <v>534</v>
+        <v>580</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J180" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6767,19 +6867,22 @@
         <v>178</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>328</v>
+        <v>690</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>329</v>
+        <v>691</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="J181" s="16" t="s">
-        <v>17</v>
+        <v>822</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="J181" s="17" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6787,34 +6890,48 @@
         <v>179</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>293</v>
+        <v>25</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>294</v>
+        <v>26</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>263</v>
+        <v>27</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="J182" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="J182" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="183" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>180</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>543</v>
+        <v>196</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>291</v>
+        <v>197</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>292</v>
+        <v>184</v>
+      </c>
+      <c r="J183" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6822,19 +6939,22 @@
         <v>181</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>571</v>
+        <v>181</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>338</v>
+        <v>182</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G184" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="J184" s="17" t="s">
-        <v>534</v>
+        <v>183</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J184" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6842,46 +6962,65 @@
         <v>182</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>467</v>
+        <v>199</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G185" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J185" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="186" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>183</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>436</v>
+        <v>504</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="G186" s="6"/>
+        <v>534</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="J186" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="187" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>184</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>544</v>
+        <v>420</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="J187" s="16" t="s">
-        <v>534</v>
+        <v>580</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="J187" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6889,51 +7028,60 @@
         <v>185</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>546</v>
+        <v>738</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>299</v>
+        <v>739</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="J188" s="16" t="s">
-        <v>534</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="G188" s="6"/>
     </row>
     <row r="189" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>186</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>465</v>
+        <v>156</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G189" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J189" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="190" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>187</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>250</v>
+        <v>166</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="J190" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6941,19 +7089,22 @@
         <v>188</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>252</v>
+        <v>487</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>253</v>
+        <v>488</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G191" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="J191" s="16" t="s">
-        <v>17</v>
+        <v>631</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="J191" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6961,57 +7112,57 @@
         <v>189</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>485</v>
+        <v>160</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G192" s="6"/>
+        <v>161</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J192" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="193" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>190</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>85</v>
+        <v>723</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>14</v>
+        <v>724</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G193" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J193" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="G193" s="6"/>
     </row>
     <row r="194" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>191</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>82</v>
+        <v>612</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>14</v>
+        <v>453</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>59</v>
+        <v>614</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J194" s="16" t="s">
-        <v>17</v>
+        <v>613</v>
+      </c>
+      <c r="J194" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7019,45 +7170,37 @@
         <v>192</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>91</v>
+        <v>717</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>14</v>
+        <v>718</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G195" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J195" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="G195" s="6"/>
     </row>
     <row r="196" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>193</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>37</v>
+        <v>607</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>14</v>
+        <v>799</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J196" s="16" t="s">
-        <v>17</v>
+        <v>608</v>
+      </c>
+      <c r="J196" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7065,140 +7208,97 @@
         <v>194</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>119</v>
+        <v>470</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>14</v>
+        <v>471</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J197" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="G197" s="6"/>
     </row>
     <row r="198" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>195</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J198" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="J198" s="9"/>
     </row>
     <row r="199" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>196</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>148</v>
+        <v>606</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J199" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="G199" s="6"/>
     </row>
     <row r="200" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>197</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>123</v>
+        <v>698</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>14</v>
+        <v>699</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G200" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J200" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="G200" s="6"/>
     </row>
     <row r="201" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>198</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>129</v>
+        <v>698</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J201" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="G201" s="6"/>
     </row>
     <row r="202" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>199</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>154</v>
+        <v>596</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>14</v>
+        <v>431</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J202" s="16" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="J202" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7206,25 +7306,22 @@
         <v>200</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>478</v>
+        <v>33</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="J203" s="17" t="s">
-        <v>534</v>
+        <v>31</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J203" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7232,22 +7329,22 @@
         <v>201</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>514</v>
+        <v>679</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>513</v>
+        <v>682</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>650</v>
+        <v>819</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="J204" s="17" t="s">
-        <v>534</v>
+        <v>781</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7255,45 +7352,34 @@
         <v>202</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>97</v>
+        <v>655</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>14</v>
+        <v>656</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J205" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="G205" s="6"/>
     </row>
     <row r="206" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>203</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="J206" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7301,19 +7387,19 @@
         <v>204</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>542</v>
+        <v>269</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>263</v>
+        <v>70</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J207" s="16" t="s">
-        <v>534</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7321,19 +7407,22 @@
         <v>205</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>538</v>
+        <v>46</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>279</v>
+        <v>47</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>263</v>
+        <v>48</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>280</v>
+        <v>49</v>
       </c>
       <c r="J208" s="16" t="s">
-        <v>534</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7341,19 +7430,22 @@
         <v>206</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>545</v>
+        <v>185</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>297</v>
+        <v>186</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>298</v>
+        <v>188</v>
       </c>
       <c r="J209" s="16" t="s">
-        <v>534</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7361,19 +7453,22 @@
         <v>207</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>334</v>
+        <v>519</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>335</v>
+        <v>520</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="J210" s="16" t="s">
-        <v>17</v>
+        <v>648</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="J210" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7381,19 +7476,19 @@
         <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>430</v>
+        <v>301</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="J211" s="17" t="s">
-        <v>534</v>
+        <v>286</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="J211" s="16" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7401,19 +7496,19 @@
         <v>209</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>564</v>
+        <v>616</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>324</v>
+        <v>458</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G212" s="10" t="s">
-        <v>565</v>
+        <v>619</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="J212" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7421,19 +7516,22 @@
         <v>210</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>432</v>
+        <v>418</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G213" s="10" t="s">
-        <v>572</v>
+        <v>582</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="J213" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7441,19 +7539,19 @@
         <v>211</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="J214" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7461,22 +7559,19 @@
         <v>212</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>51</v>
+        <v>326</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>14</v>
+        <v>327</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>53</v>
+        <v>328</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>54</v>
+        <v>329</v>
       </c>
       <c r="J215" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7484,128 +7579,98 @@
         <v>213</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>55</v>
+        <v>771</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>14</v>
+        <v>772</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J216" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="G216" s="6"/>
     </row>
     <row r="217" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>214</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>501</v>
+        <v>291</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="J217" s="17" t="s">
-        <v>534</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="J217" s="9"/>
     </row>
     <row r="218" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>215</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>453</v>
+        <v>541</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="J218" s="17" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>216</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>73</v>
+        <v>569</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>14</v>
+        <v>336</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G219" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J219" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G219" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="J219" s="17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>217</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>69</v>
+        <v>465</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>14</v>
+        <v>466</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J220" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G220" s="6"/>
     </row>
     <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>218</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G221" s="6"/>
     </row>
@@ -7614,86 +7679,81 @@
         <v>219</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>463</v>
+        <v>542</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G222" s="6"/>
-    </row>
-    <row r="223" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J222" s="16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>220</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>605</v>
+        <v>759</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>808</v>
+        <v>762</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>171</v>
+        <v>804</v>
       </c>
       <c r="G223" s="6"/>
-      <c r="J223" s="17" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>221</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>491</v>
+        <v>775</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>14</v>
+        <v>776</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="J224" s="17" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+      <c r="G224" s="6"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>222</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>549</v>
+        <v>777</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>304</v>
+        <v>778</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="J225" s="16" t="s">
-        <v>534</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="G225" s="6"/>
     </row>
     <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>223</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>658</v>
+        <v>764</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>659</v>
+        <v>765</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="G226" s="6"/>
     </row>
@@ -7702,10 +7762,13 @@
         <v>224</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>660</v>
+        <v>779</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>661</v>
+        <v>780</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="G227" s="6"/>
     </row>
@@ -7714,10 +7777,13 @@
         <v>225</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>662</v>
+        <v>761</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>663</v>
+        <v>760</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="G228" s="6"/>
     </row>
@@ -7726,13 +7792,19 @@
         <v>226</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>664</v>
+        <v>544</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>665</v>
+        <v>297</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>666</v>
+        <v>298</v>
+      </c>
+      <c r="J229" s="16" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -7740,185 +7812,206 @@
         <v>227</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>667</v>
+        <v>721</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>804</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G230" s="6"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>228</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>669</v>
+        <v>463</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="G231" s="14" t="s">
-        <v>803</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G231" s="6"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>229</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>671</v>
+        <v>247</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="G232" s="6"/>
+        <v>248</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J232" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>230</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>674</v>
+        <v>250</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="G233" s="6"/>
-    </row>
-    <row r="234" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="J233" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>231</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>808</v>
+        <v>654</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="G234" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="J234" s="17" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+      <c r="G234" s="6"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>232</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>677</v>
+        <v>768</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>808</v>
+        <v>746</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="G235" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="J235" s="17" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+      <c r="G235" s="6"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>233</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>679</v>
+        <v>483</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>681</v>
+        <v>484</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="J236" s="17" t="s">
-        <v>788</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="G236" s="6"/>
     </row>
     <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>234</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>680</v>
+        <v>84</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J237" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>235</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>684</v>
+        <v>81</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>689</v>
+        <v>82</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F238" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="G238" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="J238" s="17" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="J238" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>236</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>685</v>
+        <v>90</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>688</v>
+        <v>91</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G239" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="J239" s="17" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F239" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J239" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>237</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>686</v>
+        <v>36</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="J240" s="17" t="s">
-        <v>788</v>
+        <v>37</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J240" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -7926,114 +8019,140 @@
         <v>238</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>691</v>
+        <v>118</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>690</v>
+        <v>119</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="G241" s="6"/>
-    </row>
-    <row r="242" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J241" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>239</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>692</v>
+        <v>172</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>693</v>
+        <v>173</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G242" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="J242" s="17" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F242" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J242" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>240</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>694</v>
+        <v>147</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>695</v>
+        <v>148</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G243" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="J243" s="17" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F243" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J243" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>241</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>696</v>
+        <v>122</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>697</v>
+        <v>123</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G244" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="J244" s="17" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F244" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J244" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>242</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>698</v>
+        <v>128</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>699</v>
+        <v>129</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G245" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="J245" s="17" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F245" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J245" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>243</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>700</v>
+        <v>153</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>701</v>
+        <v>154</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G246" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="J246" s="17" t="s">
-        <v>788</v>
+      <c r="F246" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G246" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J246" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -8041,85 +8160,142 @@
         <v>244</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>702</v>
+        <v>476</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>703</v>
+        <v>477</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G247" s="6"/>
+      <c r="F247" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J247" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>245</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>704</v>
+        <v>512</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="G248" s="6"/>
+        <v>511</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="J248" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>246</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>704</v>
+        <v>96</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="G249" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J249" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>247</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>707</v>
+        <v>649</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="G250" s="6"/>
+        <v>320</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="J250" s="17" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>248</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>709</v>
+        <v>75</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="G251" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J251" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>249</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>712</v>
+        <v>674</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="G252" s="6"/>
+        <v>676</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>250</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>714</v>
+        <v>741</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="G253" s="6"/>
     </row>
@@ -8128,10 +8304,13 @@
         <v>251</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>716</v>
+        <v>708</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>826</v>
       </c>
       <c r="G254" s="6"/>
     </row>
@@ -8140,28 +8319,39 @@
         <v>252</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>717</v>
+        <v>540</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="G255" s="6"/>
-    </row>
-    <row r="256" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J255" s="16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>253</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>719</v>
+        <v>536</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="J256" s="17" t="s">
-        <v>788</v>
+        <v>277</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J256" s="16" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -8169,10 +8359,19 @@
         <v>254</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>721</v>
+        <v>543</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>722</v>
+        <v>295</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J257" s="16" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -8180,190 +8379,301 @@
         <v>255</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>723</v>
+        <v>332</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="G258" s="6"/>
+        <v>333</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J258" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>256</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>725</v>
+        <v>591</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="G259" s="6"/>
+        <v>428</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J259" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>257</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>727</v>
+        <v>562</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="G260" s="6"/>
+        <v>322</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G260" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="J260" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>258</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>729</v>
+        <v>595</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G261" s="6"/>
+        <v>430</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G261" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="J261" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>259</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="G262" s="6"/>
-    </row>
-    <row r="263" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="J262" s="17" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>260</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>733</v>
+        <v>688</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>736</v>
+        <v>689</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>821</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="J263" s="17" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>261</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>734</v>
+        <v>537</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="J264" s="17" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J264" s="16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>262</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>735</v>
+        <v>766</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="J265" s="17" t="s">
-        <v>788</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="G265" s="6"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>263</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>739</v>
+        <v>50</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="G266" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J266" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>264</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>740</v>
+        <v>54</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="G267" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G267" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J267" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>265</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>742</v>
+        <v>499</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="G268" s="6"/>
+        <v>500</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="J268" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>266</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>744</v>
+        <v>451</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="G269" s="6"/>
+        <v>452</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="J269" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>267</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>746</v>
+        <v>72</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="G270" s="6"/>
-    </row>
-    <row r="271" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G270" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J270" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>268</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>801</v>
+      <c r="B271" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="J271" s="17" t="s">
-        <v>788</v>
+        <v>69</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J271" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -8371,14 +8681,17 @@
         <v>269</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>749</v>
+        <v>456</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>750</v>
+        <v>457</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="G272" s="6"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>270</v>
       </c>
@@ -8386,14 +8699,17 @@
         <v>753</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="G273" s="6"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>271</v>
       </c>
@@ -8401,186 +8717,267 @@
         <v>753</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D274" s="1" t="s">
         <v>757</v>
       </c>
+      <c r="F274" s="1" t="s">
+        <v>812</v>
+      </c>
       <c r="G274" s="6"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>272</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>760</v>
+      <c r="F275" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="G275" s="6"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>273</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>762</v>
+        <v>754</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="G276" s="6"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>274</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>763</v>
+        <v>748</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="G277" s="6"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>275</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>766</v>
+        <v>750</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="G278" s="6"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>276</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>765</v>
+        <v>461</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>769</v>
+        <v>462</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="G279" s="6"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>277</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>770</v>
+        <v>727</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="G280" s="6"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+        <v>730</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="J280" s="17" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>278</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>772</v>
+        <v>728</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="G281" s="6"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="J281" s="17" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>279</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>774</v>
+        <v>729</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="G282" s="6"/>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="J282" s="17" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>280</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>775</v>
+        <v>601</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>776</v>
+        <v>433</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="G283" s="6"/>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J283" s="17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>281</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>777</v>
+        <v>489</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="G284" s="6"/>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="J284" s="17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>282</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>779</v>
+        <v>706</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>780</v>
+        <v>705</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>826</v>
       </c>
       <c r="G285" s="6"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>283</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>781</v>
+        <v>701</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>782</v>
+        <v>702</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="G286" s="6"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>284</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>783</v>
+        <v>547</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="G287" s="6"/>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G287" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="J287" s="16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>285</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>785</v>
+        <v>663</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="G288" s="6"/>
+        <v>664</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G288" s="14" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="289" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G289" s="6"/>
@@ -11374,192 +11771,194 @@
     </row>
   </sheetData>
   <autoFilter ref="B3:K288" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState ref="B4:J226">
-    <sortCondition ref="B4:B226"/>
+  <sortState ref="B4:K288">
+    <sortCondition ref="B288"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J98" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J95" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J150" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J155" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J56" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J171" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J196" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J64" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J153" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J174" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J215" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J216" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J94" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J96" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J97" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J220" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J219" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J206" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J63" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J194" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J193" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J58" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J195" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J129" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J205" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J131" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J134" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J138" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J130" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J139" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J137" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J197" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J200" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J201" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J126" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J132" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J117" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J136" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J125" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J54" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J199" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J116" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J202" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J161" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J164" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J109" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J162" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J83" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J198" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J128" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J157" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J175" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J110" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J111" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J156" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J158" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="J78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J111" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J107" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J172" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J182" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J61" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J203" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J240" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J69" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J179" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J208" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J266" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J267" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J106" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J108" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J110" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J271" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J270" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J251" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J68" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J238" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J237" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J239" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J148" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J249" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J150" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J153" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J157" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J149" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J158" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J156" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J241" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J244" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J65" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J245" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J145" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J151" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J135" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J155" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J144" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J59" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J243" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J134" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J246" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J189" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J192" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J125" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J190" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J94" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J242" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J147" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J93" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J184" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J209" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J127" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J128" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J183" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J185" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J86" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J89" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="J17" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="J24" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="J25" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="J26" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J35" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="J37" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J84" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="J85" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J190" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J191" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J172" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="J88" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J80" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J68" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J92" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J173" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J74" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J75" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J69" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="J133" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J142" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J181" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="J148" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J210" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J151" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="J93" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="J120" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J208" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J214" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="J119" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J149" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="J207" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J187" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J209" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J188" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="J180" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="J177" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="J225" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="J118" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="J147" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="J101" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="J135" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J212" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="J39" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="J87" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="J184" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="J86" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="J33" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="J34" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="J152" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="J179" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="J160" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="J144" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="J91" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="J90" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="J102" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="J211" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="J154" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="J213" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="J170" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="J113" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="J223" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="J112" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="J89" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="J166" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="J122" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="J218" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="J165" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="J178" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="J103" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="J141" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="J114" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="J121" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="J123" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="J127" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="J203" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="J61" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="J76" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="J62" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="J163" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="J224" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="J100" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="J57" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="J59" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="J217" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="J159" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="J124" r:id="rId148" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="J140" r:id="rId149" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="J55" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="J115" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="J204" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="J99" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="J176" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="J146" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="J235" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="J234" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="J236" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="J238" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="J239" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="J240" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="J242" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="J243" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="J244" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="J245" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="J246" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="J256" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="J263" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="J264" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="J265" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="J271" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="J37" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J38" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J39" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J96" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J97" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J232" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J233" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J206" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J100" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J91" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J74" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J104" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J207" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J84" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J85" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J76" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J152" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J161" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J215" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J170" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J258" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J176" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J105" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J139" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J256" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J264" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J138" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J171" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J255" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J222" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J257" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J229" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J214" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J211" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J287" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J136" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J169" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J114" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="J154" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J260" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J41" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="J99" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="J219" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="J98" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="J34" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="J35" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="J177" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J213" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="J187" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="J165" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="J103" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="J102" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="J42" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J259" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="J180" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J261" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="J202" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="J130" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="J283" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J129" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="J101" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J196" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="J141" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="J269" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="J194" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="J212" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="J118" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="J160" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="J131" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="J140" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="J142" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="J146" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="J247" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="J66" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J87" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="J67" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="J191" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="J284" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="J113" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="J62" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="J64" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="J268" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="J186" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="J143" r:id="rId148" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="J159" r:id="rId149" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="J60" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="J133" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="J248" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="J112" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="J210" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="J250" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="J90" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="J78" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="J77" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="J109" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="J204" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="J30" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="J115" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="J263" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="J181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="J168" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="J262" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="J178" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="J280" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="J281" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="J282" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="J137" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
     <hyperlink ref="J18:J23" r:id="rId172" display="FILE" xr:uid="{261737D8-268D-4463-BCD1-243642970C6A}"/>
-    <hyperlink ref="J77" r:id="rId173" xr:uid="{5172EBED-C93C-455F-BB2D-6B2A1E8773FA}"/>
-    <hyperlink ref="J70" r:id="rId174" xr:uid="{1B7443F2-E580-486C-97D6-FCAB7323D778}"/>
-    <hyperlink ref="J72" r:id="rId175" xr:uid="{8658C7D8-68B9-4BC8-A0C7-329D539DCB38}"/>
-    <hyperlink ref="J73" r:id="rId176" xr:uid="{57EECCE0-4E20-43E4-9470-F1656992D66F}"/>
+    <hyperlink ref="J88" r:id="rId173" xr:uid="{5172EBED-C93C-455F-BB2D-6B2A1E8773FA}"/>
+    <hyperlink ref="J79" r:id="rId174" xr:uid="{1B7443F2-E580-486C-97D6-FCAB7323D778}"/>
+    <hyperlink ref="J81" r:id="rId175" xr:uid="{8658C7D8-68B9-4BC8-A0C7-329D539DCB38}"/>
+    <hyperlink ref="J82" r:id="rId176" xr:uid="{57EECCE0-4E20-43E4-9470-F1656992D66F}"/>
+    <hyperlink ref="J83" r:id="rId177" xr:uid="{55598906-3031-4C03-A8B4-70203477ED61}"/>
+    <hyperlink ref="J36" r:id="rId178" xr:uid="{447511FB-9DB5-453E-83DE-D180C92D387E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId177"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId179"/>
 </worksheet>
 </file>
--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Documents\datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROCESSOR\Desktop\Justin\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B487A412-2405-464D-8171-824354F745A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="838">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -2830,13 +2829,17 @@
   </si>
   <si>
     <t>2SD882</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step-down</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월 &quot;dd&quot;일&quot;"/>
   </numFmts>
@@ -2979,18 +2982,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Text 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Text 1" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -3337,12 +3340,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ1218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3362,19 +3366,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -3411,7 +3415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3426,7 +3430,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3441,7 +3445,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -3456,7 +3460,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -3471,7 +3475,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3486,7 +3490,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -3501,7 +3505,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -3516,7 +3520,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -3548,7 +3552,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -3563,7 +3567,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -3578,7 +3582,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -3593,7 +3597,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -3608,7 +3612,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -3624,11 +3628,11 @@
       <c r="G17" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -3644,11 +3648,11 @@
       <c r="G18" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -3664,11 +3668,11 @@
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -3684,11 +3688,11 @@
       <c r="G20" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -3704,11 +3708,11 @@
       <c r="G21" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -3724,11 +3728,11 @@
       <c r="G22" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -3747,11 +3751,11 @@
       <c r="G23" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -3767,11 +3771,11 @@
       <c r="G24" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -3787,11 +3791,11 @@
       <c r="G25" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -3807,11 +3811,11 @@
       <c r="G26" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -3826,7 +3830,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -3841,7 +3845,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -3856,7 +3860,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -3872,11 +3876,11 @@
       <c r="G30" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -3891,7 +3895,7 @@
       </c>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -3906,7 +3910,7 @@
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -3921,7 +3925,7 @@
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -3937,11 +3941,11 @@
       <c r="G34" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -3957,11 +3961,11 @@
       <c r="G35" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -3980,11 +3984,11 @@
       <c r="G36" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="16" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -4003,11 +4007,11 @@
       <c r="G37" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="J37" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -4026,11 +4030,11 @@
       <c r="G38" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="J38" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -4049,11 +4053,11 @@
       <c r="G39" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="J39" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -4068,7 +4072,7 @@
       </c>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -4084,11 +4088,11 @@
       <c r="G41" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="J41" s="17" t="s">
+      <c r="J41" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -4104,11 +4108,11 @@
       <c r="G42" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="J42" s="17" t="s">
+      <c r="J42" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -4123,7 +4127,7 @@
       </c>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -4138,7 +4142,7 @@
       </c>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -4153,7 +4157,7 @@
       </c>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -4168,7 +4172,7 @@
       </c>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -4183,7 +4187,7 @@
       </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -4198,7 +4202,7 @@
       </c>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -4213,7 +4217,7 @@
       </c>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -4228,7 +4232,7 @@
       </c>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -4243,7 +4247,7 @@
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -4258,7 +4262,7 @@
       </c>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -4272,7 +4276,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -4287,7 +4291,7 @@
       </c>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -4302,7 +4306,7 @@
       </c>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -4317,7 +4321,7 @@
       </c>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -4332,7 +4336,7 @@
       </c>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -4347,7 +4351,7 @@
       </c>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -4366,11 +4370,11 @@
       <c r="G59" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J59" s="16" t="s">
+      <c r="J59" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -4392,11 +4396,11 @@
       <c r="G60" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="J60" s="17" t="s">
+      <c r="J60" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -4415,11 +4419,11 @@
       <c r="G61" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J61" s="16" t="s">
+      <c r="J61" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>59</v>
       </c>
@@ -4438,11 +4442,11 @@
       <c r="G62" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="J62" s="17" t="s">
+      <c r="J62" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>60</v>
       </c>
@@ -4461,11 +4465,11 @@
       <c r="G63" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J63" s="16" t="s">
+      <c r="J63" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>61</v>
       </c>
@@ -4484,11 +4488,11 @@
       <c r="G64" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="J64" s="17" t="s">
+      <c r="J64" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -4507,11 +4511,11 @@
       <c r="G65" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J65" s="16" t="s">
+      <c r="J65" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -4530,11 +4534,11 @@
       <c r="G66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J66" s="17" t="s">
+      <c r="J66" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>64</v>
       </c>
@@ -4553,11 +4557,11 @@
       <c r="G67" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="J67" s="17" t="s">
+      <c r="J67" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>65</v>
       </c>
@@ -4576,11 +4580,11 @@
       <c r="G68" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J68" s="16" t="s">
+      <c r="J68" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>66</v>
       </c>
@@ -4599,11 +4603,11 @@
       <c r="G69" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J69" s="16" t="s">
+      <c r="J69" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -4618,7 +4622,7 @@
       </c>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>68</v>
       </c>
@@ -4633,7 +4637,7 @@
       </c>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>69</v>
       </c>
@@ -4648,7 +4652,7 @@
       </c>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>70</v>
       </c>
@@ -4663,7 +4667,7 @@
       </c>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>71</v>
       </c>
@@ -4679,11 +4683,11 @@
       <c r="G74" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="J74" s="16" t="s">
+      <c r="J74" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>72</v>
       </c>
@@ -4698,7 +4702,7 @@
       </c>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>73</v>
       </c>
@@ -4714,11 +4718,11 @@
       <c r="G76" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="J76" s="16" t="s">
+      <c r="J76" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>74</v>
       </c>
@@ -4737,11 +4741,11 @@
       <c r="G77" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="J77" s="17" t="s">
+      <c r="J77" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>75</v>
       </c>
@@ -4760,11 +4764,11 @@
       <c r="G78" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="J78" s="17" t="s">
+      <c r="J78" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>76</v>
       </c>
@@ -4783,11 +4787,11 @@
       <c r="G79" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J79" s="17" t="s">
+      <c r="J79" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>77</v>
       </c>
@@ -4805,7 +4809,7 @@
       </c>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>78</v>
       </c>
@@ -4824,11 +4828,11 @@
       <c r="G81" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J81" s="17" t="s">
+      <c r="J81" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>79</v>
       </c>
@@ -4847,11 +4851,11 @@
       <c r="G82" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J82" s="17" t="s">
+      <c r="J82" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>80</v>
       </c>
@@ -4870,11 +4874,11 @@
       <c r="G83" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="J83" s="17" t="s">
+      <c r="J83" s="16" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>81</v>
       </c>
@@ -4893,11 +4897,11 @@
       <c r="G84" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="J84" s="16" t="s">
+      <c r="J84" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>82</v>
       </c>
@@ -4916,11 +4920,11 @@
       <c r="G85" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="J85" s="16" t="s">
+      <c r="J85" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>83</v>
       </c>
@@ -4939,11 +4943,11 @@
       <c r="G86" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="J86" s="16" t="s">
+      <c r="J86" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>84</v>
       </c>
@@ -4962,11 +4966,11 @@
       <c r="G87" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J87" s="17" t="s">
+      <c r="J87" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>85</v>
       </c>
@@ -4985,11 +4989,11 @@
       <c r="G88" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J88" s="17" t="s">
+      <c r="J88" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>86</v>
       </c>
@@ -5008,11 +5012,11 @@
       <c r="G89" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="J89" s="16" t="s">
+      <c r="J89" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>87</v>
       </c>
@@ -5031,11 +5035,11 @@
       <c r="G90" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="J90" s="17" t="s">
+      <c r="J90" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>88</v>
       </c>
@@ -5051,11 +5055,11 @@
       <c r="G91" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="J91" s="16" t="s">
+      <c r="J91" s="15" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>89</v>
       </c>
@@ -5070,7 +5074,7 @@
       </c>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>90</v>
       </c>
@@ -5089,11 +5093,11 @@
       <c r="G93" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="J93" s="16" t="s">
+      <c r="J93" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>91</v>
       </c>
@@ -5112,11 +5116,11 @@
       <c r="G94" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J94" s="16" t="s">
+      <c r="J94" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>92</v>
       </c>
@@ -5131,7 +5135,7 @@
       </c>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>93</v>
       </c>
@@ -5147,11 +5151,11 @@
       <c r="G96" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="J96" s="16" t="s">
+      <c r="J96" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>94</v>
       </c>
@@ -5167,11 +5171,11 @@
       <c r="G97" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="J97" s="16" t="s">
+      <c r="J97" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>95</v>
       </c>
@@ -5187,11 +5191,11 @@
       <c r="G98" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="J98" s="17" t="s">
+      <c r="J98" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>96</v>
       </c>
@@ -5207,11 +5211,11 @@
       <c r="G99" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="J99" s="17" t="s">
+      <c r="J99" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>97</v>
       </c>
@@ -5227,11 +5231,11 @@
       <c r="G100" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="J100" s="16" t="s">
+      <c r="J100" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>98</v>
       </c>
@@ -5247,11 +5251,11 @@
       <c r="G101" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="J101" s="17" t="s">
+      <c r="J101" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>99</v>
       </c>
@@ -5267,11 +5271,11 @@
       <c r="G102" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="J102" s="17" t="s">
+      <c r="J102" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>100</v>
       </c>
@@ -5287,11 +5291,11 @@
       <c r="G103" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="J103" s="17" t="s">
+      <c r="J103" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>101</v>
       </c>
@@ -5307,11 +5311,11 @@
       <c r="G104" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J104" s="16" t="s">
+      <c r="J104" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>102</v>
       </c>
@@ -5327,11 +5331,11 @@
       <c r="G105" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="J105" s="17" t="s">
+      <c r="J105" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>103</v>
       </c>
@@ -5350,11 +5354,11 @@
       <c r="G106" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J106" s="16" t="s">
+      <c r="J106" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>104</v>
       </c>
@@ -5373,11 +5377,11 @@
       <c r="G107" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J107" s="16" t="s">
+      <c r="J107" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>105</v>
       </c>
@@ -5396,11 +5400,11 @@
       <c r="G108" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J108" s="16" t="s">
+      <c r="J108" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>106</v>
       </c>
@@ -5419,11 +5423,11 @@
       <c r="G109" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="J109" s="17" t="s">
+      <c r="J109" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>107</v>
       </c>
@@ -5442,11 +5446,11 @@
       <c r="G110" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J110" s="16" t="s">
+      <c r="J110" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>108</v>
       </c>
@@ -5465,11 +5469,11 @@
       <c r="G111" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J111" s="16" t="s">
+      <c r="J111" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>109</v>
       </c>
@@ -5488,11 +5492,11 @@
       <c r="G112" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="J112" s="17" t="s">
+      <c r="J112" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>110</v>
       </c>
@@ -5511,11 +5515,11 @@
       <c r="G113" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="J113" s="17" t="s">
+      <c r="J113" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>111</v>
       </c>
@@ -5534,11 +5538,11 @@
       <c r="G114" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="J114" s="17" t="s">
+      <c r="J114" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>112</v>
       </c>
@@ -5557,11 +5561,11 @@
       <c r="G115" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="J115" s="17" t="s">
+      <c r="J115" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>113</v>
       </c>
@@ -5591,7 +5595,7 @@
       </c>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>115</v>
       </c>
@@ -5607,11 +5611,11 @@
       <c r="G118" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="J118" s="17" t="s">
+      <c r="J118" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>116</v>
       </c>
@@ -5629,7 +5633,7 @@
       </c>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>117</v>
       </c>
@@ -5647,7 +5651,7 @@
       </c>
       <c r="G120" s="6"/>
     </row>
-    <row r="121" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>118</v>
       </c>
@@ -5665,7 +5669,7 @@
       </c>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>119</v>
       </c>
@@ -5683,7 +5687,7 @@
       </c>
       <c r="G122" s="6"/>
     </row>
-    <row r="123" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>120</v>
       </c>
@@ -5701,7 +5705,7 @@
       </c>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>121</v>
       </c>
@@ -5719,7 +5723,7 @@
       </c>
       <c r="G124" s="6"/>
     </row>
-    <row r="125" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>122</v>
       </c>
@@ -5738,11 +5742,11 @@
       <c r="G125" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J125" s="16" t="s">
+      <c r="J125" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>123</v>
       </c>
@@ -5757,7 +5761,7 @@
       </c>
       <c r="G126" s="6"/>
     </row>
-    <row r="127" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>124</v>
       </c>
@@ -5776,11 +5780,11 @@
       <c r="G127" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J127" s="16" t="s">
+      <c r="J127" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>125</v>
       </c>
@@ -5799,11 +5803,11 @@
       <c r="G128" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J128" s="16" t="s">
+      <c r="J128" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>126</v>
       </c>
@@ -5819,11 +5823,11 @@
       <c r="G129" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J129" s="17" t="s">
+      <c r="J129" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>127</v>
       </c>
@@ -5839,11 +5843,11 @@
       <c r="G130" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="J130" s="17" t="s">
+      <c r="J130" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>128</v>
       </c>
@@ -5859,11 +5863,11 @@
       <c r="G131" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="J131" s="17" t="s">
+      <c r="J131" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>129</v>
       </c>
@@ -5878,7 +5882,7 @@
       </c>
       <c r="G132" s="6"/>
     </row>
-    <row r="133" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>130</v>
       </c>
@@ -5897,11 +5901,11 @@
       <c r="G133" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="J133" s="17" t="s">
+      <c r="J133" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>131</v>
       </c>
@@ -5920,11 +5924,11 @@
       <c r="G134" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="J134" s="16" t="s">
+      <c r="J134" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>132</v>
       </c>
@@ -5943,11 +5947,11 @@
       <c r="G135" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J135" s="16" t="s">
+      <c r="J135" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>133</v>
       </c>
@@ -5963,11 +5967,11 @@
       <c r="G136" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="J136" s="16" t="s">
+      <c r="J136" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>134</v>
       </c>
@@ -5983,11 +5987,11 @@
       <c r="G137" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="J137" s="17" t="s">
+      <c r="J137" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>135</v>
       </c>
@@ -6003,11 +6007,11 @@
       <c r="G138" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="J138" s="16" t="s">
+      <c r="J138" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>136</v>
       </c>
@@ -6023,11 +6027,11 @@
       <c r="G139" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="J139" s="16" t="s">
+      <c r="J139" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>137</v>
       </c>
@@ -6041,11 +6045,11 @@
         <v>805</v>
       </c>
       <c r="G140" s="6"/>
-      <c r="J140" s="17" t="s">
+      <c r="J140" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>138</v>
       </c>
@@ -6061,11 +6065,11 @@
       <c r="G141" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="J141" s="17" t="s">
+      <c r="J141" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>139</v>
       </c>
@@ -6081,11 +6085,11 @@
       <c r="G142" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="J142" s="17" t="s">
+      <c r="J142" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>140</v>
       </c>
@@ -6104,11 +6108,11 @@
       <c r="G143" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="J143" s="17" t="s">
+      <c r="J143" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>141</v>
       </c>
@@ -6127,11 +6131,11 @@
       <c r="G144" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J144" s="16" t="s">
+      <c r="J144" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>142</v>
       </c>
@@ -6150,11 +6154,11 @@
       <c r="G145" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J145" s="16" t="s">
+      <c r="J145" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>143</v>
       </c>
@@ -6170,11 +6174,11 @@
       <c r="G146" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="J146" s="17" t="s">
+      <c r="J146" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>144</v>
       </c>
@@ -6193,11 +6197,11 @@
       <c r="G147" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J147" s="16" t="s">
+      <c r="J147" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>145</v>
       </c>
@@ -6216,11 +6220,11 @@
       <c r="G148" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J148" s="16" t="s">
+      <c r="J148" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>146</v>
       </c>
@@ -6239,11 +6243,11 @@
       <c r="G149" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J149" s="16" t="s">
+      <c r="J149" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>147</v>
       </c>
@@ -6262,11 +6266,11 @@
       <c r="G150" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J150" s="16" t="s">
+      <c r="J150" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>148</v>
       </c>
@@ -6285,11 +6289,11 @@
       <c r="G151" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J151" s="16" t="s">
+      <c r="J151" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>149</v>
       </c>
@@ -6305,11 +6309,11 @@
       <c r="G152" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="J152" s="16" t="s">
+      <c r="J152" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>150</v>
       </c>
@@ -6328,11 +6332,11 @@
       <c r="G153" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J153" s="16" t="s">
+      <c r="J153" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>151</v>
       </c>
@@ -6348,11 +6352,11 @@
       <c r="G154" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="J154" s="17" t="s">
+      <c r="J154" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>152</v>
       </c>
@@ -6371,11 +6375,11 @@
       <c r="G155" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="J155" s="16" t="s">
+      <c r="J155" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>153</v>
       </c>
@@ -6394,11 +6398,11 @@
       <c r="G156" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J156" s="16" t="s">
+      <c r="J156" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>154</v>
       </c>
@@ -6417,11 +6421,11 @@
       <c r="G157" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J157" s="16" t="s">
+      <c r="J157" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>155</v>
       </c>
@@ -6440,11 +6444,11 @@
       <c r="G158" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J158" s="16" t="s">
+      <c r="J158" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>156</v>
       </c>
@@ -6460,11 +6464,11 @@
       <c r="G159" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="J159" s="17" t="s">
+      <c r="J159" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>157</v>
       </c>
@@ -6480,11 +6484,11 @@
       <c r="G160" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="J160" s="17" t="s">
+      <c r="J160" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>158</v>
       </c>
@@ -6500,11 +6504,11 @@
       <c r="G161" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="J161" s="16" t="s">
+      <c r="J161" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>159</v>
       </c>
@@ -6519,7 +6523,7 @@
       </c>
       <c r="G162" s="6"/>
     </row>
-    <row r="163" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>160</v>
       </c>
@@ -6536,7 +6540,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>161</v>
       </c>
@@ -6551,7 +6555,7 @@
       </c>
       <c r="G164" s="6"/>
     </row>
-    <row r="165" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>162</v>
       </c>
@@ -6567,11 +6571,11 @@
       <c r="G165" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="J165" s="17" t="s">
+      <c r="J165" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>163</v>
       </c>
@@ -6586,7 +6590,7 @@
       </c>
       <c r="G166" s="6"/>
     </row>
-    <row r="167" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>164</v>
       </c>
@@ -6601,7 +6605,7 @@
       </c>
       <c r="G167" s="6"/>
     </row>
-    <row r="168" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>165</v>
       </c>
@@ -6620,11 +6624,11 @@
       <c r="G168" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="J168" s="17" t="s">
+      <c r="J168" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>166</v>
       </c>
@@ -6640,11 +6644,11 @@
       <c r="G169" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="J169" s="16" t="s">
+      <c r="J169" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>167</v>
       </c>
@@ -6663,11 +6667,11 @@
       <c r="G170" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="J170" s="16" t="s">
+      <c r="J170" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>168</v>
       </c>
@@ -6683,11 +6687,11 @@
       <c r="G171" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="J171" s="16" t="s">
+      <c r="J171" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>169</v>
       </c>
@@ -6706,11 +6710,11 @@
       <c r="G172" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J172" s="16" t="s">
+      <c r="J172" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>170</v>
       </c>
@@ -6727,7 +6731,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>171</v>
       </c>
@@ -6744,7 +6748,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>172</v>
       </c>
@@ -6759,7 +6763,7 @@
       </c>
       <c r="G175" s="6"/>
     </row>
-    <row r="176" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>173</v>
       </c>
@@ -6775,11 +6779,11 @@
       <c r="G176" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="J176" s="17" t="s">
+      <c r="J176" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>174</v>
       </c>
@@ -6795,11 +6799,11 @@
       <c r="G177" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="J177" s="17" t="s">
+      <c r="J177" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>175</v>
       </c>
@@ -6815,11 +6819,11 @@
       <c r="G178" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="J178" s="17" t="s">
+      <c r="J178" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>176</v>
       </c>
@@ -6838,11 +6842,11 @@
       <c r="G179" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J179" s="16" t="s">
+      <c r="J179" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>177</v>
       </c>
@@ -6858,11 +6862,11 @@
       <c r="G180" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="J180" s="17" t="s">
+      <c r="J180" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>178</v>
       </c>
@@ -6881,11 +6885,11 @@
       <c r="G181" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="J181" s="17" t="s">
+      <c r="J181" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>179</v>
       </c>
@@ -6904,11 +6908,11 @@
       <c r="G182" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J182" s="16" t="s">
+      <c r="J182" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>180</v>
       </c>
@@ -6930,11 +6934,11 @@
       <c r="G183" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J183" s="16" t="s">
+      <c r="J183" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>181</v>
       </c>
@@ -6953,11 +6957,11 @@
       <c r="G184" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J184" s="16" t="s">
+      <c r="J184" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>182</v>
       </c>
@@ -6979,11 +6983,11 @@
       <c r="G185" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="J185" s="16" t="s">
+      <c r="J185" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>183</v>
       </c>
@@ -6999,11 +7003,11 @@
       <c r="G186" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="J186" s="17" t="s">
+      <c r="J186" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>184</v>
       </c>
@@ -7019,11 +7023,11 @@
       <c r="G187" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="J187" s="17" t="s">
+      <c r="J187" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>185</v>
       </c>
@@ -7038,7 +7042,7 @@
       </c>
       <c r="G188" s="6"/>
     </row>
-    <row r="189" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>186</v>
       </c>
@@ -7057,11 +7061,11 @@
       <c r="G189" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J189" s="16" t="s">
+      <c r="J189" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>187</v>
       </c>
@@ -7080,11 +7084,11 @@
       <c r="G190" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="J190" s="16" t="s">
+      <c r="J190" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>188</v>
       </c>
@@ -7103,11 +7107,11 @@
       <c r="G191" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="J191" s="17" t="s">
+      <c r="J191" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>189</v>
       </c>
@@ -7126,11 +7130,11 @@
       <c r="G192" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="J192" s="16" t="s">
+      <c r="J192" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>190</v>
       </c>
@@ -7145,7 +7149,7 @@
       </c>
       <c r="G193" s="6"/>
     </row>
-    <row r="194" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>191</v>
       </c>
@@ -7161,11 +7165,11 @@
       <c r="G194" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="J194" s="17" t="s">
+      <c r="J194" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>192</v>
       </c>
@@ -7180,7 +7184,7 @@
       </c>
       <c r="G195" s="6"/>
     </row>
-    <row r="196" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>193</v>
       </c>
@@ -7199,11 +7203,11 @@
       <c r="G196" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="J196" s="17" t="s">
+      <c r="J196" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>194</v>
       </c>
@@ -7218,7 +7222,7 @@
       </c>
       <c r="G197" s="6"/>
     </row>
-    <row r="198" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>195</v>
       </c>
@@ -7236,7 +7240,7 @@
       </c>
       <c r="J198" s="9"/>
     </row>
-    <row r="199" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>196</v>
       </c>
@@ -7251,7 +7255,7 @@
       </c>
       <c r="G199" s="6"/>
     </row>
-    <row r="200" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>197</v>
       </c>
@@ -7266,7 +7270,7 @@
       </c>
       <c r="G200" s="6"/>
     </row>
-    <row r="201" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>198</v>
       </c>
@@ -7281,7 +7285,7 @@
       </c>
       <c r="G201" s="6"/>
     </row>
-    <row r="202" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>199</v>
       </c>
@@ -7297,11 +7301,11 @@
       <c r="G202" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="J202" s="17" t="s">
+      <c r="J202" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>200</v>
       </c>
@@ -7320,11 +7324,11 @@
       <c r="G203" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J203" s="16" t="s">
+      <c r="J203" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>201</v>
       </c>
@@ -7343,11 +7347,11 @@
       <c r="G204" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="J204" s="17" t="s">
+      <c r="J204" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>202</v>
       </c>
@@ -7362,7 +7366,7 @@
       </c>
       <c r="G205" s="6"/>
     </row>
-    <row r="206" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>203</v>
       </c>
@@ -7378,11 +7382,11 @@
       <c r="G206" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="J206" s="16" t="s">
+      <c r="J206" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>204</v>
       </c>
@@ -7398,11 +7402,11 @@
       <c r="G207" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="J207" s="16" t="s">
+      <c r="J207" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>205</v>
       </c>
@@ -7421,11 +7425,11 @@
       <c r="G208" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J208" s="16" t="s">
+      <c r="J208" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>206</v>
       </c>
@@ -7444,11 +7448,11 @@
       <c r="G209" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="J209" s="16" t="s">
+      <c r="J209" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>207</v>
       </c>
@@ -7467,11 +7471,11 @@
       <c r="G210" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="J210" s="17" t="s">
+      <c r="J210" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>208</v>
       </c>
@@ -7487,11 +7491,11 @@
       <c r="G211" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="J211" s="16" t="s">
+      <c r="J211" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>209</v>
       </c>
@@ -7507,11 +7511,11 @@
       <c r="G212" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="J212" s="17" t="s">
+      <c r="J212" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>210</v>
       </c>
@@ -7530,11 +7534,11 @@
       <c r="G213" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="J213" s="17" t="s">
+      <c r="J213" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>211</v>
       </c>
@@ -7550,11 +7554,11 @@
       <c r="G214" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J214" s="16" t="s">
+      <c r="J214" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>212</v>
       </c>
@@ -7570,11 +7574,11 @@
       <c r="G215" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="J215" s="16" t="s">
+      <c r="J215" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>213</v>
       </c>
@@ -7589,7 +7593,7 @@
       </c>
       <c r="G216" s="6"/>
     </row>
-    <row r="217" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>214</v>
       </c>
@@ -7607,7 +7611,7 @@
       </c>
       <c r="J217" s="9"/>
     </row>
-    <row r="218" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>215</v>
       </c>
@@ -7624,7 +7628,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>216</v>
       </c>
@@ -7640,11 +7644,11 @@
       <c r="G219" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="J219" s="17" t="s">
+      <c r="J219" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>217</v>
       </c>
@@ -7659,7 +7663,7 @@
       </c>
       <c r="G220" s="6"/>
     </row>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>218</v>
       </c>
@@ -7674,7 +7678,7 @@
       </c>
       <c r="G221" s="6"/>
     </row>
-    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>219</v>
       </c>
@@ -7690,11 +7694,11 @@
       <c r="G222" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="J222" s="16" t="s">
+      <c r="J222" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>220</v>
       </c>
@@ -7712,7 +7716,7 @@
       </c>
       <c r="G223" s="6"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>221</v>
       </c>
@@ -7727,7 +7731,7 @@
       </c>
       <c r="G224" s="6"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>222</v>
       </c>
@@ -7742,7 +7746,7 @@
       </c>
       <c r="G225" s="6"/>
     </row>
-    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>223</v>
       </c>
@@ -7757,7 +7761,7 @@
       </c>
       <c r="G226" s="6"/>
     </row>
-    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>224</v>
       </c>
@@ -7772,7 +7776,7 @@
       </c>
       <c r="G227" s="6"/>
     </row>
-    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>225</v>
       </c>
@@ -7787,7 +7791,7 @@
       </c>
       <c r="G228" s="6"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>226</v>
       </c>
@@ -7803,11 +7807,11 @@
       <c r="G229" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J229" s="16" t="s">
+      <c r="J229" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>227</v>
       </c>
@@ -7822,7 +7826,7 @@
       </c>
       <c r="G230" s="6"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>228</v>
       </c>
@@ -7837,7 +7841,7 @@
       </c>
       <c r="G231" s="6"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>229</v>
       </c>
@@ -7853,11 +7857,11 @@
       <c r="G232" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="J232" s="16" t="s">
+      <c r="J232" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>230</v>
       </c>
@@ -7873,11 +7877,11 @@
       <c r="G233" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="J233" s="16" t="s">
+      <c r="J233" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>231</v>
       </c>
@@ -7892,7 +7896,7 @@
       </c>
       <c r="G234" s="6"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>232</v>
       </c>
@@ -7907,7 +7911,7 @@
       </c>
       <c r="G235" s="6"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>233</v>
       </c>
@@ -7922,7 +7926,7 @@
       </c>
       <c r="G236" s="6"/>
     </row>
-    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>234</v>
       </c>
@@ -7941,11 +7945,11 @@
       <c r="G237" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J237" s="16" t="s">
+      <c r="J237" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>235</v>
       </c>
@@ -7964,11 +7968,11 @@
       <c r="G238" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J238" s="16" t="s">
+      <c r="J238" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>236</v>
       </c>
@@ -7987,11 +7991,11 @@
       <c r="G239" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J239" s="16" t="s">
+      <c r="J239" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>237</v>
       </c>
@@ -8010,11 +8014,11 @@
       <c r="G240" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J240" s="16" t="s">
+      <c r="J240" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>238</v>
       </c>
@@ -8033,11 +8037,11 @@
       <c r="G241" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J241" s="16" t="s">
+      <c r="J241" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>239</v>
       </c>
@@ -8056,11 +8060,11 @@
       <c r="G242" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="J242" s="16" t="s">
+      <c r="J242" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>240</v>
       </c>
@@ -8079,11 +8083,11 @@
       <c r="G243" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J243" s="16" t="s">
+      <c r="J243" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>241</v>
       </c>
@@ -8102,11 +8106,11 @@
       <c r="G244" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J244" s="16" t="s">
+      <c r="J244" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>242</v>
       </c>
@@ -8128,11 +8132,11 @@
       <c r="G245" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J245" s="16" t="s">
+      <c r="J245" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>243</v>
       </c>
@@ -8151,11 +8155,11 @@
       <c r="G246" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J246" s="16" t="s">
+      <c r="J246" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>244</v>
       </c>
@@ -8177,11 +8181,11 @@
       <c r="G247" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="J247" s="17" t="s">
+      <c r="J247" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>245</v>
       </c>
@@ -8200,11 +8204,11 @@
       <c r="G248" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="J248" s="17" t="s">
+      <c r="J248" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>246</v>
       </c>
@@ -8223,11 +8227,11 @@
       <c r="G249" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J249" s="16" t="s">
+      <c r="J249" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>247</v>
       </c>
@@ -8243,11 +8247,11 @@
       <c r="G250" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="J250" s="17" t="s">
+      <c r="J250" s="16" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>248</v>
       </c>
@@ -8266,11 +8270,11 @@
       <c r="G251" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J251" s="16" t="s">
+      <c r="J251" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>249</v>
       </c>
@@ -8284,7 +8288,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>250</v>
       </c>
@@ -8314,7 +8318,7 @@
       </c>
       <c r="G254" s="6"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>252</v>
       </c>
@@ -8330,11 +8334,11 @@
       <c r="G255" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="J255" s="16" t="s">
+      <c r="J255" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>253</v>
       </c>
@@ -8350,11 +8354,11 @@
       <c r="G256" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="J256" s="16" t="s">
+      <c r="J256" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>254</v>
       </c>
@@ -8370,11 +8374,11 @@
       <c r="G257" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J257" s="16" t="s">
+      <c r="J257" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>255</v>
       </c>
@@ -8393,11 +8397,11 @@
       <c r="G258" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="J258" s="16" t="s">
+      <c r="J258" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>256</v>
       </c>
@@ -8413,11 +8417,11 @@
       <c r="G259" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="J259" s="17" t="s">
+      <c r="J259" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>257</v>
       </c>
@@ -8433,11 +8437,11 @@
       <c r="G260" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="J260" s="17" t="s">
+      <c r="J260" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>258</v>
       </c>
@@ -8453,11 +8457,11 @@
       <c r="G261" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="J261" s="17" t="s">
+      <c r="J261" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>259</v>
       </c>
@@ -8476,11 +8480,11 @@
       <c r="G262" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="J262" s="17" t="s">
+      <c r="J262" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>260</v>
       </c>
@@ -8499,11 +8503,11 @@
       <c r="G263" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="J263" s="17" t="s">
+      <c r="J263" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>261</v>
       </c>
@@ -8519,11 +8523,11 @@
       <c r="G264" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="J264" s="16" t="s">
+      <c r="J264" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>262</v>
       </c>
@@ -8538,7 +8542,7 @@
       </c>
       <c r="G265" s="6"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>263</v>
       </c>
@@ -8557,11 +8561,11 @@
       <c r="G266" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J266" s="16" t="s">
+      <c r="J266" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>264</v>
       </c>
@@ -8580,11 +8584,11 @@
       <c r="G267" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J267" s="16" t="s">
+      <c r="J267" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>265</v>
       </c>
@@ -8603,11 +8607,11 @@
       <c r="G268" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="J268" s="17" t="s">
+      <c r="J268" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>266</v>
       </c>
@@ -8626,11 +8630,11 @@
       <c r="G269" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="J269" s="17" t="s">
+      <c r="J269" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>267</v>
       </c>
@@ -8649,11 +8653,11 @@
       <c r="G270" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J270" s="16" t="s">
+      <c r="J270" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>268</v>
       </c>
@@ -8672,11 +8676,11 @@
       <c r="G271" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J271" s="16" t="s">
+      <c r="J271" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>269</v>
       </c>
@@ -8691,7 +8695,7 @@
       </c>
       <c r="G272" s="6"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>270</v>
       </c>
@@ -8709,7 +8713,7 @@
       </c>
       <c r="G273" s="6"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>271</v>
       </c>
@@ -8724,7 +8728,7 @@
       </c>
       <c r="G274" s="6"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>272</v>
       </c>
@@ -8739,7 +8743,7 @@
       </c>
       <c r="G275" s="6"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>273</v>
       </c>
@@ -8754,7 +8758,7 @@
       </c>
       <c r="G276" s="6"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>274</v>
       </c>
@@ -8772,7 +8776,7 @@
       </c>
       <c r="G277" s="6"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>275</v>
       </c>
@@ -8790,7 +8794,7 @@
       </c>
       <c r="G278" s="6"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>276</v>
       </c>
@@ -8805,7 +8809,7 @@
       </c>
       <c r="G279" s="6"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>277</v>
       </c>
@@ -8821,11 +8825,11 @@
       <c r="G280" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="J280" s="17" t="s">
+      <c r="J280" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>278</v>
       </c>
@@ -8841,11 +8845,11 @@
       <c r="G281" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="J281" s="17" t="s">
+      <c r="J281" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>279</v>
       </c>
@@ -8861,11 +8865,11 @@
       <c r="G282" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="J282" s="17" t="s">
+      <c r="J282" s="16" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>280</v>
       </c>
@@ -8882,11 +8886,11 @@
         <v>170</v>
       </c>
       <c r="G283" s="6"/>
-      <c r="J283" s="17" t="s">
+      <c r="J283" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>281</v>
       </c>
@@ -8905,7 +8909,7 @@
       <c r="G284" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="J284" s="17" t="s">
+      <c r="J284" s="16" t="s">
         <v>532</v>
       </c>
     </row>
@@ -8920,11 +8924,11 @@
         <v>705</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="G285" s="6"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>283</v>
       </c>
@@ -8939,7 +8943,7 @@
       </c>
       <c r="G286" s="6"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>284</v>
       </c>
@@ -8955,11 +8959,11 @@
       <c r="G287" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J287" s="16" t="s">
+      <c r="J287" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>285</v>
       </c>
@@ -11770,7 +11774,13 @@
       <c r="G1218" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:K288" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B3:K288">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Step-up"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B4:K288">
     <sortCondition ref="B288"/>
   </sortState>
@@ -11779,184 +11789,184 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J111" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J107" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J172" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J182" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J61" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J203" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J240" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J69" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J179" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J208" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J266" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J267" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J106" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J108" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J110" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J271" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J270" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J251" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J68" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J238" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J237" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J239" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J148" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J249" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J150" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J153" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J157" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J149" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J158" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J156" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J241" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J244" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J65" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J245" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J145" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J151" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J135" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J155" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J144" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J59" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J243" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J134" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J246" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J189" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J192" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J125" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J190" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J94" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J242" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J147" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J93" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J184" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J209" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J127" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J128" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J183" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J185" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="J86" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J89" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J17" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J24" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="J25" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J26" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J37" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J38" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="J39" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J96" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="J97" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J232" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J233" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J206" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="J100" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J91" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J74" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J104" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J207" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J84" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J85" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J76" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="J152" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J161" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J215" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="J170" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J258" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J176" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="J105" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="J139" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J256" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J264" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="J138" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J171" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="J255" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J222" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J257" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J229" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="J214" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="J211" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="J287" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="J136" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="J169" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="J114" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="J154" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J260" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="J41" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="J99" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="J219" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="J98" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="J34" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="J35" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="J177" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="J213" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="J187" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="J165" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="J103" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="J102" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="J42" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="J259" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="J180" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="J261" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="J202" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="J130" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="J283" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="J129" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="J101" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="J196" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="J141" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="J269" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="J194" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="J212" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="J118" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="J160" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="J131" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="J140" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="J142" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="J146" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="J247" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="J66" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="J87" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="J67" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="J191" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="J284" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="J113" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="J62" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="J64" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="J268" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="J186" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="J143" r:id="rId148" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="J159" r:id="rId149" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="J60" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="J133" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="J248" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="J112" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="J210" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="J250" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="J90" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="J78" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="J77" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="J109" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="J204" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="J30" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="J115" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="J263" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="J181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="J168" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="J262" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="J178" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="J280" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="J281" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="J282" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="J137" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="J18:J23" r:id="rId172" display="FILE" xr:uid="{261737D8-268D-4463-BCD1-243642970C6A}"/>
-    <hyperlink ref="J88" r:id="rId173" xr:uid="{5172EBED-C93C-455F-BB2D-6B2A1E8773FA}"/>
-    <hyperlink ref="J79" r:id="rId174" xr:uid="{1B7443F2-E580-486C-97D6-FCAB7323D778}"/>
-    <hyperlink ref="J81" r:id="rId175" xr:uid="{8658C7D8-68B9-4BC8-A0C7-329D539DCB38}"/>
-    <hyperlink ref="J82" r:id="rId176" xr:uid="{57EECCE0-4E20-43E4-9470-F1656992D66F}"/>
-    <hyperlink ref="J83" r:id="rId177" xr:uid="{55598906-3031-4C03-A8B4-70203477ED61}"/>
-    <hyperlink ref="J36" r:id="rId178" xr:uid="{447511FB-9DB5-453E-83DE-D180C92D387E}"/>
+    <hyperlink ref="J111" r:id="rId1"/>
+    <hyperlink ref="J107" r:id="rId2"/>
+    <hyperlink ref="J172" r:id="rId3"/>
+    <hyperlink ref="J182" r:id="rId4"/>
+    <hyperlink ref="J61" r:id="rId5"/>
+    <hyperlink ref="J203" r:id="rId6"/>
+    <hyperlink ref="J240" r:id="rId7"/>
+    <hyperlink ref="J69" r:id="rId8"/>
+    <hyperlink ref="J179" r:id="rId9"/>
+    <hyperlink ref="J208" r:id="rId10"/>
+    <hyperlink ref="J266" r:id="rId11"/>
+    <hyperlink ref="J267" r:id="rId12"/>
+    <hyperlink ref="J106" r:id="rId13"/>
+    <hyperlink ref="J108" r:id="rId14"/>
+    <hyperlink ref="J110" r:id="rId15"/>
+    <hyperlink ref="J271" r:id="rId16"/>
+    <hyperlink ref="J270" r:id="rId17"/>
+    <hyperlink ref="J251" r:id="rId18"/>
+    <hyperlink ref="J68" r:id="rId19"/>
+    <hyperlink ref="J238" r:id="rId20"/>
+    <hyperlink ref="J237" r:id="rId21"/>
+    <hyperlink ref="J63" r:id="rId22"/>
+    <hyperlink ref="J239" r:id="rId23"/>
+    <hyperlink ref="J148" r:id="rId24"/>
+    <hyperlink ref="J249" r:id="rId25"/>
+    <hyperlink ref="J150" r:id="rId26"/>
+    <hyperlink ref="J153" r:id="rId27"/>
+    <hyperlink ref="J157" r:id="rId28"/>
+    <hyperlink ref="J149" r:id="rId29"/>
+    <hyperlink ref="J158" r:id="rId30"/>
+    <hyperlink ref="J156" r:id="rId31"/>
+    <hyperlink ref="J241" r:id="rId32"/>
+    <hyperlink ref="J244" r:id="rId33"/>
+    <hyperlink ref="J65" r:id="rId34"/>
+    <hyperlink ref="J245" r:id="rId35"/>
+    <hyperlink ref="J145" r:id="rId36"/>
+    <hyperlink ref="J151" r:id="rId37"/>
+    <hyperlink ref="J135" r:id="rId38"/>
+    <hyperlink ref="J155" r:id="rId39"/>
+    <hyperlink ref="J144" r:id="rId40"/>
+    <hyperlink ref="J59" r:id="rId41"/>
+    <hyperlink ref="J243" r:id="rId42"/>
+    <hyperlink ref="J134" r:id="rId43"/>
+    <hyperlink ref="J246" r:id="rId44"/>
+    <hyperlink ref="J189" r:id="rId45"/>
+    <hyperlink ref="J192" r:id="rId46"/>
+    <hyperlink ref="J125" r:id="rId47"/>
+    <hyperlink ref="J190" r:id="rId48"/>
+    <hyperlink ref="J94" r:id="rId49"/>
+    <hyperlink ref="J242" r:id="rId50"/>
+    <hyperlink ref="J147" r:id="rId51"/>
+    <hyperlink ref="J93" r:id="rId52"/>
+    <hyperlink ref="J184" r:id="rId53"/>
+    <hyperlink ref="J209" r:id="rId54"/>
+    <hyperlink ref="J127" r:id="rId55"/>
+    <hyperlink ref="J128" r:id="rId56"/>
+    <hyperlink ref="J183" r:id="rId57"/>
+    <hyperlink ref="J185" r:id="rId58"/>
+    <hyperlink ref="J86" r:id="rId59"/>
+    <hyperlink ref="J89" r:id="rId60"/>
+    <hyperlink ref="J17" r:id="rId61"/>
+    <hyperlink ref="J24" r:id="rId62"/>
+    <hyperlink ref="J25" r:id="rId63"/>
+    <hyperlink ref="J26" r:id="rId64"/>
+    <hyperlink ref="J37" r:id="rId65"/>
+    <hyperlink ref="J38" r:id="rId66"/>
+    <hyperlink ref="J39" r:id="rId67"/>
+    <hyperlink ref="J96" r:id="rId68"/>
+    <hyperlink ref="J97" r:id="rId69"/>
+    <hyperlink ref="J232" r:id="rId70"/>
+    <hyperlink ref="J233" r:id="rId71"/>
+    <hyperlink ref="J206" r:id="rId72"/>
+    <hyperlink ref="J100" r:id="rId73"/>
+    <hyperlink ref="J91" r:id="rId74"/>
+    <hyperlink ref="J74" r:id="rId75"/>
+    <hyperlink ref="J104" r:id="rId76"/>
+    <hyperlink ref="J207" r:id="rId77"/>
+    <hyperlink ref="J84" r:id="rId78"/>
+    <hyperlink ref="J85" r:id="rId79"/>
+    <hyperlink ref="J76" r:id="rId80"/>
+    <hyperlink ref="J152" r:id="rId81"/>
+    <hyperlink ref="J161" r:id="rId82"/>
+    <hyperlink ref="J215" r:id="rId83"/>
+    <hyperlink ref="J170" r:id="rId84"/>
+    <hyperlink ref="J258" r:id="rId85"/>
+    <hyperlink ref="J176" r:id="rId86"/>
+    <hyperlink ref="J105" r:id="rId87"/>
+    <hyperlink ref="J139" r:id="rId88"/>
+    <hyperlink ref="J256" r:id="rId89"/>
+    <hyperlink ref="J264" r:id="rId90"/>
+    <hyperlink ref="J138" r:id="rId91"/>
+    <hyperlink ref="J171" r:id="rId92"/>
+    <hyperlink ref="J255" r:id="rId93"/>
+    <hyperlink ref="J222" r:id="rId94"/>
+    <hyperlink ref="J257" r:id="rId95"/>
+    <hyperlink ref="J229" r:id="rId96"/>
+    <hyperlink ref="J214" r:id="rId97"/>
+    <hyperlink ref="J211" r:id="rId98"/>
+    <hyperlink ref="J287" r:id="rId99"/>
+    <hyperlink ref="J136" r:id="rId100"/>
+    <hyperlink ref="J169" r:id="rId101"/>
+    <hyperlink ref="J114" r:id="rId102"/>
+    <hyperlink ref="J154" r:id="rId103"/>
+    <hyperlink ref="J260" r:id="rId104"/>
+    <hyperlink ref="J41" r:id="rId105"/>
+    <hyperlink ref="J99" r:id="rId106"/>
+    <hyperlink ref="J219" r:id="rId107"/>
+    <hyperlink ref="J98" r:id="rId108"/>
+    <hyperlink ref="J34" r:id="rId109"/>
+    <hyperlink ref="J35" r:id="rId110"/>
+    <hyperlink ref="J177" r:id="rId111"/>
+    <hyperlink ref="J213" r:id="rId112"/>
+    <hyperlink ref="J187" r:id="rId113"/>
+    <hyperlink ref="J165" r:id="rId114"/>
+    <hyperlink ref="J103" r:id="rId115"/>
+    <hyperlink ref="J102" r:id="rId116"/>
+    <hyperlink ref="J42" r:id="rId117"/>
+    <hyperlink ref="J259" r:id="rId118"/>
+    <hyperlink ref="J180" r:id="rId119"/>
+    <hyperlink ref="J261" r:id="rId120"/>
+    <hyperlink ref="J202" r:id="rId121"/>
+    <hyperlink ref="J130" r:id="rId122"/>
+    <hyperlink ref="J283" r:id="rId123"/>
+    <hyperlink ref="J129" r:id="rId124"/>
+    <hyperlink ref="J101" r:id="rId125"/>
+    <hyperlink ref="J196" r:id="rId126"/>
+    <hyperlink ref="J141" r:id="rId127"/>
+    <hyperlink ref="J269" r:id="rId128"/>
+    <hyperlink ref="J194" r:id="rId129"/>
+    <hyperlink ref="J212" r:id="rId130"/>
+    <hyperlink ref="J118" r:id="rId131"/>
+    <hyperlink ref="J160" r:id="rId132"/>
+    <hyperlink ref="J131" r:id="rId133"/>
+    <hyperlink ref="J140" r:id="rId134"/>
+    <hyperlink ref="J142" r:id="rId135"/>
+    <hyperlink ref="J146" r:id="rId136"/>
+    <hyperlink ref="J247" r:id="rId137"/>
+    <hyperlink ref="J66" r:id="rId138"/>
+    <hyperlink ref="J87" r:id="rId139"/>
+    <hyperlink ref="J67" r:id="rId140"/>
+    <hyperlink ref="J191" r:id="rId141"/>
+    <hyperlink ref="J284" r:id="rId142"/>
+    <hyperlink ref="J113" r:id="rId143"/>
+    <hyperlink ref="J62" r:id="rId144"/>
+    <hyperlink ref="J64" r:id="rId145"/>
+    <hyperlink ref="J268" r:id="rId146"/>
+    <hyperlink ref="J186" r:id="rId147"/>
+    <hyperlink ref="J143" r:id="rId148"/>
+    <hyperlink ref="J159" r:id="rId149"/>
+    <hyperlink ref="J60" r:id="rId150"/>
+    <hyperlink ref="J133" r:id="rId151"/>
+    <hyperlink ref="J248" r:id="rId152"/>
+    <hyperlink ref="J112" r:id="rId153"/>
+    <hyperlink ref="J210" r:id="rId154"/>
+    <hyperlink ref="J250" r:id="rId155"/>
+    <hyperlink ref="J90" r:id="rId156"/>
+    <hyperlink ref="J78" r:id="rId157"/>
+    <hyperlink ref="J77" r:id="rId158"/>
+    <hyperlink ref="J109" r:id="rId159"/>
+    <hyperlink ref="J204" r:id="rId160"/>
+    <hyperlink ref="J30" r:id="rId161"/>
+    <hyperlink ref="J115" r:id="rId162"/>
+    <hyperlink ref="J263" r:id="rId163"/>
+    <hyperlink ref="J181" r:id="rId164"/>
+    <hyperlink ref="J168" r:id="rId165"/>
+    <hyperlink ref="J262" r:id="rId166"/>
+    <hyperlink ref="J178" r:id="rId167"/>
+    <hyperlink ref="J280" r:id="rId168"/>
+    <hyperlink ref="J281" r:id="rId169"/>
+    <hyperlink ref="J282" r:id="rId170"/>
+    <hyperlink ref="J137" r:id="rId171"/>
+    <hyperlink ref="J18:J23" r:id="rId172" display="FILE"/>
+    <hyperlink ref="J88" r:id="rId173"/>
+    <hyperlink ref="J79" r:id="rId174"/>
+    <hyperlink ref="J81" r:id="rId175"/>
+    <hyperlink ref="J82" r:id="rId176"/>
+    <hyperlink ref="J83" r:id="rId177"/>
+    <hyperlink ref="J36" r:id="rId178"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId179"/>

--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$K$288</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$K$316</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="910">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -1478,12 +1478,6 @@
     <t>A09-11</t>
   </si>
   <si>
-    <t>SMD SMALL LED</t>
-  </si>
-  <si>
-    <t>B03-05</t>
-  </si>
-  <si>
     <t>74HC74N</t>
   </si>
   <si>
@@ -1512,10 +1506,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ISOLATED OSCILLATOR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>A09-14</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2321,10 +2311,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>XL4015 STEPDOWN 5A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>STEPUP FROM MICROUSB 2A</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2333,10 +2319,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DC-DC STEPUP 2A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B04-14</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2833,6 +2815,298 @@
   </si>
   <si>
     <t>Step-down</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB BOARD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B07-06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B07-12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB BOARD (Type C)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117 5.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117 3.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A14-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A14-02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSCILLATOR 40Mh (ISOLATED)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A14-03</t>
+  </si>
+  <si>
+    <t>A14-04</t>
+  </si>
+  <si>
+    <t>A14-05</t>
+  </si>
+  <si>
+    <t>A14-06</t>
+  </si>
+  <si>
+    <t>A14-07</t>
+  </si>
+  <si>
+    <t>A14-08</t>
+  </si>
+  <si>
+    <t>A14-09</t>
+  </si>
+  <si>
+    <t>A14-10</t>
+  </si>
+  <si>
+    <t>A14-11</t>
+  </si>
+  <si>
+    <t>A14-12</t>
+  </si>
+  <si>
+    <t>A14-13</t>
+  </si>
+  <si>
+    <t>A14-14</t>
+  </si>
+  <si>
+    <t>A14-15</t>
+  </si>
+  <si>
+    <t>A14-16</t>
+  </si>
+  <si>
+    <t>OSCILLATOR 24Mh (ISOLATED)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSCILLATOR 16Mh (ISOLATED)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSCILLATOR 11.0592Mh (ISOLATED)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS232 &lt;-&gt; TTL MODULE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSCILLATOR 20Mh (ISOLATED)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSCILLATOR 50Mh (ISOLATED)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSCILLATOR 4Mh (ISOLATED)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSCILLATOR 8Mh (ISOLATED)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUZZER (ACTIVE)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A14-17</t>
+  </si>
+  <si>
+    <t>A14-18</t>
+  </si>
+  <si>
+    <t>SMD SMALL LED RED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD SMALL LED YELLOW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD SMALL LED GREEN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD SMALL LED BLUE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD SMALL LED WHITE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS2812B SMALL LED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A14-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN74155N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A15-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESISTOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESISTER ARRAYS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL6009 STEPUP 4A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B07-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT3608 STEPUP 2A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B07-09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B07-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B07-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TERMINAL SOCKET 2P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B07-02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TERMINAL SOCKET 4P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPT 14MM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPT 14MM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B07-03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B07-04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI-ION 3.7 PROTECTION BOARD 3A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step-up</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOCKET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOCKET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL4015/DSN5000 STEPDOWN 5A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM2596 DC-DC STEPUP 3A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V TO 3.3V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3S 4.2V 25A LI-ION BMS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A15-03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4S 3.6V 40A LIFEPO4 BMS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A15-04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FERRITE CORE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B07-07</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3341,18 +3615,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E294" sqref="E294"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="8.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
@@ -3415,5668 +3688,5915 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>405</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>406</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>407</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>408</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>409</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>410</v>
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>411</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>412</v>
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>413</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>414</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>383</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>384</v>
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>403</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>404</v>
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>370</v>
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G11" s="6">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>394</v>
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>351</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>352</v>
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>371</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>372</v>
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>395</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>396</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>353</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>354</v>
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>211</v>
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>215</v>
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>213</v>
+        <v>67</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>217</v>
+        <v>69</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>219</v>
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>221</v>
+        <v>76</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>223</v>
+        <v>79</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>503</v>
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>227</v>
+        <v>85</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>228</v>
+        <v>86</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>230</v>
+        <v>88</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>232</v>
+        <v>91</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>228</v>
+        <v>92</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>381</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>382</v>
+        <v>94</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>415</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>416</v>
+        <v>97</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>385</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>386</v>
+        <v>101</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>680</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>681</v>
+        <v>104</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>373</v>
+        <v>106</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>374</v>
+        <v>107</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>397</v>
+        <v>109</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>398</v>
+        <v>110</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>355</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>356</v>
+        <v>112</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>573</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>342</v>
+        <v>115</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>575</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>344</v>
+        <v>119</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>343</v>
+        <v>120</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>685</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>684</v>
+        <v>123</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>833</v>
+        <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>502</v>
+        <v>126</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>70</v>
+        <v>804</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>237</v>
+        <v>129</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>835</v>
+        <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>239</v>
+        <v>515</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>835</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>345</v>
+        <v>134</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>346</v>
+        <v>135</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>564</v>
+        <v>137</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>338</v>
+        <v>138</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>836</v>
+        <v>139</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>427</v>
+        <v>140</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>387</v>
+        <v>142</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>388</v>
+        <v>143</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>357</v>
+        <v>145</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>358</v>
+        <v>146</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>376</v>
+        <v>148</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>359</v>
+        <v>150</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>360</v>
+        <v>151</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>348</v>
+        <v>154</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>389</v>
+        <v>156</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>390</v>
+        <v>157</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>377</v>
+        <v>160</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>378</v>
+        <v>161</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>399</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>400</v>
+        <v>164</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>362</v>
+        <v>166</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>349</v>
+        <v>168</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>350</v>
+        <v>169</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>715</v>
+        <v>172</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>716</v>
+        <v>173</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>391</v>
+        <v>175</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>392</v>
+        <v>176</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>379</v>
+        <v>178</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>380</v>
+        <v>179</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>401</v>
+        <v>181</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>402</v>
+        <v>182</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>363</v>
+        <v>185</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>364</v>
+        <v>186</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>736</v>
+        <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>737</v>
+        <v>190</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="J59" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>509</v>
+        <v>196</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>510</v>
+        <v>197</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>515</v>
+        <v>198</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>30</v>
+        <v>200</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="J61" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>495</v>
+        <v>674</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>496</v>
+        <v>202</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="J63" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>497</v>
+        <v>207</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>639</v>
+        <v>170</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="J64" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>809</v>
+        <v>212</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="J65" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>479</v>
+        <v>214</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>485</v>
+        <v>216</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="J68" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="J69" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G70" s="6"/>
-    </row>
-    <row r="71" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>743</v>
+        <v>224</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>744</v>
+        <v>225</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="G71" s="6"/>
-    </row>
-    <row r="72" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>367</v>
+        <v>226</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>454</v>
+        <v>229</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>455</v>
+        <v>230</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J73" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="J74" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>72</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>725</v>
+        <v>233</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>726</v>
+        <v>234</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>307</v>
+        <v>237</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>830</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>286</v>
+        <v>70</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
       <c r="J76" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>673</v>
+        <v>239</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>675</v>
+        <v>240</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="J77" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>669</v>
+        <v>241</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>799</v>
+        <v>242</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>800</v>
+        <v>70</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>443</v>
+        <v>244</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>799</v>
+        <v>245</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="J79" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="J79" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>77</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>441</v>
+        <v>247</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>799</v>
+        <v>248</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>78</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>447</v>
+        <v>250</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>799</v>
+        <v>251</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="J81" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="J81" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>445</v>
+        <v>253</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>799</v>
+        <v>254</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="J82" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>813</v>
+        <v>256</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>817</v>
+        <v>257</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>814</v>
+        <v>70</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="J83" s="16" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>796</v>
+        <v>310</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>170</v>
+        <v>311</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="J84" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>796</v>
+        <v>260</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="J85" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>677</v>
+        <v>263</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="J86" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>481</v>
+        <v>266</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>630</v>
+        <v>183</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="J87" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="J88" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>204</v>
+        <v>528</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="J89" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>87</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>671</v>
+        <v>551</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>799</v>
+        <v>314</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>801</v>
+        <v>70</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>552</v>
       </c>
       <c r="J90" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>89</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>437</v>
+        <v>553</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="G92" s="6"/>
-    </row>
-    <row r="93" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="J92" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>90</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>14</v>
+        <v>791</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>170</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="J93" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>91</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>791</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>170</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="J94" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>92</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>719</v>
+        <v>646</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>720</v>
+        <v>320</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G95" s="6"/>
-    </row>
-    <row r="96" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>93</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>241</v>
+        <v>556</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="J96" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>94</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>244</v>
+        <v>559</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="J97" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>95</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>571</v>
+        <v>323</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="J98" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="J98" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>566</v>
+        <v>326</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="J99" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J99" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>97</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>256</v>
+        <v>533</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="J100" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>98</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>603</v>
+        <v>279</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>439</v>
+        <v>280</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="J101" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="J101" s="9"/>
+    </row>
+    <row r="102" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>99</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>425</v>
+        <v>532</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>426</v>
+        <v>281</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="J102" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="J102" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>100</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>423</v>
+        <v>534</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>424</v>
+        <v>282</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="J103" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J103" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>266</v>
+        <v>535</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>268</v>
+        <v>548</v>
       </c>
       <c r="J104" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>102</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="J105" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J105" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>103</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>56</v>
+        <v>537</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G106" s="12" t="s">
-        <v>59</v>
+        <v>261</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="J106" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>104</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>17</v>
+        <v>538</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J107" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>105</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J108" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="J108" s="9"/>
+    </row>
+    <row r="109" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>106</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>678</v>
+        <v>539</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>818</v>
+        <v>261</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="J109" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+      <c r="J109" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>107</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>64</v>
+        <v>540</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>67</v>
+        <v>296</v>
       </c>
       <c r="J110" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>108</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>12</v>
+        <v>541</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>809</v>
+        <v>286</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c r="J111" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>109</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>637</v>
+        <v>286</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="J112" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="J112" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>110</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>491</v>
+        <v>543</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>637</v>
+        <v>286</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="J113" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+      <c r="J113" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>111</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>14</v>
+        <v>302</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="J114" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="J114" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>112</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>686</v>
+        <v>545</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="J115" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J115" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>113</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>703</v>
+        <v>306</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>704</v>
+        <v>307</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="G116" s="6"/>
+        <v>286</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J116" s="15" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="117" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>114</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>709</v>
+        <v>568</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>710</v>
+        <v>335</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="G117" s="6"/>
-    </row>
-    <row r="118" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="J117" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>115</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>459</v>
+        <v>566</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>460</v>
+        <v>336</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>620</v>
+        <v>70</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>567</v>
       </c>
       <c r="J118" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>116</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="J119" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G119" s="6"/>
-    </row>
-    <row r="120" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>117</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G120" s="6"/>
-    </row>
-    <row r="121" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="J120" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>696</v>
+        <v>332</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>697</v>
+        <v>333</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G121" s="6"/>
-    </row>
-    <row r="122" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J121" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>119</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>523</v>
+        <v>339</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>14</v>
+        <v>340</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G122" s="6"/>
-    </row>
-    <row r="123" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>120</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>524</v>
+        <v>570</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G123" s="6"/>
-    </row>
-    <row r="124" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="J123" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>121</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>525</v>
+        <v>572</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G124" s="6"/>
-    </row>
-    <row r="125" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J124" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>122</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>163</v>
+        <v>474</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>14</v>
+        <v>475</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J125" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J125" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>123</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>665</v>
+        <v>479</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>666</v>
+        <v>480</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="G126" s="6"/>
-    </row>
-    <row r="127" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J126" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>124</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>189</v>
+        <v>481</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>190</v>
+        <v>482</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>191</v>
+        <v>627</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="J127" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="J127" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>125</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>193</v>
+        <v>487</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>194</v>
+        <v>488</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="J128" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="J128" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>126</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>602</v>
+        <v>489</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>436</v>
+        <v>490</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>195</v>
+        <v>634</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>633</v>
       </c>
       <c r="J129" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>127</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>598</v>
+        <v>876</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="J130" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>801</v>
+      </c>
+      <c r="G130" s="6"/>
+    </row>
+    <row r="131" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>128</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>623</v>
+        <v>485</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>468</v>
+        <v>486</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>625</v>
+        <v>628</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="J131" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>129</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>773</v>
+        <v>483</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>774</v>
+        <v>484</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="G132" s="6"/>
-    </row>
-    <row r="133" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J132" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>130</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>809</v>
+        <v>638</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="J133" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>131</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>150</v>
+        <v>494</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>151</v>
+        <v>495</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="J134" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="J134" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>132</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>137</v>
+        <v>345</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>14</v>
+        <v>346</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="J135" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G135" s="6"/>
+    </row>
+    <row r="136" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>133</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>548</v>
+        <v>347</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="J136" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G136" s="6"/>
+    </row>
+    <row r="137" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>134</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>792</v>
+      <c r="B137" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>742</v>
+        <v>350</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="J137" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G137" s="6"/>
+    </row>
+    <row r="138" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>135</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>538</v>
+        <v>351</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>284</v>
+        <v>352</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="J138" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G138" s="6"/>
+    </row>
+    <row r="139" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>136</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>535</v>
+        <v>353</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="J139" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G139" s="6"/>
+    </row>
+    <row r="140" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>137</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>626</v>
+        <v>355</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>469</v>
+        <v>356</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>805</v>
+        <v>565</v>
       </c>
       <c r="G140" s="6"/>
-      <c r="J140" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>138</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>449</v>
+        <v>357</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>450</v>
+        <v>358</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="J141" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G141" s="6"/>
+    </row>
+    <row r="142" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>139</v>
       </c>
-      <c r="B142" s="13" t="s">
-        <v>472</v>
+      <c r="B142" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>473</v>
+        <v>360</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="J142" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G142" s="6"/>
+    </row>
+    <row r="143" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>140</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>505</v>
+        <v>361</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>14</v>
+        <v>362</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="J143" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G143" s="6"/>
+    </row>
+    <row r="144" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>141</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>142</v>
+        <v>363</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>14</v>
+        <v>364</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J144" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G144" s="6"/>
+    </row>
+    <row r="145" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>142</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>518</v>
+        <v>365</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>14</v>
+        <v>366</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J145" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G145" s="6"/>
+    </row>
+    <row r="146" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>143</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>474</v>
+        <v>367</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>475</v>
+        <v>368</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="J146" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G146" s="6"/>
+    </row>
+    <row r="147" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>144</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>175</v>
+        <v>369</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>14</v>
+        <v>370</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="J147" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G147" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>145</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J148" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G148" s="6"/>
+    </row>
+    <row r="149" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>146</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>109</v>
+        <v>373</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>14</v>
+        <v>374</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J149" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G149" s="6"/>
+    </row>
+    <row r="150" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>147</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>100</v>
+        <v>375</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>14</v>
+        <v>376</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J150" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G150" s="6"/>
+    </row>
+    <row r="151" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>148</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>134</v>
+        <v>377</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>14</v>
+        <v>378</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="J151" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G151" s="6"/>
+    </row>
+    <row r="152" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>149</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="J152" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G152" s="6"/>
+    </row>
+    <row r="153" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>150</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>14</v>
+        <v>382</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G153" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J153" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G153" s="6"/>
+    </row>
+    <row r="154" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>151</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>559</v>
+        <v>383</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="J154" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G154" s="6"/>
+    </row>
+    <row r="155" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>152</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>139</v>
+        <v>385</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>14</v>
+        <v>386</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J155" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G155" s="6"/>
+    </row>
+    <row r="156" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>153</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>114</v>
+        <v>387</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>14</v>
+        <v>388</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J156" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G156" s="6"/>
+    </row>
+    <row r="157" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>154</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>14</v>
+        <v>390</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J157" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G157" s="6"/>
+    </row>
+    <row r="158" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>155</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>14</v>
+        <v>392</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G158" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J158" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G158" s="6"/>
+    </row>
+    <row r="159" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>156</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>507</v>
+        <v>393</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>508</v>
+        <v>394</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="J159" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G159" s="6"/>
+    </row>
+    <row r="160" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>157</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>621</v>
+        <v>395</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>467</v>
+        <v>396</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="J160" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G160" s="6"/>
+    </row>
+    <row r="161" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>158</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>323</v>
+        <v>397</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G161" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="J161" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G161" s="6"/>
+    </row>
+    <row r="162" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>159</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>734</v>
+        <v>399</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>735</v>
+        <v>400</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>829</v>
+        <v>565</v>
       </c>
       <c r="G162" s="6"/>
     </row>
-    <row r="163" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>339</v>
+        <v>401</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G163" s="6"/>
+    </row>
+    <row r="164" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>161</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>711</v>
+        <v>403</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>712</v>
+        <v>404</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>827</v>
+        <v>565</v>
       </c>
       <c r="G164" s="6"/>
     </row>
-    <row r="165" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>162</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>584</v>
+        <v>405</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="J165" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G165" s="6"/>
+    </row>
+    <row r="166" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>163</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>493</v>
+        <v>407</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>494</v>
+        <v>408</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>806</v>
+        <v>565</v>
       </c>
       <c r="G166" s="6"/>
     </row>
-    <row r="167" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>164</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>769</v>
+        <v>409</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>770</v>
+        <v>410</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>812</v>
+        <v>565</v>
       </c>
       <c r="G167" s="6"/>
     </row>
-    <row r="168" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>165</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>692</v>
+        <v>411</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>14</v>
+        <v>412</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="J168" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G168" s="6"/>
+    </row>
+    <row r="169" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>166</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>315</v>
+        <v>413</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>316</v>
+        <v>414</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="J169" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G169" s="6"/>
+    </row>
+    <row r="170" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>167</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>330</v>
+        <v>415</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>14</v>
+        <v>416</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="J170" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G170" s="6"/>
+    </row>
+    <row r="171" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>168</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>285</v>
+        <v>497</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="J171" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="J171" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>169</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>21</v>
+        <v>501</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>14</v>
+        <v>498</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J172" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J172" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>170</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>661</v>
+        <v>502</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>662</v>
+        <v>503</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="J173" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>171</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>658</v>
+        <v>504</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>659</v>
+        <v>505</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="J174" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>172</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>668</v>
+        <v>506</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>745</v>
+        <v>507</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="G175" s="6"/>
-    </row>
-    <row r="176" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="J175" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>173</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>313</v>
+        <v>508</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G176" s="10" t="s">
-        <v>533</v>
+        <v>643</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="J176" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>174</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>577</v>
+        <v>510</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>417</v>
+        <v>511</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>580</v>
+        <v>804</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>579</v>
+        <v>641</v>
       </c>
       <c r="J177" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>175</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>713</v>
+        <v>513</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>714</v>
+        <v>514</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>791</v>
+        <v>634</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>633</v>
       </c>
       <c r="J178" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>176</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>44</v>
+        <v>526</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>41</v>
+        <v>527</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J179" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="G179" s="6"/>
+    </row>
+    <row r="180" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>177</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>593</v>
+        <v>522</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>429</v>
+        <v>525</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="J180" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="G180" s="6"/>
+    </row>
+    <row r="181" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>178</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>14</v>
+        <v>651</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="J181" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+      <c r="G181" s="6"/>
+    </row>
+    <row r="182" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>179</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>25</v>
+        <v>516</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>26</v>
+        <v>517</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J182" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="J182" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>180</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>196</v>
+        <v>519</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>198</v>
+        <v>518</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G183" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="J183" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="G183" s="6"/>
+    </row>
+    <row r="184" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>181</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>181</v>
+        <v>520</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>182</v>
+        <v>523</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G184" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="J184" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="G184" s="6"/>
+    </row>
+    <row r="185" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>182</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>199</v>
+        <v>521</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>200</v>
+        <v>524</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G185" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="J185" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="G185" s="6"/>
+    </row>
+    <row r="186" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>183</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>504</v>
+        <v>652</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>501</v>
+        <v>653</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="J186" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+      <c r="G186" s="6"/>
+    </row>
+    <row r="187" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>184</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>420</v>
+        <v>675</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>421</v>
+        <v>680</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>583</v>
+        <v>813</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>778</v>
       </c>
       <c r="J187" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>185</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>738</v>
+        <v>676</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>739</v>
+        <v>679</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="G188" s="6"/>
-    </row>
-    <row r="189" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>814</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="J188" s="16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>186</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>156</v>
+        <v>677</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>14</v>
+        <v>678</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G189" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J189" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="J189" s="16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>187</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>165</v>
+        <v>683</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>166</v>
+        <v>684</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J190" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>827</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="J190" s="16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>188</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>487</v>
+        <v>685</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>488</v>
+        <v>686</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>633</v>
+        <v>816</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>782</v>
       </c>
       <c r="J191" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>189</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>160</v>
+        <v>687</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>161</v>
+        <v>688</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G192" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J192" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>817</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="J192" s="16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>190</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>724</v>
+        <v>692</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G193" s="6"/>
-    </row>
-    <row r="194" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="J193" s="16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>191</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>453</v>
+        <v>694</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G194" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="J194" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="G194" s="6"/>
+    </row>
+    <row r="195" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>192</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G195" s="6"/>
     </row>
-    <row r="196" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>193</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>607</v>
+        <v>710</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>799</v>
+        <v>711</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G196" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="J196" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>194</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>470</v>
+        <v>738</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>471</v>
+        <v>739</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="G197" s="6"/>
     </row>
-    <row r="198" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>195</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>279</v>
+        <v>774</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>280</v>
+        <v>775</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="J198" s="9"/>
-    </row>
-    <row r="199" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>196</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>606</v>
+        <v>768</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>440</v>
+        <v>769</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>617</v>
+        <v>826</v>
       </c>
       <c r="G199" s="6"/>
     </row>
-    <row r="200" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>197</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>699</v>
+        <v>690</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="G200" s="6"/>
-    </row>
-    <row r="201" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>817</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="J200" s="16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>198</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>698</v>
+        <v>770</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>700</v>
+        <v>771</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="G201" s="6"/>
     </row>
-    <row r="202" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>199</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>596</v>
+        <v>772</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>431</v>
+        <v>773</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="J202" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="G202" s="6"/>
+    </row>
+    <row r="203" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>200</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>33</v>
+        <v>716</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>14</v>
+        <v>717</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J203" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>823</v>
+      </c>
+      <c r="G203" s="6"/>
+    </row>
+    <row r="204" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>201</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>14</v>
+        <v>828</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>819</v>
+        <v>70</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>784</v>
+        <v>829</v>
       </c>
       <c r="J204" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>202</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>655</v>
+        <v>574</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>656</v>
+        <v>417</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G205" s="6"/>
-    </row>
-    <row r="206" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J205" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>203</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>253</v>
+        <v>575</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>254</v>
+        <v>418</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J206" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J206" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>204</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>269</v>
+        <v>420</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>270</v>
+        <v>421</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="J207" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J207" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>205</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>46</v>
+        <v>581</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>14</v>
+        <v>422</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J208" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J208" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>206</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>185</v>
+        <v>423</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>14</v>
+        <v>424</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J209" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="J209" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>207</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>519</v>
+        <v>425</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>14</v>
+        <v>426</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>648</v>
+        <v>585</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
       <c r="J210" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>546</v>
+        <v>831</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>301</v>
+        <v>427</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G211" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="J211" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="J211" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>209</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>619</v>
+        <v>183</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="J212" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>210</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="J213" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>211</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>545</v>
+        <v>592</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>299</v>
+        <v>430</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G214" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="J214" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G214" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="J214" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>212</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>326</v>
+        <v>593</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>327</v>
+        <v>431</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G215" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="J215" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J215" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>213</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>771</v>
+        <v>595</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>772</v>
+        <v>432</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="G216" s="6"/>
-    </row>
-    <row r="217" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="J216" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>214</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>291</v>
+        <v>598</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>292</v>
+        <v>433</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G217" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="J217" s="9"/>
-    </row>
-    <row r="218" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="G217" s="6"/>
+      <c r="J217" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>215</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>541</v>
+        <v>434</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>289</v>
+        <v>435</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G218" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+      <c r="G218" s="6"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>216</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G219" s="10" t="s">
-        <v>570</v>
+        <v>597</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="J219" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>217</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>466</v>
+        <v>477</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G220" s="6"/>
-    </row>
-    <row r="221" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J220" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>218</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>435</v>
+        <v>792</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>437</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G221" s="6"/>
     </row>
-    <row r="222" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>219</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>293</v>
+        <v>438</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="J222" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+      <c r="J222" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>220</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>759</v>
+        <v>600</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>763</v>
+        <v>439</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G223" s="6"/>
-    </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="J223" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>221</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>775</v>
+        <v>603</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>776</v>
+        <v>440</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>804</v>
+        <v>614</v>
       </c>
       <c r="G224" s="6"/>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>222</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>777</v>
+        <v>441</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>778</v>
+        <v>442</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>804</v>
+        <v>170</v>
       </c>
       <c r="G225" s="6"/>
     </row>
-    <row r="226" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>223</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>764</v>
+        <v>443</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>765</v>
+        <v>444</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G226" s="6"/>
-    </row>
-    <row r="227" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J226" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>224</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>779</v>
+        <v>445</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>780</v>
+        <v>446</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G227" s="6"/>
-    </row>
-    <row r="228" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J227" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>225</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>761</v>
+        <v>447</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>760</v>
+        <v>448</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G228" s="6"/>
-    </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J228" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>226</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>544</v>
+        <v>454</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>297</v>
+        <v>455</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G229" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="J229" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+      <c r="G229" s="6"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>227</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>721</v>
+        <v>449</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>722</v>
+        <v>450</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="G230" s="6"/>
-    </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="J230" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>228</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="G231" s="6"/>
-    </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J231" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>229</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>247</v>
+        <v>609</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>248</v>
+        <v>453</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>70</v>
+        <v>611</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="J232" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+      <c r="J232" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>230</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>250</v>
+        <v>874</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>251</v>
+        <v>875</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G233" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="J233" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+      <c r="G233" s="6"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>231</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>653</v>
+        <v>456</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>654</v>
+        <v>457</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>812</v>
+        <v>614</v>
       </c>
       <c r="G234" s="6"/>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>232</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>768</v>
+        <v>613</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>746</v>
+        <v>458</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G235" s="6"/>
-    </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="J235" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>233</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>483</v>
+        <v>766</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>484</v>
+        <v>767</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="G236" s="6"/>
     </row>
-    <row r="237" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>234</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>84</v>
+        <v>459</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>14</v>
+        <v>460</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G237" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J237" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="J237" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>235</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>14</v>
+        <v>462</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G238" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J238" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+      <c r="G238" s="6"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>236</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>90</v>
+        <v>463</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>14</v>
+        <v>464</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G239" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J239" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+      <c r="G239" s="6"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>237</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>36</v>
+        <v>465</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>14</v>
+        <v>466</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G240" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J240" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+      <c r="G240" s="6"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>238</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>118</v>
+        <v>618</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>14</v>
+        <v>467</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>120</v>
+        <v>619</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J241" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+      <c r="J241" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>239</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>172</v>
+        <v>620</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>14</v>
+        <v>468</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>31</v>
+        <v>621</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J242" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+      <c r="J242" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>240</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>147</v>
+        <v>623</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>14</v>
+        <v>469</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G243" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J243" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+      <c r="G243" s="6"/>
+      <c r="J243" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>241</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>122</v>
+        <v>470</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>14</v>
+        <v>471</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G244" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J244" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+      <c r="G244" s="6"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>242</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>128</v>
+      <c r="B245" s="13" t="s">
+        <v>472</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>14</v>
+        <v>473</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G245" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J245" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J245" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>243</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>153</v>
+        <v>658</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>14</v>
+        <v>659</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>19</v>
+        <v>803</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J246" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>244</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>476</v>
+        <v>655</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>14</v>
+        <v>656</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="J247" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>245</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>512</v>
+        <v>662</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>14</v>
+        <v>663</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="J248" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+      <c r="G248" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>246</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>96</v>
+        <v>660</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>97</v>
+        <v>661</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>14</v>
+        <v>800</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G249" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J249" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+      <c r="G249" s="14" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>247</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>649</v>
+        <v>330</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>320</v>
+        <v>664</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="J250" s="16" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="G250" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="J250" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>248</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>75</v>
+        <v>666</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>76</v>
+        <v>667</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>14</v>
+        <v>794</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>58</v>
+        <v>795</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J251" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+      <c r="J251" s="16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>249</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>674</v>
+        <v>808</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>676</v>
+        <v>654</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+      <c r="G252" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J252" s="16" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>250</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>740</v>
+        <v>668</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>741</v>
+        <v>669</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="G253" s="6"/>
+        <v>795</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="J253" s="16" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>251</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>707</v>
+        <v>670</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>708</v>
+        <v>672</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="G254" s="6"/>
-    </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J254" s="16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>252</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>540</v>
+        <v>671</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>288</v>
+        <v>673</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G255" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="J255" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>253</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>536</v>
+        <v>695</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>277</v>
+        <v>696</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G256" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="J256" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>819</v>
+      </c>
+      <c r="G256" s="6"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>254</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>543</v>
+        <v>700</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>295</v>
+        <v>701</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>261</v>
+        <v>820</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="J257" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>255</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>332</v>
+        <v>901</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>14</v>
+        <v>702</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G258" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="J258" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+      <c r="G258" s="6"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>256</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>591</v>
+        <v>902</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>428</v>
+        <v>705</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="J259" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+      <c r="G259" s="6"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>257</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>562</v>
+        <v>698</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>322</v>
+        <v>699</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G260" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="J260" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+      <c r="G260" s="6"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>258</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>595</v>
+        <v>695</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>430</v>
+        <v>697</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G261" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="J261" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>819</v>
+      </c>
+      <c r="G261" s="6"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>259</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>14</v>
+        <v>707</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="J262" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+      <c r="G262" s="6"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>260</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>688</v>
+        <v>708</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>14</v>
+        <v>709</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J263" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>261</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>537</v>
+        <v>712</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>282</v>
+        <v>713</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G264" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J264" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+      <c r="G264" s="6"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>262</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>766</v>
+        <v>714</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>767</v>
+        <v>715</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="G265" s="6"/>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>263</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>50</v>
+        <v>718</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>14</v>
+        <v>719</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G266" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J266" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="G266" s="6"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>264</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>54</v>
+        <v>720</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>14</v>
+        <v>721</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G267" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J267" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+      <c r="G267" s="6"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>265</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>499</v>
+        <v>729</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>14</v>
+        <v>730</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="J268" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>824</v>
+      </c>
+      <c r="G268" s="6"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>266</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>451</v>
+        <v>731</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>624</v>
+        <v>732</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G269" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="J269" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+      <c r="G269" s="6"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>267</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>72</v>
+        <v>733</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>14</v>
+        <v>734</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G270" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J270" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+      <c r="G270" s="6"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>268</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>68</v>
+        <v>665</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>14</v>
+        <v>740</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G271" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J271" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+      <c r="G271" s="6"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>269</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>456</v>
+        <v>735</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>457</v>
+        <v>736</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>617</v>
+        <v>824</v>
       </c>
       <c r="G272" s="6"/>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>270</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>753</v>
+      <c r="B273" s="2" t="s">
+        <v>787</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G273" s="6"/>
-    </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="J273" s="16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>271</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>757</v>
+        <v>725</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G274" s="6"/>
-    </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="J274" s="16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>272</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>758</v>
+        <v>726</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G275" s="6"/>
-    </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="J275" s="16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>273</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>754</v>
+        <v>727</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G276" s="6"/>
-    </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="J276" s="16" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>274</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G277" s="6"/>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>275</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G278" s="6"/>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>276</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>461</v>
+        <v>756</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>462</v>
+        <v>755</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="G279" s="6"/>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>277</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="J280" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+      <c r="G280" s="6"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>278</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>731</v>
+        <v>750</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="J281" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+      <c r="G281" s="6"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>279</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="J282" s="16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+      <c r="G282" s="6"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>280</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>601</v>
+        <v>728</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>799</v>
+        <v>753</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>170</v>
+        <v>807</v>
       </c>
       <c r="G283" s="6"/>
-      <c r="J283" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>281</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>489</v>
+        <v>754</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>14</v>
+        <v>757</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>758</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G284" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="J284" s="16" t="s">
-        <v>532</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="G284" s="6"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>282</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>706</v>
+        <v>764</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>837</v>
+        <v>807</v>
       </c>
       <c r="G285" s="6"/>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>283</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>701</v>
+        <v>763</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>702</v>
+        <v>741</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="G286" s="6"/>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>284</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>547</v>
+        <v>761</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>302</v>
+        <v>762</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G287" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="J287" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="G287" s="6"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>285</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>663</v>
+        <v>759</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>805</v>
+        <v>760</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G288" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="G288" s="6"/>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B289" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E289" s="1" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="289" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="F289" s="1" t="s">
+        <v>807</v>
+      </c>
       <c r="G289" s="6"/>
     </row>
-    <row r="290" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B290" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>807</v>
+      </c>
       <c r="G290" s="6"/>
     </row>
-    <row r="291" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B291" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>839</v>
+      </c>
       <c r="G291" s="6"/>
     </row>
-    <row r="292" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B292" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>840</v>
+      </c>
       <c r="G292" s="6"/>
     </row>
-    <row r="293" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B293" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>842</v>
+      </c>
       <c r="G293" s="6"/>
     </row>
-    <row r="294" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B294" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>843</v>
+      </c>
       <c r="G294" s="6"/>
     </row>
-    <row r="295" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B295" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>844</v>
+      </c>
       <c r="G295" s="6"/>
     </row>
-    <row r="296" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B296" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>845</v>
+      </c>
       <c r="G296" s="6"/>
     </row>
-    <row r="297" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B297" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>846</v>
+      </c>
       <c r="G297" s="6"/>
     </row>
-    <row r="298" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C298" s="1" t="s">
+        <v>847</v>
+      </c>
       <c r="G298" s="6"/>
     </row>
-    <row r="299" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B299" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>848</v>
+      </c>
       <c r="G299" s="6"/>
     </row>
-    <row r="300" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B300" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>849</v>
+      </c>
       <c r="G300" s="6"/>
     </row>
-    <row r="301" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B301" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>850</v>
+      </c>
       <c r="G301" s="6"/>
     </row>
-    <row r="302" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B302" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>851</v>
+      </c>
       <c r="G302" s="6"/>
     </row>
-    <row r="303" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B303" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>897</v>
+      </c>
       <c r="G303" s="6"/>
     </row>
-    <row r="304" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B304" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>872</v>
+      </c>
       <c r="G304" s="6"/>
     </row>
-    <row r="305" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B305" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>873</v>
+      </c>
       <c r="G305" s="6"/>
     </row>
-    <row r="306" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B306" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>873</v>
+      </c>
       <c r="G306" s="6"/>
     </row>
-    <row r="307" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B307" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>873</v>
+      </c>
       <c r="G307" s="6"/>
     </row>
-    <row r="308" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B308" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>873</v>
+      </c>
       <c r="G308" s="6"/>
     </row>
-    <row r="309" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B309" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>879</v>
+      </c>
       <c r="G309" s="6"/>
     </row>
-    <row r="310" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B310" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>896</v>
+      </c>
       <c r="G310" s="6"/>
     </row>
-    <row r="311" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B311" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>896</v>
+      </c>
       <c r="G311" s="6"/>
     </row>
-    <row r="312" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B312" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>895</v>
+      </c>
       <c r="G312" s="6"/>
     </row>
-    <row r="313" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B313" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>898</v>
+      </c>
       <c r="G313" s="6"/>
     </row>
-    <row r="314" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B314" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>899</v>
+      </c>
       <c r="G314" s="6"/>
     </row>
-    <row r="315" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B315" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>900</v>
+      </c>
       <c r="G315" s="6"/>
     </row>
-    <row r="316" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B316" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>900</v>
+      </c>
       <c r="G316" s="6"/>
     </row>
-    <row r="317" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B317" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>895</v>
+      </c>
       <c r="G317" s="6"/>
     </row>
-    <row r="318" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B318" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>895</v>
+      </c>
       <c r="G318" s="6"/>
     </row>
-    <row r="319" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B319" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>909</v>
+      </c>
       <c r="G319" s="6"/>
     </row>
-    <row r="320" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G320" s="6"/>
     </row>
     <row r="321" spans="7:7" x14ac:dyDescent="0.3">
@@ -11774,12 +12294,10 @@
       <c r="G1218" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:K288">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Step-up"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="B3:K316">
+    <sortState ref="B4:K288">
+      <sortCondition ref="C3:C288"/>
+    </sortState>
   </autoFilter>
   <sortState ref="B4:K288">
     <sortCondition ref="B288"/>
@@ -11789,184 +12307,184 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J111" r:id="rId1"/>
-    <hyperlink ref="J107" r:id="rId2"/>
-    <hyperlink ref="J172" r:id="rId3"/>
-    <hyperlink ref="J182" r:id="rId4"/>
-    <hyperlink ref="J61" r:id="rId5"/>
-    <hyperlink ref="J203" r:id="rId6"/>
-    <hyperlink ref="J240" r:id="rId7"/>
-    <hyperlink ref="J69" r:id="rId8"/>
-    <hyperlink ref="J179" r:id="rId9"/>
-    <hyperlink ref="J208" r:id="rId10"/>
-    <hyperlink ref="J266" r:id="rId11"/>
-    <hyperlink ref="J267" r:id="rId12"/>
-    <hyperlink ref="J106" r:id="rId13"/>
-    <hyperlink ref="J108" r:id="rId14"/>
-    <hyperlink ref="J110" r:id="rId15"/>
-    <hyperlink ref="J271" r:id="rId16"/>
-    <hyperlink ref="J270" r:id="rId17"/>
-    <hyperlink ref="J251" r:id="rId18"/>
-    <hyperlink ref="J68" r:id="rId19"/>
-    <hyperlink ref="J238" r:id="rId20"/>
-    <hyperlink ref="J237" r:id="rId21"/>
-    <hyperlink ref="J63" r:id="rId22"/>
-    <hyperlink ref="J239" r:id="rId23"/>
-    <hyperlink ref="J148" r:id="rId24"/>
-    <hyperlink ref="J249" r:id="rId25"/>
-    <hyperlink ref="J150" r:id="rId26"/>
-    <hyperlink ref="J153" r:id="rId27"/>
-    <hyperlink ref="J157" r:id="rId28"/>
-    <hyperlink ref="J149" r:id="rId29"/>
-    <hyperlink ref="J158" r:id="rId30"/>
-    <hyperlink ref="J156" r:id="rId31"/>
-    <hyperlink ref="J241" r:id="rId32"/>
-    <hyperlink ref="J244" r:id="rId33"/>
-    <hyperlink ref="J65" r:id="rId34"/>
-    <hyperlink ref="J245" r:id="rId35"/>
-    <hyperlink ref="J145" r:id="rId36"/>
-    <hyperlink ref="J151" r:id="rId37"/>
-    <hyperlink ref="J135" r:id="rId38"/>
-    <hyperlink ref="J155" r:id="rId39"/>
-    <hyperlink ref="J144" r:id="rId40"/>
-    <hyperlink ref="J59" r:id="rId41"/>
-    <hyperlink ref="J243" r:id="rId42"/>
-    <hyperlink ref="J134" r:id="rId43"/>
-    <hyperlink ref="J246" r:id="rId44"/>
-    <hyperlink ref="J189" r:id="rId45"/>
-    <hyperlink ref="J192" r:id="rId46"/>
-    <hyperlink ref="J125" r:id="rId47"/>
-    <hyperlink ref="J190" r:id="rId48"/>
-    <hyperlink ref="J94" r:id="rId49"/>
-    <hyperlink ref="J242" r:id="rId50"/>
-    <hyperlink ref="J147" r:id="rId51"/>
-    <hyperlink ref="J93" r:id="rId52"/>
-    <hyperlink ref="J184" r:id="rId53"/>
-    <hyperlink ref="J209" r:id="rId54"/>
-    <hyperlink ref="J127" r:id="rId55"/>
-    <hyperlink ref="J128" r:id="rId56"/>
-    <hyperlink ref="J183" r:id="rId57"/>
-    <hyperlink ref="J185" r:id="rId58"/>
-    <hyperlink ref="J86" r:id="rId59"/>
-    <hyperlink ref="J89" r:id="rId60"/>
-    <hyperlink ref="J17" r:id="rId61"/>
-    <hyperlink ref="J24" r:id="rId62"/>
-    <hyperlink ref="J25" r:id="rId63"/>
-    <hyperlink ref="J26" r:id="rId64"/>
-    <hyperlink ref="J37" r:id="rId65"/>
-    <hyperlink ref="J38" r:id="rId66"/>
-    <hyperlink ref="J39" r:id="rId67"/>
-    <hyperlink ref="J96" r:id="rId68"/>
-    <hyperlink ref="J97" r:id="rId69"/>
-    <hyperlink ref="J232" r:id="rId70"/>
-    <hyperlink ref="J233" r:id="rId71"/>
-    <hyperlink ref="J206" r:id="rId72"/>
-    <hyperlink ref="J100" r:id="rId73"/>
-    <hyperlink ref="J91" r:id="rId74"/>
-    <hyperlink ref="J74" r:id="rId75"/>
-    <hyperlink ref="J104" r:id="rId76"/>
-    <hyperlink ref="J207" r:id="rId77"/>
-    <hyperlink ref="J84" r:id="rId78"/>
-    <hyperlink ref="J85" r:id="rId79"/>
-    <hyperlink ref="J76" r:id="rId80"/>
-    <hyperlink ref="J152" r:id="rId81"/>
-    <hyperlink ref="J161" r:id="rId82"/>
-    <hyperlink ref="J215" r:id="rId83"/>
-    <hyperlink ref="J170" r:id="rId84"/>
-    <hyperlink ref="J258" r:id="rId85"/>
-    <hyperlink ref="J176" r:id="rId86"/>
-    <hyperlink ref="J105" r:id="rId87"/>
-    <hyperlink ref="J139" r:id="rId88"/>
-    <hyperlink ref="J256" r:id="rId89"/>
-    <hyperlink ref="J264" r:id="rId90"/>
-    <hyperlink ref="J138" r:id="rId91"/>
-    <hyperlink ref="J171" r:id="rId92"/>
-    <hyperlink ref="J255" r:id="rId93"/>
-    <hyperlink ref="J222" r:id="rId94"/>
-    <hyperlink ref="J257" r:id="rId95"/>
-    <hyperlink ref="J229" r:id="rId96"/>
-    <hyperlink ref="J214" r:id="rId97"/>
-    <hyperlink ref="J211" r:id="rId98"/>
-    <hyperlink ref="J287" r:id="rId99"/>
-    <hyperlink ref="J136" r:id="rId100"/>
-    <hyperlink ref="J169" r:id="rId101"/>
-    <hyperlink ref="J114" r:id="rId102"/>
-    <hyperlink ref="J154" r:id="rId103"/>
-    <hyperlink ref="J260" r:id="rId104"/>
-    <hyperlink ref="J41" r:id="rId105"/>
-    <hyperlink ref="J99" r:id="rId106"/>
-    <hyperlink ref="J219" r:id="rId107"/>
-    <hyperlink ref="J98" r:id="rId108"/>
-    <hyperlink ref="J34" r:id="rId109"/>
-    <hyperlink ref="J35" r:id="rId110"/>
-    <hyperlink ref="J177" r:id="rId111"/>
-    <hyperlink ref="J213" r:id="rId112"/>
-    <hyperlink ref="J187" r:id="rId113"/>
-    <hyperlink ref="J165" r:id="rId114"/>
-    <hyperlink ref="J103" r:id="rId115"/>
-    <hyperlink ref="J102" r:id="rId116"/>
-    <hyperlink ref="J42" r:id="rId117"/>
-    <hyperlink ref="J259" r:id="rId118"/>
-    <hyperlink ref="J180" r:id="rId119"/>
-    <hyperlink ref="J261" r:id="rId120"/>
-    <hyperlink ref="J202" r:id="rId121"/>
-    <hyperlink ref="J130" r:id="rId122"/>
-    <hyperlink ref="J283" r:id="rId123"/>
-    <hyperlink ref="J129" r:id="rId124"/>
-    <hyperlink ref="J101" r:id="rId125"/>
-    <hyperlink ref="J196" r:id="rId126"/>
-    <hyperlink ref="J141" r:id="rId127"/>
-    <hyperlink ref="J269" r:id="rId128"/>
-    <hyperlink ref="J194" r:id="rId129"/>
-    <hyperlink ref="J212" r:id="rId130"/>
-    <hyperlink ref="J118" r:id="rId131"/>
-    <hyperlink ref="J160" r:id="rId132"/>
-    <hyperlink ref="J131" r:id="rId133"/>
-    <hyperlink ref="J140" r:id="rId134"/>
-    <hyperlink ref="J142" r:id="rId135"/>
-    <hyperlink ref="J146" r:id="rId136"/>
-    <hyperlink ref="J247" r:id="rId137"/>
-    <hyperlink ref="J66" r:id="rId138"/>
-    <hyperlink ref="J87" r:id="rId139"/>
-    <hyperlink ref="J67" r:id="rId140"/>
-    <hyperlink ref="J191" r:id="rId141"/>
-    <hyperlink ref="J284" r:id="rId142"/>
-    <hyperlink ref="J113" r:id="rId143"/>
-    <hyperlink ref="J62" r:id="rId144"/>
-    <hyperlink ref="J64" r:id="rId145"/>
-    <hyperlink ref="J268" r:id="rId146"/>
-    <hyperlink ref="J186" r:id="rId147"/>
-    <hyperlink ref="J143" r:id="rId148"/>
-    <hyperlink ref="J159" r:id="rId149"/>
-    <hyperlink ref="J60" r:id="rId150"/>
-    <hyperlink ref="J133" r:id="rId151"/>
-    <hyperlink ref="J248" r:id="rId152"/>
-    <hyperlink ref="J112" r:id="rId153"/>
-    <hyperlink ref="J210" r:id="rId154"/>
-    <hyperlink ref="J250" r:id="rId155"/>
-    <hyperlink ref="J90" r:id="rId156"/>
-    <hyperlink ref="J78" r:id="rId157"/>
-    <hyperlink ref="J77" r:id="rId158"/>
-    <hyperlink ref="J109" r:id="rId159"/>
-    <hyperlink ref="J204" r:id="rId160"/>
-    <hyperlink ref="J30" r:id="rId161"/>
-    <hyperlink ref="J115" r:id="rId162"/>
-    <hyperlink ref="J263" r:id="rId163"/>
-    <hyperlink ref="J181" r:id="rId164"/>
-    <hyperlink ref="J168" r:id="rId165"/>
-    <hyperlink ref="J262" r:id="rId166"/>
-    <hyperlink ref="J178" r:id="rId167"/>
-    <hyperlink ref="J280" r:id="rId168"/>
-    <hyperlink ref="J281" r:id="rId169"/>
-    <hyperlink ref="J282" r:id="rId170"/>
-    <hyperlink ref="J137" r:id="rId171"/>
+    <hyperlink ref="J4" r:id="rId1"/>
+    <hyperlink ref="J5" r:id="rId2"/>
+    <hyperlink ref="J6" r:id="rId3"/>
+    <hyperlink ref="J7" r:id="rId4"/>
+    <hyperlink ref="J8" r:id="rId5"/>
+    <hyperlink ref="J9" r:id="rId6"/>
+    <hyperlink ref="J10" r:id="rId7"/>
+    <hyperlink ref="J11" r:id="rId8"/>
+    <hyperlink ref="J12" r:id="rId9"/>
+    <hyperlink ref="J13" r:id="rId10"/>
+    <hyperlink ref="J14" r:id="rId11"/>
+    <hyperlink ref="J15" r:id="rId12"/>
+    <hyperlink ref="J16" r:id="rId13"/>
+    <hyperlink ref="J17" r:id="rId14"/>
+    <hyperlink ref="J18" r:id="rId15"/>
+    <hyperlink ref="J19" r:id="rId16"/>
+    <hyperlink ref="J20" r:id="rId17"/>
+    <hyperlink ref="J21" r:id="rId18"/>
+    <hyperlink ref="J22" r:id="rId19"/>
+    <hyperlink ref="J23" r:id="rId20"/>
+    <hyperlink ref="J24" r:id="rId21"/>
+    <hyperlink ref="J25" r:id="rId22"/>
+    <hyperlink ref="J26" r:id="rId23"/>
+    <hyperlink ref="J27" r:id="rId24"/>
+    <hyperlink ref="J28" r:id="rId25"/>
+    <hyperlink ref="J29" r:id="rId26"/>
+    <hyperlink ref="J30" r:id="rId27"/>
+    <hyperlink ref="J31" r:id="rId28"/>
+    <hyperlink ref="J32" r:id="rId29"/>
+    <hyperlink ref="J33" r:id="rId30"/>
+    <hyperlink ref="J34" r:id="rId31"/>
+    <hyperlink ref="J35" r:id="rId32"/>
+    <hyperlink ref="J36" r:id="rId33"/>
+    <hyperlink ref="J37" r:id="rId34"/>
+    <hyperlink ref="J38" r:id="rId35"/>
+    <hyperlink ref="J39" r:id="rId36"/>
+    <hyperlink ref="J40" r:id="rId37"/>
+    <hyperlink ref="J41" r:id="rId38"/>
+    <hyperlink ref="J42" r:id="rId39"/>
+    <hyperlink ref="J43" r:id="rId40"/>
+    <hyperlink ref="J44" r:id="rId41"/>
+    <hyperlink ref="J45" r:id="rId42"/>
+    <hyperlink ref="J46" r:id="rId43"/>
+    <hyperlink ref="J47" r:id="rId44"/>
+    <hyperlink ref="J48" r:id="rId45"/>
+    <hyperlink ref="J49" r:id="rId46"/>
+    <hyperlink ref="J50" r:id="rId47"/>
+    <hyperlink ref="J51" r:id="rId48"/>
+    <hyperlink ref="J52" r:id="rId49"/>
+    <hyperlink ref="J53" r:id="rId50"/>
+    <hyperlink ref="J54" r:id="rId51"/>
+    <hyperlink ref="J55" r:id="rId52"/>
+    <hyperlink ref="J56" r:id="rId53"/>
+    <hyperlink ref="J57" r:id="rId54"/>
+    <hyperlink ref="J58" r:id="rId55"/>
+    <hyperlink ref="J59" r:id="rId56"/>
+    <hyperlink ref="J60" r:id="rId57"/>
+    <hyperlink ref="J61" r:id="rId58"/>
+    <hyperlink ref="J62" r:id="rId59"/>
+    <hyperlink ref="J63" r:id="rId60"/>
+    <hyperlink ref="J65" r:id="rId61"/>
+    <hyperlink ref="J72" r:id="rId62"/>
+    <hyperlink ref="J73" r:id="rId63"/>
+    <hyperlink ref="J74" r:id="rId64"/>
+    <hyperlink ref="J75" r:id="rId65"/>
+    <hyperlink ref="J76" r:id="rId66"/>
+    <hyperlink ref="J77" r:id="rId67"/>
+    <hyperlink ref="J78" r:id="rId68"/>
+    <hyperlink ref="J79" r:id="rId69"/>
+    <hyperlink ref="J80" r:id="rId70"/>
+    <hyperlink ref="J81" r:id="rId71"/>
+    <hyperlink ref="J82" r:id="rId72"/>
+    <hyperlink ref="J83" r:id="rId73"/>
+    <hyperlink ref="J85" r:id="rId74"/>
+    <hyperlink ref="J86" r:id="rId75"/>
+    <hyperlink ref="J87" r:id="rId76"/>
+    <hyperlink ref="J88" r:id="rId77"/>
+    <hyperlink ref="J93" r:id="rId78"/>
+    <hyperlink ref="J94" r:id="rId79"/>
+    <hyperlink ref="J116" r:id="rId80"/>
+    <hyperlink ref="J84" r:id="rId81"/>
+    <hyperlink ref="J98" r:id="rId82"/>
+    <hyperlink ref="J99" r:id="rId83"/>
+    <hyperlink ref="J250" r:id="rId84"/>
+    <hyperlink ref="J121" r:id="rId85"/>
+    <hyperlink ref="J89" r:id="rId86"/>
+    <hyperlink ref="J90" r:id="rId87"/>
+    <hyperlink ref="J102" r:id="rId88"/>
+    <hyperlink ref="J100" r:id="rId89"/>
+    <hyperlink ref="J103" r:id="rId90"/>
+    <hyperlink ref="J104" r:id="rId91"/>
+    <hyperlink ref="J105" r:id="rId92"/>
+    <hyperlink ref="J106" r:id="rId93"/>
+    <hyperlink ref="J109" r:id="rId94"/>
+    <hyperlink ref="J110" r:id="rId95"/>
+    <hyperlink ref="J111" r:id="rId96"/>
+    <hyperlink ref="J112" r:id="rId97"/>
+    <hyperlink ref="J113" r:id="rId98"/>
+    <hyperlink ref="J114" r:id="rId99"/>
+    <hyperlink ref="J115" r:id="rId100"/>
+    <hyperlink ref="J91" r:id="rId101"/>
+    <hyperlink ref="J92" r:id="rId102"/>
+    <hyperlink ref="J96" r:id="rId103"/>
+    <hyperlink ref="J97" r:id="rId104"/>
+    <hyperlink ref="J120" r:id="rId105"/>
+    <hyperlink ref="J119" r:id="rId106"/>
+    <hyperlink ref="J118" r:id="rId107"/>
+    <hyperlink ref="J117" r:id="rId108"/>
+    <hyperlink ref="J123" r:id="rId109"/>
+    <hyperlink ref="J124" r:id="rId110"/>
+    <hyperlink ref="J205" r:id="rId111"/>
+    <hyperlink ref="J206" r:id="rId112"/>
+    <hyperlink ref="J207" r:id="rId113"/>
+    <hyperlink ref="J208" r:id="rId114"/>
+    <hyperlink ref="J209" r:id="rId115"/>
+    <hyperlink ref="J210" r:id="rId116"/>
+    <hyperlink ref="J211" r:id="rId117"/>
+    <hyperlink ref="J212" r:id="rId118"/>
+    <hyperlink ref="J213" r:id="rId119"/>
+    <hyperlink ref="J214" r:id="rId120"/>
+    <hyperlink ref="J215" r:id="rId121"/>
+    <hyperlink ref="J216" r:id="rId122"/>
+    <hyperlink ref="J217" r:id="rId123"/>
+    <hyperlink ref="J219" r:id="rId124"/>
+    <hyperlink ref="J223" r:id="rId125"/>
+    <hyperlink ref="J222" r:id="rId126"/>
+    <hyperlink ref="J230" r:id="rId127"/>
+    <hyperlink ref="J231" r:id="rId128"/>
+    <hyperlink ref="J232" r:id="rId129"/>
+    <hyperlink ref="J235" r:id="rId130"/>
+    <hyperlink ref="J237" r:id="rId131"/>
+    <hyperlink ref="J241" r:id="rId132"/>
+    <hyperlink ref="J242" r:id="rId133"/>
+    <hyperlink ref="J243" r:id="rId134"/>
+    <hyperlink ref="J245" r:id="rId135"/>
+    <hyperlink ref="J125" r:id="rId136"/>
+    <hyperlink ref="J220" r:id="rId137"/>
+    <hyperlink ref="J126" r:id="rId138"/>
+    <hyperlink ref="J127" r:id="rId139"/>
+    <hyperlink ref="J132" r:id="rId140"/>
+    <hyperlink ref="J131" r:id="rId141"/>
+    <hyperlink ref="J128" r:id="rId142"/>
+    <hyperlink ref="J129" r:id="rId143"/>
+    <hyperlink ref="J133" r:id="rId144"/>
+    <hyperlink ref="J134" r:id="rId145"/>
+    <hyperlink ref="J171" r:id="rId146"/>
+    <hyperlink ref="J172" r:id="rId147"/>
+    <hyperlink ref="J173" r:id="rId148"/>
+    <hyperlink ref="J174" r:id="rId149"/>
+    <hyperlink ref="J175" r:id="rId150"/>
+    <hyperlink ref="J177" r:id="rId151"/>
+    <hyperlink ref="J176" r:id="rId152"/>
+    <hyperlink ref="J178" r:id="rId153"/>
+    <hyperlink ref="J182" r:id="rId154"/>
+    <hyperlink ref="J95" r:id="rId155"/>
+    <hyperlink ref="J253" r:id="rId156"/>
+    <hyperlink ref="J251" r:id="rId157"/>
+    <hyperlink ref="J254" r:id="rId158"/>
+    <hyperlink ref="J187" r:id="rId159"/>
+    <hyperlink ref="J188" r:id="rId160"/>
+    <hyperlink ref="J189" r:id="rId161"/>
+    <hyperlink ref="J190" r:id="rId162"/>
+    <hyperlink ref="J191" r:id="rId163"/>
+    <hyperlink ref="J192" r:id="rId164"/>
+    <hyperlink ref="J200" r:id="rId165"/>
+    <hyperlink ref="J193" r:id="rId166"/>
+    <hyperlink ref="J263" r:id="rId167"/>
+    <hyperlink ref="J274" r:id="rId168"/>
+    <hyperlink ref="J275" r:id="rId169"/>
+    <hyperlink ref="J276" r:id="rId170"/>
+    <hyperlink ref="J273" r:id="rId171"/>
     <hyperlink ref="J18:J23" r:id="rId172" display="FILE"/>
-    <hyperlink ref="J88" r:id="rId173"/>
-    <hyperlink ref="J79" r:id="rId174"/>
-    <hyperlink ref="J81" r:id="rId175"/>
-    <hyperlink ref="J82" r:id="rId176"/>
-    <hyperlink ref="J83" r:id="rId177"/>
-    <hyperlink ref="J36" r:id="rId178"/>
+    <hyperlink ref="J64" r:id="rId173"/>
+    <hyperlink ref="J226" r:id="rId174"/>
+    <hyperlink ref="J228" r:id="rId175"/>
+    <hyperlink ref="J227" r:id="rId176"/>
+    <hyperlink ref="J252" r:id="rId177"/>
+    <hyperlink ref="J204" r:id="rId178"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId179"/>

--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$K$316</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$K$315</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="909">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -2867,9 +2867,6 @@
   </si>
   <si>
     <t>A14-07</t>
-  </si>
-  <si>
-    <t>A14-08</t>
   </si>
   <si>
     <t>A14-09</t>
@@ -3615,11 +3612,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ1218"/>
+  <dimension ref="A1:AMJ1217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B304" sqref="B304"/>
+      <pane ySplit="3" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B298" sqref="A298:XFD298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -6431,7 +6428,7 @@
         <v>127</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>491</v>
@@ -8308,10 +8305,10 @@
         <v>230</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>875</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>803</v>
@@ -8574,7 +8571,7 @@
         <v>803</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -8755,7 +8752,7 @@
         <v>820</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -8763,7 +8760,7 @@
         <v>255</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>702</v>
@@ -8778,7 +8775,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>705</v>
@@ -9319,7 +9316,7 @@
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B294" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>843</v>
@@ -9328,7 +9325,7 @@
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B295" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>844</v>
@@ -9337,7 +9334,7 @@
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B296" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>845</v>
@@ -9346,7 +9343,7 @@
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B297" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>846</v>
@@ -9354,6 +9351,9 @@
       <c r="G297" s="6"/>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B298" s="1" t="s">
+        <v>859</v>
+      </c>
       <c r="C298" s="1" t="s">
         <v>847</v>
       </c>
@@ -9393,17 +9393,20 @@
       <c r="C302" s="1" t="s">
         <v>851</v>
       </c>
+      <c r="F302" s="1" t="s">
+        <v>896</v>
+      </c>
       <c r="G302" s="6"/>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B303" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>852</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>897</v>
+        <v>871</v>
       </c>
       <c r="G303" s="6"/>
     </row>
@@ -9427,7 +9430,7 @@
         <v>854</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G305" s="6"/>
     </row>
@@ -9436,10 +9439,10 @@
         <v>869</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G306" s="6"/>
     </row>
@@ -9451,19 +9454,19 @@
         <v>865</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G307" s="6"/>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B308" s="1" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="G308" s="6"/>
     </row>
@@ -9472,55 +9475,55 @@
         <v>880</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="G309" s="6"/>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B310" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G310" s="6"/>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B311" s="1" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>884</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G311" s="6"/>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B312" s="1" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>885</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="G312" s="6"/>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B313" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>898</v>
@@ -9529,10 +9532,10 @@
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B314" s="1" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>899</v>
@@ -9547,53 +9550,44 @@
         <v>892</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G315" s="6"/>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B316" s="1" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G316" s="6"/>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B317" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G317" s="6"/>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B318" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
       <c r="G318" s="6"/>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B319" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>909</v>
-      </c>
       <c r="G319" s="6"/>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.3">
@@ -12290,11 +12284,8 @@
     <row r="1217" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G1217" s="6"/>
     </row>
-    <row r="1218" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1218" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B3:K316">
+  <autoFilter ref="B3:K315">
     <sortState ref="B4:K288">
       <sortCondition ref="C3:C288"/>
     </sortState>

--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="906">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -2083,19 +2083,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SN74LS48J</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>QUADRUPLE 2 INPUT NOR GATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCD to Seven Segment Decoder/Driver</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3615,8 +3603,8 @@
   <dimension ref="A1:AMJ1217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B298" sqref="A298:XFD298"/>
+      <pane ySplit="3" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3699,7 +3687,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>15</v>
@@ -4458,7 +4446,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>127</v>
@@ -5033,7 +5021,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>202</v>
@@ -5334,7 +5322,7 @@
         <v>237</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>70</v>
@@ -5357,7 +5345,7 @@
         <v>240</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>70</v>
@@ -5526,7 +5514,7 @@
         <v>262</v>
       </c>
       <c r="J85" s="15" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5683,7 +5671,7 @@
         <v>273</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>170</v>
@@ -5706,7 +5694,7 @@
         <v>276</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>170</v>
@@ -5722,21 +5710,11 @@
       <c r="A95" s="4">
         <v>92</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="C95" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="J95" s="16" t="s">
-        <v>647</v>
-      </c>
+      <c r="G95" s="1"/>
+      <c r="J95" s="16"/>
     </row>
     <row r="96" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
@@ -6428,13 +6406,13 @@
         <v>127</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>491</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G130" s="6"/>
     </row>
@@ -7129,10 +7107,10 @@
         <v>14</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J173" s="16" t="s">
         <v>529</v>
@@ -7175,7 +7153,7 @@
         <v>14</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>641</v>
@@ -7221,7 +7199,7 @@
         <v>14</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>641</v>
@@ -7267,7 +7245,7 @@
         <v>14</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G179" s="6"/>
     </row>
@@ -7285,7 +7263,7 @@
         <v>14</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G180" s="6"/>
     </row>
@@ -7294,13 +7272,13 @@
         <v>178</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G181" s="6"/>
     </row>
@@ -7341,7 +7319,7 @@
         <v>14</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G183" s="6"/>
     </row>
@@ -7359,7 +7337,7 @@
         <v>14</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G184" s="6"/>
     </row>
@@ -7377,7 +7355,7 @@
         <v>14</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G185" s="6"/>
     </row>
@@ -7386,13 +7364,13 @@
         <v>183</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G186" s="6"/>
     </row>
@@ -7401,22 +7379,22 @@
         <v>184</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="J187" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7424,22 +7402,22 @@
         <v>185</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="J188" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7447,19 +7425,19 @@
         <v>186</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="J189" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7467,22 +7445,22 @@
         <v>187</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="J190" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7490,22 +7468,22 @@
         <v>188</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="J191" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7513,22 +7491,22 @@
         <v>189</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="J192" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7536,22 +7514,22 @@
         <v>190</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="J193" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7559,16 +7537,16 @@
         <v>191</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G194" s="6"/>
     </row>
@@ -7577,13 +7555,13 @@
         <v>192</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="G195" s="6"/>
     </row>
@@ -7592,13 +7570,13 @@
         <v>193</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7606,13 +7584,13 @@
         <v>194</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="G197" s="6"/>
     </row>
@@ -7621,13 +7599,13 @@
         <v>195</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G198" s="6"/>
     </row>
@@ -7636,13 +7614,13 @@
         <v>196</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="G199" s="6"/>
     </row>
@@ -7651,22 +7629,22 @@
         <v>197</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="J200" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7674,13 +7652,13 @@
         <v>198</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G201" s="6"/>
     </row>
@@ -7689,13 +7667,13 @@
         <v>199</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G202" s="6"/>
     </row>
@@ -7704,13 +7682,13 @@
         <v>200</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G203" s="6"/>
     </row>
@@ -7719,22 +7697,22 @@
         <v>201</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="J204" s="16" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7865,7 +7843,7 @@
         <v>208</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>427</v>
@@ -7991,7 +7969,7 @@
         <v>433</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>170</v>
@@ -8067,7 +8045,7 @@
         <v>218</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>437</v>
@@ -8088,7 +8066,7 @@
         <v>438</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>170</v>
@@ -8146,7 +8124,7 @@
         <v>442</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>170</v>
@@ -8164,7 +8142,7 @@
         <v>444</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>170</v>
@@ -8187,7 +8165,7 @@
         <v>446</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>170</v>
@@ -8210,7 +8188,7 @@
         <v>448</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>170</v>
@@ -8305,13 +8283,13 @@
         <v>230</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G233" s="6"/>
     </row>
@@ -8355,13 +8333,13 @@
         <v>233</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G236" s="6"/>
     </row>
@@ -8396,7 +8374,7 @@
         <v>462</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G238" s="6"/>
     </row>
@@ -8411,7 +8389,7 @@
         <v>464</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G239" s="6"/>
     </row>
@@ -8444,7 +8422,7 @@
         <v>619</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="J241" s="16" t="s">
         <v>529</v>
@@ -8481,7 +8459,7 @@
         <v>469</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G243" s="6"/>
       <c r="J243" s="16" t="s">
@@ -8499,7 +8477,7 @@
         <v>471</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G244" s="6"/>
     </row>
@@ -8528,16 +8506,16 @@
         <v>243</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -8545,16 +8523,16 @@
         <v>244</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -8562,16 +8540,16 @@
         <v>245</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -8579,19 +8557,19 @@
         <v>246</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G249" s="14" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -8602,7 +8580,7 @@
         <v>330</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>14</v>
@@ -8622,22 +8600,22 @@
         <v>248</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E251" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="G251" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="F251" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="G251" s="6" t="s">
-        <v>797</v>
-      </c>
       <c r="J251" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -8645,22 +8623,22 @@
         <v>249</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="G252" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="G252" s="6" t="s">
-        <v>811</v>
-      </c>
       <c r="J252" s="16" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -8668,22 +8646,22 @@
         <v>250</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="J253" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -8691,22 +8669,22 @@
         <v>251</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="J254" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -8714,13 +8692,13 @@
         <v>252</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -8728,13 +8706,13 @@
         <v>253</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G256" s="6"/>
     </row>
@@ -8743,16 +8721,16 @@
         <v>254</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -8760,13 +8738,13 @@
         <v>255</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G258" s="6"/>
     </row>
@@ -8775,13 +8753,13 @@
         <v>256</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G259" s="6"/>
     </row>
@@ -8790,13 +8768,13 @@
         <v>257</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G260" s="6"/>
     </row>
@@ -8805,13 +8783,13 @@
         <v>258</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G261" s="6"/>
     </row>
@@ -8820,13 +8798,13 @@
         <v>259</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G262" s="6"/>
     </row>
@@ -8835,19 +8813,19 @@
         <v>260</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="J263" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -8855,13 +8833,13 @@
         <v>261</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G264" s="6"/>
     </row>
@@ -8870,13 +8848,13 @@
         <v>262</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G265" s="6"/>
     </row>
@@ -8885,13 +8863,13 @@
         <v>263</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G266" s="6"/>
     </row>
@@ -8900,13 +8878,13 @@
         <v>264</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G267" s="6"/>
     </row>
@@ -8915,13 +8893,13 @@
         <v>265</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G268" s="6"/>
     </row>
@@ -8930,13 +8908,13 @@
         <v>266</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G269" s="6"/>
     </row>
@@ -8945,13 +8923,13 @@
         <v>267</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G270" s="6"/>
     </row>
@@ -8960,13 +8938,13 @@
         <v>268</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G271" s="6"/>
     </row>
@@ -8975,13 +8953,13 @@
         <v>269</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G272" s="6"/>
     </row>
@@ -8990,19 +8968,19 @@
         <v>270</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="J273" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -9010,19 +8988,19 @@
         <v>271</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>725</v>
-      </c>
       <c r="F274" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="J274" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -9030,19 +9008,19 @@
         <v>272</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="F275" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="J275" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -9050,19 +9028,19 @@
         <v>273</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C276" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="F276" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="J276" s="16" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -9070,16 +9048,16 @@
         <v>274</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G277" s="6"/>
     </row>
@@ -9088,16 +9066,16 @@
         <v>275</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>745</v>
-      </c>
       <c r="D278" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G278" s="6"/>
     </row>
@@ -9106,13 +9084,13 @@
         <v>276</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G279" s="6"/>
     </row>
@@ -9121,13 +9099,13 @@
         <v>277</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G280" s="6"/>
     </row>
@@ -9136,16 +9114,16 @@
         <v>278</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D281" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>751</v>
-      </c>
       <c r="F281" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G281" s="6"/>
     </row>
@@ -9154,13 +9132,13 @@
         <v>279</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G282" s="6"/>
     </row>
@@ -9169,13 +9147,13 @@
         <v>280</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G283" s="6"/>
     </row>
@@ -9184,16 +9162,16 @@
         <v>281</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>757</v>
-      </c>
       <c r="D284" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G284" s="6"/>
     </row>
@@ -9202,13 +9180,13 @@
         <v>282</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G285" s="6"/>
     </row>
@@ -9217,13 +9195,13 @@
         <v>283</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G286" s="6"/>
     </row>
@@ -9232,13 +9210,13 @@
         <v>284</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G287" s="6"/>
     </row>
@@ -9247,343 +9225,343 @@
         <v>285</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G288" s="6"/>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B289" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G289" s="6"/>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B290" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G290" s="6"/>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B291" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="G291" s="6"/>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B292" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G292" s="6"/>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B293" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G293" s="6"/>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B294" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="G294" s="6"/>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B295" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G295" s="6"/>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B296" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G296" s="6"/>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B297" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G297" s="6"/>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B298" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="G298" s="6"/>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B299" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G299" s="6"/>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B300" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="G300" s="6"/>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B301" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G301" s="6"/>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B302" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G302" s="6"/>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B303" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G303" s="6"/>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B304" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G304" s="6"/>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B305" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G305" s="6"/>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B306" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F306" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="F306" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="G306" s="6"/>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B307" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G307" s="6"/>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B308" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G308" s="6"/>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B309" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="G309" s="6"/>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B310" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="G310" s="6"/>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B311" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G311" s="6"/>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B312" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G312" s="6"/>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B313" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G313" s="6"/>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B314" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G314" s="6"/>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B315" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G315" s="6"/>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B316" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G316" s="6"/>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B317" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G317" s="6"/>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B318" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G318" s="6"/>
     </row>
@@ -12452,32 +12430,31 @@
     <hyperlink ref="J176" r:id="rId152"/>
     <hyperlink ref="J178" r:id="rId153"/>
     <hyperlink ref="J182" r:id="rId154"/>
-    <hyperlink ref="J95" r:id="rId155"/>
-    <hyperlink ref="J253" r:id="rId156"/>
-    <hyperlink ref="J251" r:id="rId157"/>
-    <hyperlink ref="J254" r:id="rId158"/>
-    <hyperlink ref="J187" r:id="rId159"/>
-    <hyperlink ref="J188" r:id="rId160"/>
-    <hyperlink ref="J189" r:id="rId161"/>
-    <hyperlink ref="J190" r:id="rId162"/>
-    <hyperlink ref="J191" r:id="rId163"/>
-    <hyperlink ref="J192" r:id="rId164"/>
-    <hyperlink ref="J200" r:id="rId165"/>
-    <hyperlink ref="J193" r:id="rId166"/>
-    <hyperlink ref="J263" r:id="rId167"/>
-    <hyperlink ref="J274" r:id="rId168"/>
-    <hyperlink ref="J275" r:id="rId169"/>
-    <hyperlink ref="J276" r:id="rId170"/>
-    <hyperlink ref="J273" r:id="rId171"/>
-    <hyperlink ref="J18:J23" r:id="rId172" display="FILE"/>
-    <hyperlink ref="J64" r:id="rId173"/>
-    <hyperlink ref="J226" r:id="rId174"/>
-    <hyperlink ref="J228" r:id="rId175"/>
-    <hyperlink ref="J227" r:id="rId176"/>
-    <hyperlink ref="J252" r:id="rId177"/>
-    <hyperlink ref="J204" r:id="rId178"/>
+    <hyperlink ref="J253" r:id="rId155"/>
+    <hyperlink ref="J251" r:id="rId156"/>
+    <hyperlink ref="J254" r:id="rId157"/>
+    <hyperlink ref="J187" r:id="rId158"/>
+    <hyperlink ref="J188" r:id="rId159"/>
+    <hyperlink ref="J189" r:id="rId160"/>
+    <hyperlink ref="J190" r:id="rId161"/>
+    <hyperlink ref="J191" r:id="rId162"/>
+    <hyperlink ref="J192" r:id="rId163"/>
+    <hyperlink ref="J200" r:id="rId164"/>
+    <hyperlink ref="J193" r:id="rId165"/>
+    <hyperlink ref="J263" r:id="rId166"/>
+    <hyperlink ref="J274" r:id="rId167"/>
+    <hyperlink ref="J275" r:id="rId168"/>
+    <hyperlink ref="J276" r:id="rId169"/>
+    <hyperlink ref="J273" r:id="rId170"/>
+    <hyperlink ref="J18:J23" r:id="rId171" display="FILE"/>
+    <hyperlink ref="J64" r:id="rId172"/>
+    <hyperlink ref="J226" r:id="rId173"/>
+    <hyperlink ref="J228" r:id="rId174"/>
+    <hyperlink ref="J227" r:id="rId175"/>
+    <hyperlink ref="J252" r:id="rId176"/>
+    <hyperlink ref="J204" r:id="rId177"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId179"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId178"/>
 </worksheet>
 </file>
--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROCESSOR\Desktop\Justin\datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Documents\workspace\datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA56B43-09A3-41D9-9952-8B26CC567B02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$K$315</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$K$318</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="914">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -3092,13 +3093,44 @@
   </si>
   <si>
     <t>B07-07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD74LS73AP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A16-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flip-Flop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dual J-K Flip-Flops (with Preset, Common Clear, and Common Clock)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSCILLATOR</t>
+  </si>
+  <si>
+    <t>MODULE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voltage Regulator</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월 &quot;dd&quot;일&quot;"/>
   </numFmts>
@@ -3195,7 +3227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3250,9 +3282,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Text 1" xfId="2"/>
+    <cellStyle name="Text 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -3599,12 +3634,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ1217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K94" sqref="K94"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G322" sqref="G322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3614,7 +3649,7 @@
     <col min="3" max="4" width="8.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="73.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="77.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="6.25" style="4" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="4" customWidth="1"/>
@@ -9235,7 +9270,10 @@
       </c>
       <c r="G288" s="6"/>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" s="4">
+        <v>286</v>
+      </c>
       <c r="B289" s="1" t="s">
         <v>830</v>
       </c>
@@ -9250,7 +9288,10 @@
       </c>
       <c r="G289" s="6"/>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A290" s="4">
+        <v>287</v>
+      </c>
       <c r="B290" s="1" t="s">
         <v>833</v>
       </c>
@@ -9265,106 +9306,181 @@
       </c>
       <c r="G290" s="6"/>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A291" s="4">
+        <v>288</v>
+      </c>
       <c r="B291" s="1" t="s">
         <v>834</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>836</v>
       </c>
+      <c r="F291" s="1" t="s">
+        <v>913</v>
+      </c>
       <c r="G291" s="6"/>
-    </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J291" s="18" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A292" s="4">
+        <v>289</v>
+      </c>
       <c r="B292" s="1" t="s">
         <v>835</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>837</v>
       </c>
+      <c r="F292" s="1" t="s">
+        <v>913</v>
+      </c>
       <c r="G292" s="6"/>
-    </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="J292" s="18" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A293" s="4">
+        <v>290</v>
+      </c>
       <c r="B293" s="1" t="s">
         <v>838</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>839</v>
       </c>
+      <c r="F293" s="1" t="s">
+        <v>911</v>
+      </c>
       <c r="G293" s="6"/>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A294" s="4">
+        <v>291</v>
+      </c>
       <c r="B294" s="1" t="s">
         <v>852</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>840</v>
       </c>
+      <c r="F294" s="1" t="s">
+        <v>911</v>
+      </c>
       <c r="G294" s="6"/>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A295" s="4">
+        <v>292</v>
+      </c>
       <c r="B295" s="1" t="s">
         <v>853</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>841</v>
       </c>
+      <c r="F295" s="1" t="s">
+        <v>911</v>
+      </c>
       <c r="G295" s="6"/>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A296" s="4">
+        <v>293</v>
+      </c>
       <c r="B296" s="1" t="s">
         <v>854</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>842</v>
       </c>
+      <c r="F296" s="1" t="s">
+        <v>911</v>
+      </c>
       <c r="G296" s="6"/>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A297" s="4">
+        <v>294</v>
+      </c>
       <c r="B297" s="1" t="s">
         <v>855</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>843</v>
       </c>
+      <c r="F297" s="1" t="s">
+        <v>912</v>
+      </c>
       <c r="G297" s="6"/>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A298" s="4">
+        <v>295</v>
+      </c>
       <c r="B298" s="1" t="s">
         <v>856</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>844</v>
       </c>
+      <c r="F298" s="1" t="s">
+        <v>911</v>
+      </c>
       <c r="G298" s="6"/>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A299" s="4">
+        <v>296</v>
+      </c>
       <c r="B299" s="1" t="s">
         <v>857</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>845</v>
       </c>
+      <c r="F299" s="1" t="s">
+        <v>911</v>
+      </c>
       <c r="G299" s="6"/>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A300" s="4">
+        <v>297</v>
+      </c>
       <c r="B300" s="1" t="s">
         <v>858</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>846</v>
       </c>
+      <c r="F300" s="1" t="s">
+        <v>911</v>
+      </c>
       <c r="G300" s="6"/>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A301" s="4">
+        <v>298</v>
+      </c>
       <c r="B301" s="1" t="s">
         <v>859</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>847</v>
       </c>
+      <c r="F301" s="1" t="s">
+        <v>911</v>
+      </c>
       <c r="G301" s="6"/>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A302" s="4">
+        <v>299</v>
+      </c>
       <c r="B302" s="1" t="s">
         <v>860</v>
       </c>
@@ -9376,7 +9492,10 @@
       </c>
       <c r="G302" s="6"/>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A303" s="4">
+        <v>300</v>
+      </c>
       <c r="B303" s="1" t="s">
         <v>863</v>
       </c>
@@ -9388,7 +9507,10 @@
       </c>
       <c r="G303" s="6"/>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A304" s="4">
+        <v>301</v>
+      </c>
       <c r="B304" s="1" t="s">
         <v>864</v>
       </c>
@@ -9400,7 +9522,10 @@
       </c>
       <c r="G304" s="6"/>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A305" s="4">
+        <v>302</v>
+      </c>
       <c r="B305" s="1" t="s">
         <v>865</v>
       </c>
@@ -9412,7 +9537,10 @@
       </c>
       <c r="G305" s="6"/>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A306" s="4">
+        <v>303</v>
+      </c>
       <c r="B306" s="1" t="s">
         <v>866</v>
       </c>
@@ -9424,7 +9552,10 @@
       </c>
       <c r="G306" s="6"/>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A307" s="4">
+        <v>304</v>
+      </c>
       <c r="B307" s="1" t="s">
         <v>867</v>
       </c>
@@ -9436,7 +9567,10 @@
       </c>
       <c r="G307" s="6"/>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A308" s="4">
+        <v>305</v>
+      </c>
       <c r="B308" s="1" t="s">
         <v>876</v>
       </c>
@@ -9448,7 +9582,10 @@
       </c>
       <c r="G308" s="6"/>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A309" s="4">
+        <v>306</v>
+      </c>
       <c r="B309" s="1" t="s">
         <v>877</v>
       </c>
@@ -9460,7 +9597,10 @@
       </c>
       <c r="G309" s="6"/>
     </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A310" s="4">
+        <v>307</v>
+      </c>
       <c r="B310" s="1" t="s">
         <v>879</v>
       </c>
@@ -9472,7 +9612,10 @@
       </c>
       <c r="G310" s="6"/>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A311" s="4">
+        <v>308</v>
+      </c>
       <c r="B311" s="1" t="s">
         <v>890</v>
       </c>
@@ -9484,7 +9627,10 @@
       </c>
       <c r="G311" s="6"/>
     </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A312" s="4">
+        <v>309</v>
+      </c>
       <c r="B312" s="1" t="s">
         <v>885</v>
       </c>
@@ -9496,7 +9642,10 @@
       </c>
       <c r="G312" s="6"/>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A313" s="4">
+        <v>310</v>
+      </c>
       <c r="B313" s="1" t="s">
         <v>883</v>
       </c>
@@ -9508,7 +9657,10 @@
       </c>
       <c r="G313" s="6"/>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A314" s="4">
+        <v>311</v>
+      </c>
       <c r="B314" s="1" t="s">
         <v>886</v>
       </c>
@@ -9520,7 +9672,10 @@
       </c>
       <c r="G314" s="6"/>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A315" s="4">
+        <v>312</v>
+      </c>
       <c r="B315" s="1" t="s">
         <v>887</v>
       </c>
@@ -9532,7 +9687,10 @@
       </c>
       <c r="G315" s="6"/>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A316" s="4">
+        <v>313</v>
+      </c>
       <c r="B316" s="1" t="s">
         <v>900</v>
       </c>
@@ -9544,7 +9702,10 @@
       </c>
       <c r="G316" s="6"/>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A317" s="4">
+        <v>314</v>
+      </c>
       <c r="B317" s="1" t="s">
         <v>902</v>
       </c>
@@ -9556,19 +9717,42 @@
       </c>
       <c r="G317" s="6"/>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A318" s="4">
+        <v>315</v>
+      </c>
       <c r="B318" s="1" t="s">
         <v>904</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>905</v>
       </c>
+      <c r="F318" s="1" t="s">
+        <v>614</v>
+      </c>
       <c r="G318" s="6"/>
     </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G319" s="6"/>
-    </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A319" s="4">
+        <v>316</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G319" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="J319" s="18" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G320" s="6"/>
     </row>
     <row r="321" spans="7:7" x14ac:dyDescent="0.3">
@@ -12263,7 +12447,7 @@
       <c r="G1217" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:K315">
+  <autoFilter ref="B3:K318" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="B4:K288">
       <sortCondition ref="C3:C288"/>
     </sortState>
@@ -12276,185 +12460,188 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2"/>
-    <hyperlink ref="J6" r:id="rId3"/>
-    <hyperlink ref="J7" r:id="rId4"/>
-    <hyperlink ref="J8" r:id="rId5"/>
-    <hyperlink ref="J9" r:id="rId6"/>
-    <hyperlink ref="J10" r:id="rId7"/>
-    <hyperlink ref="J11" r:id="rId8"/>
-    <hyperlink ref="J12" r:id="rId9"/>
-    <hyperlink ref="J13" r:id="rId10"/>
-    <hyperlink ref="J14" r:id="rId11"/>
-    <hyperlink ref="J15" r:id="rId12"/>
-    <hyperlink ref="J16" r:id="rId13"/>
-    <hyperlink ref="J17" r:id="rId14"/>
-    <hyperlink ref="J18" r:id="rId15"/>
-    <hyperlink ref="J19" r:id="rId16"/>
-    <hyperlink ref="J20" r:id="rId17"/>
-    <hyperlink ref="J21" r:id="rId18"/>
-    <hyperlink ref="J22" r:id="rId19"/>
-    <hyperlink ref="J23" r:id="rId20"/>
-    <hyperlink ref="J24" r:id="rId21"/>
-    <hyperlink ref="J25" r:id="rId22"/>
-    <hyperlink ref="J26" r:id="rId23"/>
-    <hyperlink ref="J27" r:id="rId24"/>
-    <hyperlink ref="J28" r:id="rId25"/>
-    <hyperlink ref="J29" r:id="rId26"/>
-    <hyperlink ref="J30" r:id="rId27"/>
-    <hyperlink ref="J31" r:id="rId28"/>
-    <hyperlink ref="J32" r:id="rId29"/>
-    <hyperlink ref="J33" r:id="rId30"/>
-    <hyperlink ref="J34" r:id="rId31"/>
-    <hyperlink ref="J35" r:id="rId32"/>
-    <hyperlink ref="J36" r:id="rId33"/>
-    <hyperlink ref="J37" r:id="rId34"/>
-    <hyperlink ref="J38" r:id="rId35"/>
-    <hyperlink ref="J39" r:id="rId36"/>
-    <hyperlink ref="J40" r:id="rId37"/>
-    <hyperlink ref="J41" r:id="rId38"/>
-    <hyperlink ref="J42" r:id="rId39"/>
-    <hyperlink ref="J43" r:id="rId40"/>
-    <hyperlink ref="J44" r:id="rId41"/>
-    <hyperlink ref="J45" r:id="rId42"/>
-    <hyperlink ref="J46" r:id="rId43"/>
-    <hyperlink ref="J47" r:id="rId44"/>
-    <hyperlink ref="J48" r:id="rId45"/>
-    <hyperlink ref="J49" r:id="rId46"/>
-    <hyperlink ref="J50" r:id="rId47"/>
-    <hyperlink ref="J51" r:id="rId48"/>
-    <hyperlink ref="J52" r:id="rId49"/>
-    <hyperlink ref="J53" r:id="rId50"/>
-    <hyperlink ref="J54" r:id="rId51"/>
-    <hyperlink ref="J55" r:id="rId52"/>
-    <hyperlink ref="J56" r:id="rId53"/>
-    <hyperlink ref="J57" r:id="rId54"/>
-    <hyperlink ref="J58" r:id="rId55"/>
-    <hyperlink ref="J59" r:id="rId56"/>
-    <hyperlink ref="J60" r:id="rId57"/>
-    <hyperlink ref="J61" r:id="rId58"/>
-    <hyperlink ref="J62" r:id="rId59"/>
-    <hyperlink ref="J63" r:id="rId60"/>
-    <hyperlink ref="J65" r:id="rId61"/>
-    <hyperlink ref="J72" r:id="rId62"/>
-    <hyperlink ref="J73" r:id="rId63"/>
-    <hyperlink ref="J74" r:id="rId64"/>
-    <hyperlink ref="J75" r:id="rId65"/>
-    <hyperlink ref="J76" r:id="rId66"/>
-    <hyperlink ref="J77" r:id="rId67"/>
-    <hyperlink ref="J78" r:id="rId68"/>
-    <hyperlink ref="J79" r:id="rId69"/>
-    <hyperlink ref="J80" r:id="rId70"/>
-    <hyperlink ref="J81" r:id="rId71"/>
-    <hyperlink ref="J82" r:id="rId72"/>
-    <hyperlink ref="J83" r:id="rId73"/>
-    <hyperlink ref="J85" r:id="rId74"/>
-    <hyperlink ref="J86" r:id="rId75"/>
-    <hyperlink ref="J87" r:id="rId76"/>
-    <hyperlink ref="J88" r:id="rId77"/>
-    <hyperlink ref="J93" r:id="rId78"/>
-    <hyperlink ref="J94" r:id="rId79"/>
-    <hyperlink ref="J116" r:id="rId80"/>
-    <hyperlink ref="J84" r:id="rId81"/>
-    <hyperlink ref="J98" r:id="rId82"/>
-    <hyperlink ref="J99" r:id="rId83"/>
-    <hyperlink ref="J250" r:id="rId84"/>
-    <hyperlink ref="J121" r:id="rId85"/>
-    <hyperlink ref="J89" r:id="rId86"/>
-    <hyperlink ref="J90" r:id="rId87"/>
-    <hyperlink ref="J102" r:id="rId88"/>
-    <hyperlink ref="J100" r:id="rId89"/>
-    <hyperlink ref="J103" r:id="rId90"/>
-    <hyperlink ref="J104" r:id="rId91"/>
-    <hyperlink ref="J105" r:id="rId92"/>
-    <hyperlink ref="J106" r:id="rId93"/>
-    <hyperlink ref="J109" r:id="rId94"/>
-    <hyperlink ref="J110" r:id="rId95"/>
-    <hyperlink ref="J111" r:id="rId96"/>
-    <hyperlink ref="J112" r:id="rId97"/>
-    <hyperlink ref="J113" r:id="rId98"/>
-    <hyperlink ref="J114" r:id="rId99"/>
-    <hyperlink ref="J115" r:id="rId100"/>
-    <hyperlink ref="J91" r:id="rId101"/>
-    <hyperlink ref="J92" r:id="rId102"/>
-    <hyperlink ref="J96" r:id="rId103"/>
-    <hyperlink ref="J97" r:id="rId104"/>
-    <hyperlink ref="J120" r:id="rId105"/>
-    <hyperlink ref="J119" r:id="rId106"/>
-    <hyperlink ref="J118" r:id="rId107"/>
-    <hyperlink ref="J117" r:id="rId108"/>
-    <hyperlink ref="J123" r:id="rId109"/>
-    <hyperlink ref="J124" r:id="rId110"/>
-    <hyperlink ref="J205" r:id="rId111"/>
-    <hyperlink ref="J206" r:id="rId112"/>
-    <hyperlink ref="J207" r:id="rId113"/>
-    <hyperlink ref="J208" r:id="rId114"/>
-    <hyperlink ref="J209" r:id="rId115"/>
-    <hyperlink ref="J210" r:id="rId116"/>
-    <hyperlink ref="J211" r:id="rId117"/>
-    <hyperlink ref="J212" r:id="rId118"/>
-    <hyperlink ref="J213" r:id="rId119"/>
-    <hyperlink ref="J214" r:id="rId120"/>
-    <hyperlink ref="J215" r:id="rId121"/>
-    <hyperlink ref="J216" r:id="rId122"/>
-    <hyperlink ref="J217" r:id="rId123"/>
-    <hyperlink ref="J219" r:id="rId124"/>
-    <hyperlink ref="J223" r:id="rId125"/>
-    <hyperlink ref="J222" r:id="rId126"/>
-    <hyperlink ref="J230" r:id="rId127"/>
-    <hyperlink ref="J231" r:id="rId128"/>
-    <hyperlink ref="J232" r:id="rId129"/>
-    <hyperlink ref="J235" r:id="rId130"/>
-    <hyperlink ref="J237" r:id="rId131"/>
-    <hyperlink ref="J241" r:id="rId132"/>
-    <hyperlink ref="J242" r:id="rId133"/>
-    <hyperlink ref="J243" r:id="rId134"/>
-    <hyperlink ref="J245" r:id="rId135"/>
-    <hyperlink ref="J125" r:id="rId136"/>
-    <hyperlink ref="J220" r:id="rId137"/>
-    <hyperlink ref="J126" r:id="rId138"/>
-    <hyperlink ref="J127" r:id="rId139"/>
-    <hyperlink ref="J132" r:id="rId140"/>
-    <hyperlink ref="J131" r:id="rId141"/>
-    <hyperlink ref="J128" r:id="rId142"/>
-    <hyperlink ref="J129" r:id="rId143"/>
-    <hyperlink ref="J133" r:id="rId144"/>
-    <hyperlink ref="J134" r:id="rId145"/>
-    <hyperlink ref="J171" r:id="rId146"/>
-    <hyperlink ref="J172" r:id="rId147"/>
-    <hyperlink ref="J173" r:id="rId148"/>
-    <hyperlink ref="J174" r:id="rId149"/>
-    <hyperlink ref="J175" r:id="rId150"/>
-    <hyperlink ref="J177" r:id="rId151"/>
-    <hyperlink ref="J176" r:id="rId152"/>
-    <hyperlink ref="J178" r:id="rId153"/>
-    <hyperlink ref="J182" r:id="rId154"/>
-    <hyperlink ref="J253" r:id="rId155"/>
-    <hyperlink ref="J251" r:id="rId156"/>
-    <hyperlink ref="J254" r:id="rId157"/>
-    <hyperlink ref="J187" r:id="rId158"/>
-    <hyperlink ref="J188" r:id="rId159"/>
-    <hyperlink ref="J189" r:id="rId160"/>
-    <hyperlink ref="J190" r:id="rId161"/>
-    <hyperlink ref="J191" r:id="rId162"/>
-    <hyperlink ref="J192" r:id="rId163"/>
-    <hyperlink ref="J200" r:id="rId164"/>
-    <hyperlink ref="J193" r:id="rId165"/>
-    <hyperlink ref="J263" r:id="rId166"/>
-    <hyperlink ref="J274" r:id="rId167"/>
-    <hyperlink ref="J275" r:id="rId168"/>
-    <hyperlink ref="J276" r:id="rId169"/>
-    <hyperlink ref="J273" r:id="rId170"/>
-    <hyperlink ref="J18:J23" r:id="rId171" display="FILE"/>
-    <hyperlink ref="J64" r:id="rId172"/>
-    <hyperlink ref="J226" r:id="rId173"/>
-    <hyperlink ref="J228" r:id="rId174"/>
-    <hyperlink ref="J227" r:id="rId175"/>
-    <hyperlink ref="J252" r:id="rId176"/>
-    <hyperlink ref="J204" r:id="rId177"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J65" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J85" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J86" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J87" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J88" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J93" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J94" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J116" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J84" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J98" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J99" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J250" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J121" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J102" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J100" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J103" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J104" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J105" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J106" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J109" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J110" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J111" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J112" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J113" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J114" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J115" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J91" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J92" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J96" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J97" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J120" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J119" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J117" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J123" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="J124" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J205" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J206" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="J207" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="J208" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="J209" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="J210" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="J211" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="J212" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J213" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="J214" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="J215" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="J216" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="J217" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="J219" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J223" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="J222" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J230" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="J231" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="J232" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="J235" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J237" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="J241" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J242" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="J243" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="J245" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="J125" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="J220" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="J126" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="J127" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="J132" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="J131" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="J128" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="J129" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="J133" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="J134" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J171" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="J172" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="J173" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="J174" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="J175" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="J177" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="J176" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="J178" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="J182" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="J253" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="J251" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="J254" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="J187" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="J188" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="J189" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="J190" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="J191" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="J192" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="J200" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="J193" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="J263" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="J274" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="J275" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="J276" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="J273" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="J18:J23" r:id="rId171" display="FILE" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="J64" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="J226" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="J228" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="J227" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="J252" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="J204" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="J319" r:id="rId178" xr:uid="{F51F953B-90B6-4940-8D01-A3C9DCD79896}"/>
+    <hyperlink ref="J291" r:id="rId179" xr:uid="{BF7EC704-C084-41E4-8380-3E181DA952E4}"/>
+    <hyperlink ref="J292" r:id="rId180" xr:uid="{50A825A8-1C03-4E64-967E-5D4632584B92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId178"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId181"/>
 </worksheet>
 </file>
--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Documents\workspace\datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA56B43-09A3-41D9-9952-8B26CC567B02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF196B7-3C4D-4443-B10F-7270A4202A51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="913">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -2961,10 +2961,6 @@
   </si>
   <si>
     <t>SN74155N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3227,7 +3223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3281,9 +3277,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3638,8 +3631,8 @@
   <dimension ref="A1:AMJ1217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G322" sqref="G322"/>
+      <pane ySplit="3" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -8583,9 +8576,7 @@
       <c r="F248" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="G248" s="6" t="s">
-        <v>873</v>
-      </c>
+      <c r="G248" s="6"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
@@ -8765,7 +8756,7 @@
         <v>817</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -8773,7 +8764,7 @@
         <v>255</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>699</v>
@@ -8788,7 +8779,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>702</v>
@@ -9306,7 +9297,7 @@
       </c>
       <c r="G290" s="6"/>
     </row>
-    <row r="291" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>288</v>
       </c>
@@ -9317,14 +9308,14 @@
         <v>836</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G291" s="6"/>
-      <c r="J291" s="18" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J291" s="16" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>289</v>
       </c>
@@ -9335,11 +9326,11 @@
         <v>837</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G292" s="6"/>
-      <c r="J292" s="18" t="s">
-        <v>909</v>
+      <c r="J292" s="16" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -9353,7 +9344,7 @@
         <v>839</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G293" s="6"/>
     </row>
@@ -9368,7 +9359,7 @@
         <v>840</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G294" s="6"/>
     </row>
@@ -9383,7 +9374,7 @@
         <v>841</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G295" s="6"/>
     </row>
@@ -9398,7 +9389,7 @@
         <v>842</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G296" s="6"/>
     </row>
@@ -9413,7 +9404,7 @@
         <v>843</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G297" s="6"/>
     </row>
@@ -9428,7 +9419,7 @@
         <v>844</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G298" s="6"/>
     </row>
@@ -9443,7 +9434,7 @@
         <v>845</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G299" s="6"/>
     </row>
@@ -9458,7 +9449,7 @@
         <v>846</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G300" s="6"/>
     </row>
@@ -9473,7 +9464,7 @@
         <v>847</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G301" s="6"/>
     </row>
@@ -9488,7 +9479,7 @@
         <v>848</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G302" s="6"/>
     </row>
@@ -9572,13 +9563,13 @@
         <v>305</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C308" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F308" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="F308" s="1" t="s">
-        <v>875</v>
       </c>
       <c r="G308" s="6"/>
     </row>
@@ -9587,13 +9578,13 @@
         <v>306</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C309" s="1" t="s">
-        <v>878</v>
-      </c>
       <c r="F309" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G309" s="6"/>
     </row>
@@ -9602,13 +9593,13 @@
         <v>307</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C310" s="1" t="s">
-        <v>880</v>
-      </c>
       <c r="F310" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G310" s="6"/>
     </row>
@@ -9617,13 +9608,13 @@
         <v>308</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="F311" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>891</v>
       </c>
       <c r="G311" s="6"/>
     </row>
@@ -9632,13 +9623,13 @@
         <v>309</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G312" s="6"/>
     </row>
@@ -9647,13 +9638,13 @@
         <v>310</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C313" s="1" t="s">
-        <v>884</v>
-      </c>
       <c r="F313" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G313" s="6"/>
     </row>
@@ -9662,13 +9653,13 @@
         <v>311</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G314" s="6"/>
     </row>
@@ -9677,13 +9668,13 @@
         <v>312</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G315" s="6"/>
     </row>
@@ -9692,13 +9683,13 @@
         <v>313</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="C316" s="1" t="s">
-        <v>901</v>
-      </c>
       <c r="F316" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G316" s="6"/>
     </row>
@@ -9707,13 +9698,13 @@
         <v>314</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>903</v>
-      </c>
       <c r="F317" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G317" s="6"/>
     </row>
@@ -9722,34 +9713,34 @@
         <v>315</v>
       </c>
       <c r="B318" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>614</v>
       </c>
       <c r="G318" s="6"/>
     </row>
-    <row r="319" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <v>316</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="F319" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="F319" s="1" t="s">
+      <c r="G319" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="J319" s="16" t="s">
         <v>908</v>
-      </c>
-      <c r="G319" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="J319" s="18" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">

--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Documents\workspace\datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF196B7-3C4D-4443-B10F-7270A4202A51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773C993B-5F53-4054-8E4A-A3B0D2915910}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4500" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4950" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="921">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -3121,6 +3121,36 @@
   <si>
     <t>Voltage Regulator</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD74HC76P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A16-02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dual J-K Flip-Flops (with Preset and Clear)</t>
+  </si>
+  <si>
+    <t>FILE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD74HC193P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synchronous Up/Down 4-bit Binary Counter (Dual Clock Lines)</t>
   </si>
 </sst>
 </file>
@@ -3631,8 +3661,8 @@
   <dimension ref="A1:AMJ1217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+      <pane ySplit="3" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -5738,11 +5768,25 @@
       <c r="A95" s="4">
         <v>92</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="B95" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="G95" s="1"/>
-      <c r="J95" s="16"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="15" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="96" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
@@ -9744,7 +9788,24 @@
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G320" s="6"/>
+      <c r="A320" s="4">
+        <v>317</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="J320" s="16" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="321" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G321" s="6"/>
@@ -9753,7 +9814,9 @@
       <c r="G322" s="6"/>
     </row>
     <row r="323" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G323" s="6"/>
+      <c r="G323" s="6" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="324" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G324" s="6"/>
@@ -12631,8 +12694,10 @@
     <hyperlink ref="J319" r:id="rId178" xr:uid="{F51F953B-90B6-4940-8D01-A3C9DCD79896}"/>
     <hyperlink ref="J291" r:id="rId179" xr:uid="{BF7EC704-C084-41E4-8380-3E181DA952E4}"/>
     <hyperlink ref="J292" r:id="rId180" xr:uid="{50A825A8-1C03-4E64-967E-5D4632584B92}"/>
+    <hyperlink ref="J320" r:id="rId181" xr:uid="{430BF443-D6B8-4F86-94DF-30A88F72F224}"/>
+    <hyperlink ref="J95" r:id="rId182" xr:uid="{08C6E72D-F362-4B40-8661-854D9628752B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId181"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId183"/>
 </worksheet>
 </file>
--- a/00. PARTS LIST.xlsx
+++ b/00. PARTS LIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Documents\workspace\datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773C993B-5F53-4054-8E4A-A3B0D2915910}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFAF64A-A29E-45D7-851A-4F748B45A843}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4950" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="938">
   <si>
     <t>IC CHIP / PARTS LIST</t>
   </si>
@@ -3151,6 +3151,74 @@
   </si>
   <si>
     <t>Synchronous Up/Down 4-bit Binary Counter (Dual Clock Lines)</t>
+  </si>
+  <si>
+    <t>LIGHT SENSOR MODULE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B07-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5v 350lux</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B08-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터 드라이버</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMCOM GPD MODULE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ULN2003APG MODULE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A16-03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A16-04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDS SELL GL5549</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조도센서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDS SELL 300?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A16-06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>74LS00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B07-13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3661,8 +3729,8 @@
   <dimension ref="A1:AMJ1217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
+      <pane ySplit="3" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G321" sqref="G321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -9807,54 +9875,140 @@
         <v>917</v>
       </c>
     </row>
-    <row r="321" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G321" s="6"/>
-    </row>
-    <row r="322" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G322" s="6"/>
-    </row>
-    <row r="323" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" s="4">
+        <v>318</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G321" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" s="4">
+        <v>319</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="G322" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" s="4">
+        <v>320</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>930</v>
+      </c>
       <c r="G323" s="6" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="324" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G324" s="6"/>
-    </row>
-    <row r="325" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G325" s="6"/>
-    </row>
-    <row r="326" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G326" s="6"/>
-    </row>
-    <row r="327" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" s="4">
+        <v>321</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G324" s="6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" s="4">
+        <v>322</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G325" s="6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" s="4">
+        <v>323</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G326" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H326" s="6"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G327" s="6"/>
     </row>
-    <row r="328" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G329" s="6"/>
     </row>
-    <row r="330" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G330" s="6"/>
     </row>
-    <row r="331" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G331" s="6"/>
     </row>
-    <row r="332" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G332" s="6"/>
     </row>
-    <row r="333" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G333" s="6"/>
     </row>
-    <row r="334" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G334" s="6"/>
     </row>
-    <row r="335" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G335" s="6"/>
     </row>
-    <row r="336" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G336" s="6"/>
     </row>
     <row r="337" spans="7:7" x14ac:dyDescent="0.3">
